--- a/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース設計書_(ファイルID)_(ファイル名)_(I／Fファイル).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース設計書_(ファイルID)_(ファイル名)_(I／Fファイル).xlsx
@@ -1276,7 +1276,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -2456,6 +2456,117 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2516,116 +2627,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -2636,69 +2699,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2708,6 +2708,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2720,12 +2771,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2753,50 +2798,212 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2811,217 +3018,49 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3033,6 +3072,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3043,48 +3085,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -5467,7 +5467,7 @@
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
-            <a:t>リポジトリ内の「外部インターフェース設計関連 」を参照。</a:t>
+            <a:t>リポジトリ内の「外部インタフェース設計関連 」を参照。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
             <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
@@ -6071,12 +6071,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="S2" s="172"/>
@@ -6088,29 +6088,29 @@
       <c r="Y2" s="172"/>
       <c r="Z2" s="172"/>
     </row>
-    <row r="3" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1"/>
+    <row r="17" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="18" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="19" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="20" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="21" spans="2:19" ht="13.5" customHeight="1"/>
+    <row r="22" spans="2:19" ht="9" customHeight="1"/>
+    <row r="23" spans="2:19" ht="17.25" customHeight="1">
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
@@ -6128,7 +6128,7 @@
       <c r="R23" s="68"/>
       <c r="S23" s="68"/>
     </row>
-    <row r="24" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:19" ht="15.95" customHeight="1">
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -6139,7 +6139,7 @@
       <c r="K24" s="106"/>
       <c r="L24" s="106"/>
     </row>
-    <row r="25" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:19" ht="18" customHeight="1">
       <c r="B25" s="69"/>
       <c r="C25" s="69"/>
       <c r="D25" s="69"/>
@@ -6159,7 +6159,7 @@
       <c r="R25" s="69"/>
       <c r="S25" s="69"/>
     </row>
-    <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:19" ht="13.5" customHeight="1">
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -6171,7 +6171,7 @@
       <c r="K26" s="173"/>
       <c r="L26" s="106"/>
     </row>
-    <row r="27" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" ht="13.5" customHeight="1">
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -6179,7 +6179,7 @@
       <c r="J27" s="106"/>
       <c r="K27" s="106"/>
     </row>
-    <row r="28" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" ht="13.5" customHeight="1">
       <c r="F28" s="7"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -6187,14 +6187,14 @@
       <c r="J28" s="106"/>
       <c r="K28" s="106"/>
     </row>
-    <row r="29" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" ht="15" customHeight="1">
       <c r="F29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="106"/>
       <c r="J29" s="106"/>
       <c r="K29" s="106"/>
     </row>
-    <row r="30" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" ht="13.5" customHeight="1">
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
       <c r="H30" s="6"/>
@@ -6202,7 +6202,7 @@
       <c r="J30" s="106"/>
       <c r="K30" s="106"/>
     </row>
-    <row r="31" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" ht="18.75" customHeight="1">
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
       <c r="H31" s="6"/>
@@ -6210,7 +6210,7 @@
       <c r="J31" s="106"/>
       <c r="K31" s="106"/>
     </row>
-    <row r="32" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" ht="13.5" customHeight="1">
       <c r="F32" s="6"/>
       <c r="G32" s="8"/>
       <c r="H32" s="6"/>
@@ -6218,7 +6218,7 @@
       <c r="J32" s="106"/>
       <c r="K32" s="106"/>
     </row>
-    <row r="33" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:11" ht="18.75" customHeight="1">
       <c r="F33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="106"/>
@@ -6227,498 +6227,498 @@
       </c>
       <c r="K33" s="106"/>
     </row>
-    <row r="34" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:11" ht="18.75" customHeight="1">
       <c r="F34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="106"/>
       <c r="J34" s="109"/>
       <c r="K34" s="106"/>
     </row>
-    <row r="35" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:11" ht="18.75" customHeight="1">
       <c r="I35" s="106"/>
       <c r="J35" s="108" t="s">
         <v>78</v>
       </c>
       <c r="K35" s="106"/>
     </row>
-    <row r="36" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="37" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="38" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="39" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:11" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I26:K26"/>
@@ -6743,7 +6743,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="78" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="101" customWidth="1"/>
@@ -6752,154 +6752,154 @@
     <col min="36" max="16384" width="4.83203125" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="94" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:40" s="94" customFormat="1" ht="11.25">
+      <c r="A1" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="213" t="s">
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="222"/>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="210" t="s">
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="189"/>
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="212"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="198" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="197" t="str">
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="200"/>
+      <c r="AG1" s="201" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="198"/>
-      <c r="AI1" s="199"/>
+      <c r="AH1" s="202"/>
+      <c r="AI1" s="203"/>
       <c r="AK1" s="95"/>
       <c r="AL1" s="95"/>
       <c r="AM1" s="95"/>
       <c r="AN1" s="96"/>
     </row>
-    <row r="2" spans="1:40" s="94" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="210" t="s">
+    <row r="2" spans="1:40" s="94" customFormat="1" ht="11.25">
+      <c r="A2" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="210" t="s">
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="194"/>
+      <c r="AA2" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="207" t="str">
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="204" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="209"/>
-      <c r="AG2" s="197" t="str">
+      <c r="AD2" s="205"/>
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="201" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
+      <c r="AH2" s="202"/>
+      <c r="AI2" s="203"/>
       <c r="AK2" s="95"/>
       <c r="AL2" s="95"/>
       <c r="AM2" s="95"/>
       <c r="AN2" s="95"/>
     </row>
-    <row r="3" spans="1:40" s="94" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="210" t="s">
+    <row r="3" spans="1:40" s="94" customFormat="1" ht="11.25">
+      <c r="A3" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="230"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="194"/>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="198"/>
-      <c r="AI3" s="199"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="196"/>
+      <c r="U3" s="196"/>
+      <c r="V3" s="196"/>
+      <c r="W3" s="196"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="196"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="198"/>
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="200"/>
+      <c r="AG3" s="201"/>
+      <c r="AH3" s="202"/>
+      <c r="AI3" s="203"/>
       <c r="AK3" s="95"/>
       <c r="AL3" s="95"/>
       <c r="AM3" s="95"/>
       <c r="AN3" s="95"/>
     </row>
-    <row r="4" spans="1:40" s="97" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" s="97" customFormat="1" ht="19.5" customHeight="1">
       <c r="AB4" s="98"/>
       <c r="AC4" s="98"/>
       <c r="AD4" s="99"/>
@@ -6910,7 +6910,7 @@
       <c r="AI4" s="98"/>
       <c r="AJ4" s="98"/>
     </row>
-    <row r="5" spans="1:40" s="97" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="97" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="2" t="s">
         <v>0</v>
       </c>
@@ -6924,7 +6924,7 @@
       <c r="AI5" s="98"/>
       <c r="AJ5" s="98"/>
     </row>
-    <row r="6" spans="1:40" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="97" customFormat="1" ht="15" customHeight="1">
       <c r="N6" s="2"/>
       <c r="AB6" s="98"/>
       <c r="AC6" s="98"/>
@@ -6936,283 +6936,283 @@
       <c r="AI6" s="98"/>
       <c r="AJ6" s="98"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="201"/>
-      <c r="D7" s="200" t="s">
+      <c r="C7" s="208"/>
+      <c r="D7" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="200" t="s">
+      <c r="E7" s="209"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="207" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="202"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="203" t="s">
+      <c r="H7" s="209"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="210" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="201"/>
-      <c r="Q7" s="200" t="s">
+      <c r="K7" s="209"/>
+      <c r="L7" s="209"/>
+      <c r="M7" s="209"/>
+      <c r="N7" s="209"/>
+      <c r="O7" s="209"/>
+      <c r="P7" s="208"/>
+      <c r="Q7" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="202"/>
-      <c r="S7" s="202"/>
-      <c r="T7" s="202"/>
-      <c r="U7" s="202"/>
-      <c r="V7" s="202"/>
-      <c r="W7" s="202"/>
-      <c r="X7" s="202"/>
-      <c r="Y7" s="202"/>
-      <c r="Z7" s="202"/>
-      <c r="AA7" s="202"/>
-      <c r="AB7" s="202"/>
-      <c r="AC7" s="202"/>
-      <c r="AD7" s="202"/>
-      <c r="AE7" s="201"/>
-      <c r="AF7" s="200" t="s">
+      <c r="R7" s="209"/>
+      <c r="S7" s="209"/>
+      <c r="T7" s="209"/>
+      <c r="U7" s="209"/>
+      <c r="V7" s="209"/>
+      <c r="W7" s="209"/>
+      <c r="X7" s="209"/>
+      <c r="Y7" s="209"/>
+      <c r="Z7" s="209"/>
+      <c r="AA7" s="209"/>
+      <c r="AB7" s="209"/>
+      <c r="AC7" s="209"/>
+      <c r="AD7" s="209"/>
+      <c r="AE7" s="208"/>
+      <c r="AF7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="202"/>
-      <c r="AH7" s="202"/>
-      <c r="AI7" s="201"/>
+      <c r="AG7" s="209"/>
+      <c r="AH7" s="209"/>
+      <c r="AI7" s="208"/>
       <c r="AJ7" s="77"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="163"/>
-      <c r="B8" s="183"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="185"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="191"/>
-      <c r="K8" s="192"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="192"/>
-      <c r="N8" s="192"/>
-      <c r="O8" s="192"/>
-      <c r="P8" s="193"/>
-      <c r="Q8" s="191"/>
-      <c r="R8" s="192"/>
-      <c r="S8" s="192"/>
-      <c r="T8" s="192"/>
-      <c r="U8" s="192"/>
-      <c r="V8" s="192"/>
-      <c r="W8" s="192"/>
-      <c r="X8" s="192"/>
-      <c r="Y8" s="192"/>
-      <c r="Z8" s="192"/>
-      <c r="AA8" s="192"/>
-      <c r="AB8" s="192"/>
-      <c r="AC8" s="192"/>
-      <c r="AD8" s="192"/>
-      <c r="AE8" s="193"/>
+      <c r="B8" s="220"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="225"/>
+      <c r="H8" s="226"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="228"/>
+      <c r="K8" s="229"/>
+      <c r="L8" s="229"/>
+      <c r="M8" s="229"/>
+      <c r="N8" s="229"/>
+      <c r="O8" s="229"/>
+      <c r="P8" s="230"/>
+      <c r="Q8" s="228"/>
+      <c r="R8" s="229"/>
+      <c r="S8" s="229"/>
+      <c r="T8" s="229"/>
+      <c r="U8" s="229"/>
+      <c r="V8" s="229"/>
+      <c r="W8" s="229"/>
+      <c r="X8" s="229"/>
+      <c r="Y8" s="229"/>
+      <c r="Z8" s="229"/>
+      <c r="AA8" s="229"/>
+      <c r="AB8" s="229"/>
+      <c r="AC8" s="229"/>
+      <c r="AD8" s="229"/>
+      <c r="AE8" s="230"/>
       <c r="AF8" s="110"/>
       <c r="AG8" s="92"/>
       <c r="AH8" s="92"/>
       <c r="AI8" s="93"/>
       <c r="AJ8" s="77"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="15" customHeight="1">
       <c r="A9" s="164"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="181"/>
-      <c r="P9" s="182"/>
-      <c r="Q9" s="180"/>
-      <c r="R9" s="181"/>
-      <c r="S9" s="181"/>
-      <c r="T9" s="181"/>
-      <c r="U9" s="181"/>
-      <c r="V9" s="181"/>
-      <c r="W9" s="181"/>
-      <c r="X9" s="181"/>
-      <c r="Y9" s="181"/>
-      <c r="Z9" s="181"/>
-      <c r="AA9" s="181"/>
-      <c r="AB9" s="181"/>
-      <c r="AC9" s="181"/>
-      <c r="AD9" s="181"/>
-      <c r="AE9" s="182"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="216"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="217"/>
+      <c r="K9" s="218"/>
+      <c r="L9" s="218"/>
+      <c r="M9" s="218"/>
+      <c r="N9" s="218"/>
+      <c r="O9" s="218"/>
+      <c r="P9" s="219"/>
+      <c r="Q9" s="217"/>
+      <c r="R9" s="218"/>
+      <c r="S9" s="218"/>
+      <c r="T9" s="218"/>
+      <c r="U9" s="218"/>
+      <c r="V9" s="218"/>
+      <c r="W9" s="218"/>
+      <c r="X9" s="218"/>
+      <c r="Y9" s="218"/>
+      <c r="Z9" s="218"/>
+      <c r="AA9" s="218"/>
+      <c r="AB9" s="218"/>
+      <c r="AC9" s="218"/>
+      <c r="AD9" s="218"/>
+      <c r="AE9" s="219"/>
       <c r="AF9" s="86"/>
       <c r="AG9" s="87"/>
       <c r="AH9" s="87"/>
       <c r="AI9" s="88"/>
       <c r="AJ9" s="9"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="164"/>
-      <c r="B10" s="174"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="182"/>
-      <c r="Q10" s="180"/>
-      <c r="R10" s="181"/>
-      <c r="S10" s="181"/>
-      <c r="T10" s="181"/>
-      <c r="U10" s="181"/>
-      <c r="V10" s="181"/>
-      <c r="W10" s="181"/>
-      <c r="X10" s="181"/>
-      <c r="Y10" s="181"/>
-      <c r="Z10" s="181"/>
-      <c r="AA10" s="181"/>
-      <c r="AB10" s="181"/>
-      <c r="AC10" s="181"/>
-      <c r="AD10" s="181"/>
-      <c r="AE10" s="182"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="218"/>
+      <c r="L10" s="218"/>
+      <c r="M10" s="218"/>
+      <c r="N10" s="218"/>
+      <c r="O10" s="218"/>
+      <c r="P10" s="219"/>
+      <c r="Q10" s="217"/>
+      <c r="R10" s="218"/>
+      <c r="S10" s="218"/>
+      <c r="T10" s="218"/>
+      <c r="U10" s="218"/>
+      <c r="V10" s="218"/>
+      <c r="W10" s="218"/>
+      <c r="X10" s="218"/>
+      <c r="Y10" s="218"/>
+      <c r="Z10" s="218"/>
+      <c r="AA10" s="218"/>
+      <c r="AB10" s="218"/>
+      <c r="AC10" s="218"/>
+      <c r="AD10" s="218"/>
+      <c r="AE10" s="219"/>
       <c r="AF10" s="86"/>
       <c r="AG10" s="87"/>
       <c r="AH10" s="87"/>
       <c r="AI10" s="88"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="164"/>
-      <c r="B11" s="174"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="177"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="181"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="181"/>
-      <c r="P11" s="182"/>
-      <c r="Q11" s="180"/>
-      <c r="R11" s="181"/>
-      <c r="S11" s="181"/>
-      <c r="T11" s="181"/>
-      <c r="U11" s="181"/>
-      <c r="V11" s="181"/>
-      <c r="W11" s="181"/>
-      <c r="X11" s="181"/>
-      <c r="Y11" s="181"/>
-      <c r="Z11" s="181"/>
-      <c r="AA11" s="181"/>
-      <c r="AB11" s="181"/>
-      <c r="AC11" s="181"/>
-      <c r="AD11" s="181"/>
-      <c r="AE11" s="182"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="214"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="217"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
+      <c r="M11" s="218"/>
+      <c r="N11" s="218"/>
+      <c r="O11" s="218"/>
+      <c r="P11" s="219"/>
+      <c r="Q11" s="217"/>
+      <c r="R11" s="218"/>
+      <c r="S11" s="218"/>
+      <c r="T11" s="218"/>
+      <c r="U11" s="218"/>
+      <c r="V11" s="218"/>
+      <c r="W11" s="218"/>
+      <c r="X11" s="218"/>
+      <c r="Y11" s="218"/>
+      <c r="Z11" s="218"/>
+      <c r="AA11" s="218"/>
+      <c r="AB11" s="218"/>
+      <c r="AC11" s="218"/>
+      <c r="AD11" s="218"/>
+      <c r="AE11" s="219"/>
       <c r="AF11" s="86"/>
       <c r="AG11" s="87"/>
       <c r="AH11" s="87"/>
       <c r="AI11" s="88"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="164"/>
-      <c r="B12" s="174"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="177"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="181"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="181"/>
-      <c r="P12" s="182"/>
-      <c r="Q12" s="180"/>
-      <c r="R12" s="181"/>
-      <c r="S12" s="181"/>
-      <c r="T12" s="181"/>
-      <c r="U12" s="181"/>
-      <c r="V12" s="181"/>
-      <c r="W12" s="181"/>
-      <c r="X12" s="181"/>
-      <c r="Y12" s="181"/>
-      <c r="Z12" s="181"/>
-      <c r="AA12" s="181"/>
-      <c r="AB12" s="181"/>
-      <c r="AC12" s="181"/>
-      <c r="AD12" s="181"/>
-      <c r="AE12" s="182"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="215"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="216"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="219"/>
+      <c r="Q12" s="217"/>
+      <c r="R12" s="218"/>
+      <c r="S12" s="218"/>
+      <c r="T12" s="218"/>
+      <c r="U12" s="218"/>
+      <c r="V12" s="218"/>
+      <c r="W12" s="218"/>
+      <c r="X12" s="218"/>
+      <c r="Y12" s="218"/>
+      <c r="Z12" s="218"/>
+      <c r="AA12" s="218"/>
+      <c r="AB12" s="218"/>
+      <c r="AC12" s="218"/>
+      <c r="AD12" s="218"/>
+      <c r="AE12" s="219"/>
       <c r="AF12" s="86"/>
       <c r="AG12" s="87"/>
       <c r="AH12" s="87"/>
       <c r="AI12" s="88"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="164"/>
-      <c r="B13" s="174"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="181"/>
-      <c r="P13" s="182"/>
-      <c r="Q13" s="180"/>
-      <c r="R13" s="181"/>
-      <c r="S13" s="181"/>
-      <c r="T13" s="181"/>
-      <c r="U13" s="181"/>
-      <c r="V13" s="181"/>
-      <c r="W13" s="181"/>
-      <c r="X13" s="181"/>
-      <c r="Y13" s="181"/>
-      <c r="Z13" s="181"/>
-      <c r="AA13" s="181"/>
-      <c r="AB13" s="181"/>
-      <c r="AC13" s="181"/>
-      <c r="AD13" s="181"/>
-      <c r="AE13" s="182"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="216"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="217"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="218"/>
+      <c r="O13" s="218"/>
+      <c r="P13" s="219"/>
+      <c r="Q13" s="217"/>
+      <c r="R13" s="218"/>
+      <c r="S13" s="218"/>
+      <c r="T13" s="218"/>
+      <c r="U13" s="218"/>
+      <c r="V13" s="218"/>
+      <c r="W13" s="218"/>
+      <c r="X13" s="218"/>
+      <c r="Y13" s="218"/>
+      <c r="Z13" s="218"/>
+      <c r="AA13" s="218"/>
+      <c r="AB13" s="218"/>
+      <c r="AC13" s="218"/>
+      <c r="AD13" s="218"/>
+      <c r="AE13" s="219"/>
       <c r="AF13" s="86"/>
       <c r="AG13" s="87"/>
       <c r="AH13" s="87"/>
       <c r="AI13" s="88"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="164"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
@@ -7249,7 +7249,7 @@
       <c r="AH14" s="87"/>
       <c r="AI14" s="88"/>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="164"/>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
@@ -7286,7 +7286,7 @@
       <c r="AH15" s="87"/>
       <c r="AI15" s="88"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="164"/>
       <c r="B16" s="80"/>
       <c r="C16" s="81"/>
@@ -7323,7 +7323,7 @@
       <c r="AH16" s="87"/>
       <c r="AI16" s="88"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="164"/>
       <c r="B17" s="80"/>
       <c r="C17" s="81"/>
@@ -7360,7 +7360,7 @@
       <c r="AH17" s="87"/>
       <c r="AI17" s="88"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="164"/>
       <c r="B18" s="80"/>
       <c r="C18" s="81"/>
@@ -7397,7 +7397,7 @@
       <c r="AH18" s="87"/>
       <c r="AI18" s="88"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="164"/>
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
@@ -7434,7 +7434,7 @@
       <c r="AH19" s="87"/>
       <c r="AI19" s="88"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="164"/>
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
@@ -7471,7 +7471,7 @@
       <c r="AH20" s="87"/>
       <c r="AI20" s="88"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="164"/>
       <c r="B21" s="80"/>
       <c r="C21" s="81"/>
@@ -7508,7 +7508,7 @@
       <c r="AH21" s="87"/>
       <c r="AI21" s="88"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="164"/>
       <c r="B22" s="80"/>
       <c r="C22" s="81"/>
@@ -7545,7 +7545,7 @@
       <c r="AH22" s="87"/>
       <c r="AI22" s="88"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="164"/>
       <c r="B23" s="80"/>
       <c r="C23" s="81"/>
@@ -7582,7 +7582,7 @@
       <c r="AH23" s="87"/>
       <c r="AI23" s="88"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="164"/>
       <c r="B24" s="80"/>
       <c r="C24" s="81"/>
@@ -7619,7 +7619,7 @@
       <c r="AH24" s="87"/>
       <c r="AI24" s="88"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="164"/>
       <c r="B25" s="80"/>
       <c r="C25" s="81"/>
@@ -7656,7 +7656,7 @@
       <c r="AH25" s="87"/>
       <c r="AI25" s="88"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="164"/>
       <c r="B26" s="80"/>
       <c r="C26" s="81"/>
@@ -7693,7 +7693,7 @@
       <c r="AH26" s="87"/>
       <c r="AI26" s="88"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="164"/>
       <c r="B27" s="80"/>
       <c r="C27" s="81"/>
@@ -7730,7 +7730,7 @@
       <c r="AH27" s="87"/>
       <c r="AI27" s="88"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="164"/>
       <c r="B28" s="80"/>
       <c r="C28" s="81"/>
@@ -7767,7 +7767,7 @@
       <c r="AH28" s="87"/>
       <c r="AI28" s="88"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="164"/>
       <c r="B29" s="80"/>
       <c r="C29" s="81"/>
@@ -7804,7 +7804,7 @@
       <c r="AH29" s="87"/>
       <c r="AI29" s="88"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="164"/>
       <c r="B30" s="80"/>
       <c r="C30" s="81"/>
@@ -7841,7 +7841,7 @@
       <c r="AH30" s="87"/>
       <c r="AI30" s="88"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="164"/>
       <c r="B31" s="80"/>
       <c r="C31" s="81"/>
@@ -7878,7 +7878,7 @@
       <c r="AH31" s="87"/>
       <c r="AI31" s="88"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="164"/>
       <c r="B32" s="80"/>
       <c r="C32" s="81"/>
@@ -7915,7 +7915,7 @@
       <c r="AH32" s="87"/>
       <c r="AI32" s="88"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="164"/>
       <c r="B33" s="80"/>
       <c r="C33" s="81"/>
@@ -7954,6 +7954,49 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -7964,49 +8007,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <printOptions horizontalCentered="1"/>
@@ -8027,7 +8027,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="78" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="150" customWidth="1"/>
@@ -8162,160 +8162,160 @@
     <col min="16163" max="16384" width="4.83203125" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="121" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="234" t="s">
+    <row r="1" spans="1:35" s="121" customFormat="1" ht="11.25">
+      <c r="A1" s="240" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="204" t="str">
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="246" t="s">
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="243" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="247"/>
-      <c r="Q1" s="247"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="236" t="str">
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="245"/>
+      <c r="S1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="234" t="s">
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="240" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="235"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="242"/>
+      <c r="AC1" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="231" t="str">
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="200"/>
+      <c r="AG1" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="233"/>
-    </row>
-    <row r="2" spans="1:35" s="121" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="234" t="s">
+      <c r="AH1" s="253"/>
+      <c r="AI1" s="254"/>
+    </row>
+    <row r="2" spans="1:35" s="121" customFormat="1" ht="11.25">
+      <c r="A2" s="240" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="204" t="str">
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="250"/>
-      <c r="Q2" s="250"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="241"/>
-      <c r="AA2" s="234" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="248"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="235"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="240" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="235"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="242"/>
+      <c r="AC2" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="231" t="str">
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="232"/>
-      <c r="AI2" s="233"/>
-    </row>
-    <row r="3" spans="1:35" s="121" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="234" t="s">
+      <c r="AH2" s="253"/>
+      <c r="AI2" s="254"/>
+    </row>
+    <row r="3" spans="1:35" s="121" customFormat="1" ht="11.25">
+      <c r="A3" s="240" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="204" t="str">
+      <c r="B3" s="241"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="252"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="254"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="243"/>
-      <c r="W3" s="243"/>
-      <c r="X3" s="243"/>
-      <c r="Y3" s="243"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="234"/>
-      <c r="AB3" s="235"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="238"/>
+      <c r="V3" s="238"/>
+      <c r="W3" s="238"/>
+      <c r="X3" s="238"/>
+      <c r="Y3" s="238"/>
+      <c r="Z3" s="239"/>
+      <c r="AA3" s="240"/>
+      <c r="AB3" s="242"/>
+      <c r="AC3" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="231" t="str">
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="200"/>
+      <c r="AG3" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="232"/>
-      <c r="AI3" s="233"/>
-    </row>
-    <row r="4" spans="1:35" s="97" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3" s="253"/>
+      <c r="AI3" s="254"/>
+    </row>
+    <row r="4" spans="1:35" s="97" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="95"/>
       <c r="B4" s="95"/>
       <c r="C4" s="95"/>
@@ -8352,7 +8352,7 @@
       <c r="AH4" s="95"/>
       <c r="AI4" s="95"/>
     </row>
-    <row r="5" spans="1:35" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="97" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="95"/>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
@@ -8391,7 +8391,7 @@
       <c r="AH5" s="95"/>
       <c r="AI5" s="95"/>
     </row>
-    <row r="6" spans="1:35" s="97" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="97" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="95"/>
       <c r="B6" s="95"/>
       <c r="C6" s="95"/>
@@ -8428,7 +8428,7 @@
       <c r="AH6" s="95"/>
       <c r="AI6" s="95"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="122"/>
       <c r="B7" s="125" t="s">
         <v>94</v>
@@ -8467,7 +8467,7 @@
       <c r="AH7" s="129"/>
       <c r="AI7" s="130"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="122"/>
       <c r="B8" s="125"/>
       <c r="C8" s="125"/>
@@ -8504,7 +8504,7 @@
       <c r="AH8" s="129"/>
       <c r="AI8" s="130"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="122"/>
       <c r="B9" s="132" t="s">
         <v>90</v>
@@ -8543,7 +8543,7 @@
       <c r="AH9" s="131"/>
       <c r="AI9" s="122"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="15" customHeight="1">
       <c r="A10" s="122"/>
       <c r="B10" s="126"/>
       <c r="D10" s="126"/>
@@ -8579,7 +8579,7 @@
       <c r="AH10" s="129"/>
       <c r="AI10" s="130"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="122"/>
       <c r="B11" s="162" t="s">
         <v>92</v>
@@ -8618,7 +8618,7 @@
       <c r="AH11" s="129"/>
       <c r="AI11" s="130"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="15" customHeight="1">
       <c r="A12" s="122"/>
       <c r="B12" s="126"/>
       <c r="C12" s="161" t="s">
@@ -8652,7 +8652,7 @@
       <c r="AH12" s="129"/>
       <c r="AI12" s="130"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="15" customHeight="1">
       <c r="A13" s="122"/>
       <c r="B13" s="130"/>
       <c r="C13" s="161"/>
@@ -8689,7 +8689,7 @@
       <c r="AH13" s="129"/>
       <c r="AI13" s="130"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="15" customHeight="1">
       <c r="A14" s="122"/>
       <c r="B14" s="132"/>
       <c r="C14" s="161"/>
@@ -8726,7 +8726,7 @@
       <c r="AH14" s="129"/>
       <c r="AI14" s="130"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="15" customHeight="1">
       <c r="A15" s="122"/>
       <c r="B15" s="132"/>
       <c r="C15" s="161"/>
@@ -8759,7 +8759,7 @@
       <c r="AH15" s="129"/>
       <c r="AI15" s="130"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="15" customHeight="1">
       <c r="A16" s="122"/>
       <c r="B16" s="95"/>
       <c r="C16" s="132"/>
@@ -8796,7 +8796,7 @@
       <c r="AH16" s="129"/>
       <c r="AI16" s="130"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="122"/>
       <c r="B17" s="95"/>
       <c r="C17" s="122"/>
@@ -8833,7 +8833,7 @@
       <c r="AH17" s="129"/>
       <c r="AI17" s="130"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="122"/>
       <c r="B18" s="95"/>
       <c r="C18" s="122"/>
@@ -8870,7 +8870,7 @@
       <c r="AH18" s="129"/>
       <c r="AI18" s="130"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="122"/>
       <c r="B19" s="95"/>
       <c r="C19" s="122"/>
@@ -8907,7 +8907,7 @@
       <c r="AH19" s="129"/>
       <c r="AI19" s="130"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="122"/>
       <c r="B20" s="95"/>
       <c r="C20" s="122"/>
@@ -8944,7 +8944,7 @@
       <c r="AH20" s="129"/>
       <c r="AI20" s="130"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="122"/>
       <c r="B21" s="95"/>
       <c r="C21" s="122"/>
@@ -8981,7 +8981,7 @@
       <c r="AH21" s="129"/>
       <c r="AI21" s="130"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="122"/>
       <c r="B22" s="134"/>
       <c r="C22" s="126"/>
@@ -9018,7 +9018,7 @@
       <c r="AH22" s="129"/>
       <c r="AI22" s="130"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="122"/>
       <c r="B23" s="95"/>
       <c r="C23" s="122"/>
@@ -9055,7 +9055,7 @@
       <c r="AH23" s="129"/>
       <c r="AI23" s="130"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="122"/>
       <c r="B24" s="95"/>
       <c r="C24" s="122"/>
@@ -9092,7 +9092,7 @@
       <c r="AH24" s="129"/>
       <c r="AI24" s="130"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="122"/>
       <c r="B25" s="95"/>
       <c r="C25" s="122"/>
@@ -9129,7 +9129,7 @@
       <c r="AH25" s="129"/>
       <c r="AI25" s="130"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="122"/>
       <c r="B26" s="95"/>
       <c r="C26" s="122"/>
@@ -9166,7 +9166,7 @@
       <c r="AH26" s="129"/>
       <c r="AI26" s="130"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="122"/>
       <c r="B27" s="95"/>
       <c r="C27" s="122"/>
@@ -9203,7 +9203,7 @@
       <c r="AH27" s="129"/>
       <c r="AI27" s="130"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="122"/>
       <c r="B28" s="95"/>
       <c r="C28" s="122"/>
@@ -9240,7 +9240,7 @@
       <c r="AH28" s="129"/>
       <c r="AI28" s="130"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="135"/>
       <c r="B29" s="95"/>
       <c r="C29" s="95"/>
@@ -9277,7 +9277,7 @@
       <c r="AH29" s="138"/>
       <c r="AI29" s="139"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="135"/>
       <c r="B30" s="95"/>
       <c r="C30" s="123"/>
@@ -9314,7 +9314,7 @@
       <c r="AH30" s="138"/>
       <c r="AI30" s="139"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="135"/>
       <c r="B31" s="142"/>
       <c r="C31" s="122"/>
@@ -9351,7 +9351,7 @@
       <c r="AH31" s="138"/>
       <c r="AI31" s="139"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="135"/>
       <c r="B32" s="142"/>
       <c r="C32" s="122"/>
@@ -9388,7 +9388,7 @@
       <c r="AH32" s="138"/>
       <c r="AI32" s="139"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="135"/>
       <c r="B33" s="142"/>
       <c r="C33" s="122"/>
@@ -9425,7 +9425,7 @@
       <c r="AH33" s="138"/>
       <c r="AI33" s="139"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="15" customHeight="1">
       <c r="A34" s="135"/>
       <c r="B34" s="142"/>
       <c r="C34" s="122"/>
@@ -9462,7 +9462,7 @@
       <c r="AH34" s="138"/>
       <c r="AI34" s="139"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" ht="15" customHeight="1">
       <c r="A35" s="135"/>
       <c r="B35" s="135"/>
       <c r="C35" s="135"/>
@@ -9499,7 +9499,7 @@
       <c r="AH35" s="147"/>
       <c r="AI35" s="135"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" ht="15" customHeight="1">
       <c r="B36" s="148"/>
       <c r="E36" s="148"/>
       <c r="F36" s="148"/>
@@ -9531,7 +9531,7 @@
       <c r="AH36" s="155"/>
       <c r="AI36" s="151"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="15" customHeight="1">
       <c r="S37" s="151"/>
       <c r="T37" s="151"/>
       <c r="U37" s="152"/>
@@ -9550,7 +9550,7 @@
       <c r="AH37" s="158"/>
       <c r="AI37" s="151"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="15" customHeight="1">
       <c r="Q38" s="159"/>
       <c r="S38" s="151"/>
       <c r="T38" s="152"/>
@@ -9570,7 +9570,7 @@
       <c r="AH38" s="158"/>
       <c r="AI38" s="151"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="15" customHeight="1">
       <c r="S39" s="151"/>
       <c r="T39" s="151"/>
       <c r="U39" s="151"/>
@@ -9589,7 +9589,7 @@
       <c r="AH39" s="158"/>
       <c r="AI39" s="151"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="15" customHeight="1">
       <c r="J40" s="148"/>
       <c r="K40" s="148"/>
       <c r="L40" s="148"/>
@@ -9603,37 +9603,37 @@
       <c r="AH40" s="158"/>
       <c r="AI40" s="151"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="15" customHeight="1">
       <c r="AE41" s="151"/>
       <c r="AF41" s="156"/>
       <c r="AG41" s="157"/>
       <c r="AH41" s="158"/>
       <c r="AI41" s="151"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="15" customHeight="1">
       <c r="AE42" s="151"/>
       <c r="AF42" s="156"/>
       <c r="AG42" s="156"/>
       <c r="AH42" s="158"/>
       <c r="AI42" s="151"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="15" customHeight="1">
       <c r="A43" s="148"/>
       <c r="AF43" s="160"/>
       <c r="AG43" s="160"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="15" customHeight="1">
       <c r="A44" s="148"/>
       <c r="AG44" s="160"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="15" customHeight="1">
       <c r="AF45" s="160"/>
       <c r="AG45" s="160"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="15" customHeight="1">
       <c r="AG46" s="160"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="15" customHeight="1">
       <c r="S47" s="148"/>
       <c r="T47" s="148"/>
       <c r="V47" s="148"/>
@@ -9646,7 +9646,7 @@
       <c r="AC47" s="148"/>
       <c r="AD47" s="148"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" ht="15" customHeight="1">
       <c r="R48" s="148"/>
       <c r="S48" s="148"/>
       <c r="T48" s="148"/>
@@ -9661,10 +9661,10 @@
       <c r="AD48" s="148"/>
       <c r="AG48" s="160"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" ht="15" customHeight="1">
       <c r="R49" s="148"/>
     </row>
-    <row r="50" spans="1:34" s="148" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" s="148" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="78"/>
       <c r="B50" s="78"/>
       <c r="C50" s="78"/>
@@ -9697,7 +9697,7 @@
       <c r="AD50" s="78"/>
       <c r="AH50" s="159"/>
     </row>
-    <row r="51" spans="1:34" s="148" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" s="148" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="78"/>
       <c r="B51" s="78"/>
       <c r="C51" s="78"/>
@@ -9732,6 +9732,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
@@ -9742,13 +9749,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <printOptions horizontalCentered="1"/>
@@ -9769,165 +9769,165 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:35" s="38" customFormat="1">
+      <c r="A1" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="204" t="str">
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="213" t="s">
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="236" t="str">
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="210" t="s">
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="212"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="231" t="str">
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="200"/>
+      <c r="AG1" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="233"/>
-    </row>
-    <row r="2" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="210" t="s">
+      <c r="AH1" s="253"/>
+      <c r="AI1" s="254"/>
+    </row>
+    <row r="2" spans="1:35" s="38" customFormat="1">
+      <c r="A2" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="204" t="str">
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="241"/>
-      <c r="AA2" s="210" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="235"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="231" t="str">
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="232"/>
-      <c r="AI2" s="233"/>
-    </row>
-    <row r="3" spans="1:35" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="210" t="s">
+      <c r="AH2" s="253"/>
+      <c r="AI2" s="254"/>
+    </row>
+    <row r="3" spans="1:35" s="38" customFormat="1">
+      <c r="A3" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="204" t="str">
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="243"/>
-      <c r="W3" s="243"/>
-      <c r="X3" s="243"/>
-      <c r="Y3" s="243"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="238"/>
+      <c r="V3" s="238"/>
+      <c r="W3" s="238"/>
+      <c r="X3" s="238"/>
+      <c r="Y3" s="238"/>
+      <c r="Z3" s="239"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="231" t="str">
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="200"/>
+      <c r="AG3" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="232"/>
-      <c r="AI3" s="233"/>
-    </row>
-    <row r="4" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3" s="253"/>
+      <c r="AI3" s="254"/>
+    </row>
+    <row r="4" spans="1:35" s="38" customFormat="1" ht="12" customHeight="1">
       <c r="AC4" s="52"/>
       <c r="AD4" s="103"/>
       <c r="AE4" s="103"/>
@@ -9936,7 +9936,7 @@
       <c r="AH4" s="64"/>
       <c r="AI4" s="64"/>
     </row>
-    <row r="5" spans="1:35" s="73" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:35" s="73" customFormat="1" ht="17.25" customHeight="1">
       <c r="A5" s="161" t="s">
         <v>98</v>
       </c>
@@ -9975,7 +9975,7 @@
       <c r="AH5" s="102"/>
       <c r="AI5" s="102"/>
     </row>
-    <row r="6" spans="1:35" s="73" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" s="73" customFormat="1" ht="6" customHeight="1">
       <c r="A6" s="78"/>
       <c r="B6" s="102"/>
       <c r="C6" s="111"/>
@@ -10012,13 +10012,13 @@
       <c r="AH6" s="102"/>
       <c r="AI6" s="102"/>
     </row>
-    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="255" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="262"/>
-      <c r="C7" s="262"/>
-      <c r="D7" s="263"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="265"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -10031,76 +10031,76 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="279" t="s">
+      <c r="Q7" s="266" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="280"/>
-      <c r="S7" s="280"/>
-      <c r="T7" s="281"/>
-      <c r="U7" s="285"/>
-      <c r="V7" s="286"/>
-      <c r="W7" s="286"/>
-      <c r="X7" s="286"/>
-      <c r="Y7" s="286"/>
-      <c r="Z7" s="286"/>
-      <c r="AA7" s="286"/>
-      <c r="AB7" s="286"/>
-      <c r="AC7" s="286"/>
-      <c r="AD7" s="286"/>
-      <c r="AE7" s="286"/>
-      <c r="AF7" s="286"/>
-      <c r="AG7" s="286"/>
-      <c r="AH7" s="286"/>
-      <c r="AI7" s="287"/>
-    </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R7" s="267"/>
+      <c r="S7" s="267"/>
+      <c r="T7" s="268"/>
+      <c r="U7" s="258"/>
+      <c r="V7" s="259"/>
+      <c r="W7" s="259"/>
+      <c r="X7" s="259"/>
+      <c r="Y7" s="259"/>
+      <c r="Z7" s="259"/>
+      <c r="AA7" s="259"/>
+      <c r="AB7" s="259"/>
+      <c r="AC7" s="259"/>
+      <c r="AD7" s="259"/>
+      <c r="AE7" s="259"/>
+      <c r="AF7" s="259"/>
+      <c r="AG7" s="259"/>
+      <c r="AH7" s="259"/>
+      <c r="AI7" s="260"/>
+    </row>
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="255" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="262"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="276"/>
-      <c r="F8" s="277"/>
-      <c r="G8" s="277"/>
-      <c r="H8" s="277"/>
-      <c r="I8" s="277"/>
-      <c r="J8" s="277"/>
-      <c r="K8" s="277"/>
-      <c r="L8" s="277"/>
-      <c r="M8" s="277"/>
-      <c r="N8" s="277"/>
-      <c r="O8" s="277"/>
-      <c r="P8" s="277"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="262"/>
+      <c r="M8" s="262"/>
+      <c r="N8" s="262"/>
+      <c r="O8" s="262"/>
+      <c r="P8" s="262"/>
       <c r="Q8" s="255" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="262"/>
-      <c r="S8" s="262"/>
-      <c r="T8" s="263"/>
-      <c r="U8" s="276"/>
-      <c r="V8" s="277"/>
-      <c r="W8" s="277"/>
-      <c r="X8" s="277"/>
-      <c r="Y8" s="277"/>
-      <c r="Z8" s="277"/>
-      <c r="AA8" s="277"/>
-      <c r="AB8" s="277"/>
-      <c r="AC8" s="277"/>
-      <c r="AD8" s="277"/>
-      <c r="AE8" s="277"/>
-      <c r="AF8" s="277"/>
-      <c r="AG8" s="277"/>
-      <c r="AH8" s="277"/>
-      <c r="AI8" s="278"/>
-    </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R8" s="264"/>
+      <c r="S8" s="264"/>
+      <c r="T8" s="265"/>
+      <c r="U8" s="261"/>
+      <c r="V8" s="262"/>
+      <c r="W8" s="262"/>
+      <c r="X8" s="262"/>
+      <c r="Y8" s="262"/>
+      <c r="Z8" s="262"/>
+      <c r="AA8" s="262"/>
+      <c r="AB8" s="262"/>
+      <c r="AC8" s="262"/>
+      <c r="AD8" s="262"/>
+      <c r="AE8" s="262"/>
+      <c r="AF8" s="262"/>
+      <c r="AG8" s="262"/>
+      <c r="AH8" s="262"/>
+      <c r="AI8" s="263"/>
+    </row>
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="255" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="262"/>
-      <c r="C9" s="262"/>
-      <c r="D9" s="263"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="265"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -10133,7 +10133,7 @@
       <c r="AH9" s="27"/>
       <c r="AI9" s="28"/>
     </row>
-    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -10170,7 +10170,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="20"/>
     </row>
-    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="35"/>
       <c r="B11" s="23"/>
       <c r="C11" s="17"/>
@@ -10207,7 +10207,7 @@
       <c r="AH11" s="23"/>
       <c r="AI11" s="20"/>
     </row>
-    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="23"/>
       <c r="C12" s="17"/>
@@ -10244,7 +10244,7 @@
       <c r="AH12" s="23"/>
       <c r="AI12" s="20"/>
     </row>
-    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
       <c r="B13" s="31"/>
       <c r="C13" s="14" t="s">
@@ -10283,7 +10283,7 @@
       <c r="AH13" s="31"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="255" t="s">
         <v>23</v>
       </c>
@@ -10322,7 +10322,7 @@
       <c r="AH14" s="27"/>
       <c r="AI14" s="28"/>
     </row>
-    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="35"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
@@ -10359,7 +10359,7 @@
       <c r="AH15" s="23"/>
       <c r="AI15" s="20"/>
     </row>
-    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="35"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -10396,7 +10396,7 @@
       <c r="AH16" s="23"/>
       <c r="AI16" s="20"/>
     </row>
-    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="62"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -10433,13 +10433,13 @@
       <c r="AH17" s="31"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="273" t="s">
+    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="269" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="274"/>
-      <c r="C18" s="274"/>
-      <c r="D18" s="275"/>
+      <c r="B18" s="270"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="271"/>
       <c r="E18" s="16"/>
       <c r="F18" s="24"/>
       <c r="G18" s="23"/>
@@ -10452,12 +10452,12 @@
       <c r="N18" s="23"/>
       <c r="O18" s="17"/>
       <c r="P18" s="23"/>
-      <c r="Q18" s="273" t="s">
+      <c r="Q18" s="269" t="s">
         <v>43</v>
       </c>
-      <c r="R18" s="274"/>
-      <c r="S18" s="274"/>
-      <c r="T18" s="275"/>
+      <c r="R18" s="270"/>
+      <c r="S18" s="270"/>
+      <c r="T18" s="271"/>
       <c r="U18" s="17"/>
       <c r="V18" s="17"/>
       <c r="W18" s="17"/>
@@ -10474,7 +10474,7 @@
       <c r="AH18" s="17"/>
       <c r="AI18" s="67"/>
     </row>
-    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="34"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
@@ -10519,7 +10519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="33"/>
       <c r="B20" s="40"/>
       <c r="C20" s="40"/>
@@ -10556,54 +10556,54 @@
       <c r="AH20" s="17"/>
       <c r="AI20" s="20"/>
     </row>
-    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="255" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="262"/>
-      <c r="C21" s="262"/>
-      <c r="D21" s="263"/>
-      <c r="E21" s="276"/>
-      <c r="F21" s="277"/>
-      <c r="G21" s="277"/>
-      <c r="H21" s="277"/>
-      <c r="I21" s="277"/>
-      <c r="J21" s="277"/>
-      <c r="K21" s="277"/>
-      <c r="L21" s="277"/>
-      <c r="M21" s="277"/>
-      <c r="N21" s="277"/>
-      <c r="O21" s="277"/>
-      <c r="P21" s="278"/>
+      <c r="B21" s="264"/>
+      <c r="C21" s="264"/>
+      <c r="D21" s="265"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="262"/>
+      <c r="G21" s="262"/>
+      <c r="H21" s="262"/>
+      <c r="I21" s="262"/>
+      <c r="J21" s="262"/>
+      <c r="K21" s="262"/>
+      <c r="L21" s="262"/>
+      <c r="M21" s="262"/>
+      <c r="N21" s="262"/>
+      <c r="O21" s="262"/>
+      <c r="P21" s="263"/>
       <c r="Q21" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="R21" s="262"/>
-      <c r="S21" s="262"/>
-      <c r="T21" s="263"/>
-      <c r="U21" s="276"/>
-      <c r="V21" s="277"/>
-      <c r="W21" s="277"/>
-      <c r="X21" s="277"/>
-      <c r="Y21" s="277"/>
-      <c r="Z21" s="277"/>
-      <c r="AA21" s="277"/>
-      <c r="AB21" s="277"/>
-      <c r="AC21" s="277"/>
-      <c r="AD21" s="277"/>
-      <c r="AE21" s="277"/>
-      <c r="AF21" s="277"/>
-      <c r="AG21" s="277"/>
-      <c r="AH21" s="277"/>
-      <c r="AI21" s="278"/>
-    </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="279" t="s">
+      <c r="R21" s="264"/>
+      <c r="S21" s="264"/>
+      <c r="T21" s="265"/>
+      <c r="U21" s="261"/>
+      <c r="V21" s="262"/>
+      <c r="W21" s="262"/>
+      <c r="X21" s="262"/>
+      <c r="Y21" s="262"/>
+      <c r="Z21" s="262"/>
+      <c r="AA21" s="262"/>
+      <c r="AB21" s="262"/>
+      <c r="AC21" s="262"/>
+      <c r="AD21" s="262"/>
+      <c r="AE21" s="262"/>
+      <c r="AF21" s="262"/>
+      <c r="AG21" s="262"/>
+      <c r="AH21" s="262"/>
+      <c r="AI21" s="263"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="266" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="280"/>
-      <c r="C22" s="280"/>
-      <c r="D22" s="281"/>
+      <c r="B22" s="267"/>
+      <c r="C22" s="267"/>
+      <c r="D22" s="268"/>
       <c r="E22" s="25"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
@@ -10616,12 +10616,12 @@
       <c r="N22" s="27"/>
       <c r="O22" s="15"/>
       <c r="P22" s="27"/>
-      <c r="Q22" s="279" t="s">
+      <c r="Q22" s="266" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="280"/>
-      <c r="S22" s="280"/>
-      <c r="T22" s="281"/>
+      <c r="R22" s="267"/>
+      <c r="S22" s="267"/>
+      <c r="T22" s="268"/>
       <c r="U22" s="63"/>
       <c r="V22" s="27"/>
       <c r="W22" s="15"/>
@@ -10638,7 +10638,7 @@
       <c r="AH22" s="15"/>
       <c r="AI22" s="28"/>
     </row>
-    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="33"/>
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
@@ -10683,35 +10683,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="270" t="s">
+    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="285" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="271"/>
-      <c r="C24" s="271"/>
-      <c r="D24" s="272"/>
-      <c r="E24" s="276"/>
-      <c r="F24" s="277"/>
-      <c r="G24" s="277"/>
-      <c r="H24" s="277"/>
-      <c r="I24" s="277"/>
-      <c r="J24" s="277"/>
-      <c r="K24" s="277"/>
-      <c r="L24" s="277"/>
-      <c r="M24" s="277"/>
-      <c r="N24" s="277"/>
-      <c r="O24" s="277"/>
-      <c r="P24" s="278"/>
-      <c r="Q24" s="282" t="s">
+      <c r="B24" s="286"/>
+      <c r="C24" s="286"/>
+      <c r="D24" s="287"/>
+      <c r="E24" s="261"/>
+      <c r="F24" s="262"/>
+      <c r="G24" s="262"/>
+      <c r="H24" s="262"/>
+      <c r="I24" s="262"/>
+      <c r="J24" s="262"/>
+      <c r="K24" s="262"/>
+      <c r="L24" s="262"/>
+      <c r="M24" s="262"/>
+      <c r="N24" s="262"/>
+      <c r="O24" s="262"/>
+      <c r="P24" s="263"/>
+      <c r="Q24" s="272" t="s">
         <v>49</v>
       </c>
-      <c r="R24" s="283"/>
-      <c r="S24" s="283"/>
-      <c r="T24" s="284"/>
-      <c r="U24" s="260"/>
-      <c r="V24" s="261"/>
-      <c r="W24" s="261"/>
-      <c r="X24" s="261"/>
+      <c r="R24" s="273"/>
+      <c r="S24" s="273"/>
+      <c r="T24" s="274"/>
+      <c r="U24" s="277"/>
+      <c r="V24" s="278"/>
+      <c r="W24" s="278"/>
+      <c r="X24" s="278"/>
       <c r="Y24" s="21" t="s">
         <v>50</v>
       </c>
@@ -10726,27 +10726,27 @@
       <c r="AH24" s="21"/>
       <c r="AI24" s="22"/>
     </row>
-    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="266" t="s">
+    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="281" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="267"/>
-      <c r="C25" s="267"/>
-      <c r="D25" s="268"/>
+      <c r="B25" s="282"/>
+      <c r="C25" s="282"/>
+      <c r="D25" s="283"/>
       <c r="E25" s="25"/>
       <c r="F25" s="46"/>
       <c r="G25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="258"/>
-      <c r="I25" s="259"/>
-      <c r="J25" s="259"/>
-      <c r="K25" s="259"/>
-      <c r="L25" s="259"/>
-      <c r="M25" s="259"/>
-      <c r="N25" s="259"/>
-      <c r="O25" s="259"/>
-      <c r="P25" s="259"/>
+      <c r="H25" s="275"/>
+      <c r="I25" s="276"/>
+      <c r="J25" s="276"/>
+      <c r="K25" s="276"/>
+      <c r="L25" s="276"/>
+      <c r="M25" s="276"/>
+      <c r="N25" s="276"/>
+      <c r="O25" s="276"/>
+      <c r="P25" s="276"/>
       <c r="Q25" s="27" t="s">
         <v>7</v>
       </c>
@@ -10755,15 +10755,15 @@
       <c r="T25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="269"/>
-      <c r="V25" s="269"/>
-      <c r="W25" s="269"/>
-      <c r="X25" s="269"/>
-      <c r="Y25" s="269"/>
-      <c r="Z25" s="269"/>
-      <c r="AA25" s="269"/>
-      <c r="AB25" s="269"/>
-      <c r="AC25" s="269"/>
+      <c r="U25" s="284"/>
+      <c r="V25" s="284"/>
+      <c r="W25" s="284"/>
+      <c r="X25" s="284"/>
+      <c r="Y25" s="284"/>
+      <c r="Z25" s="284"/>
+      <c r="AA25" s="284"/>
+      <c r="AB25" s="284"/>
+      <c r="AC25" s="284"/>
       <c r="AD25" s="27" t="s">
         <v>7</v>
       </c>
@@ -10773,7 +10773,7 @@
       <c r="AH25" s="27"/>
       <c r="AI25" s="28"/>
     </row>
-    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="58"/>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
@@ -10783,15 +10783,15 @@
       <c r="G26" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="265"/>
-      <c r="I26" s="265"/>
-      <c r="J26" s="265"/>
-      <c r="K26" s="265"/>
-      <c r="L26" s="265"/>
-      <c r="M26" s="265"/>
-      <c r="N26" s="265"/>
-      <c r="O26" s="265"/>
-      <c r="P26" s="265"/>
+      <c r="H26" s="280"/>
+      <c r="I26" s="280"/>
+      <c r="J26" s="280"/>
+      <c r="K26" s="280"/>
+      <c r="L26" s="280"/>
+      <c r="M26" s="280"/>
+      <c r="N26" s="280"/>
+      <c r="O26" s="280"/>
+      <c r="P26" s="280"/>
       <c r="Q26" s="23" t="s">
         <v>7</v>
       </c>
@@ -10800,15 +10800,15 @@
       <c r="T26" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="265"/>
-      <c r="V26" s="265"/>
-      <c r="W26" s="265"/>
-      <c r="X26" s="265"/>
-      <c r="Y26" s="265"/>
-      <c r="Z26" s="265"/>
-      <c r="AA26" s="265"/>
-      <c r="AB26" s="265"/>
-      <c r="AC26" s="265"/>
+      <c r="U26" s="280"/>
+      <c r="V26" s="280"/>
+      <c r="W26" s="280"/>
+      <c r="X26" s="280"/>
+      <c r="Y26" s="280"/>
+      <c r="Z26" s="280"/>
+      <c r="AA26" s="280"/>
+      <c r="AB26" s="280"/>
+      <c r="AC26" s="280"/>
       <c r="AD26" s="23" t="s">
         <v>7</v>
       </c>
@@ -10818,7 +10818,7 @@
       <c r="AH26" s="23"/>
       <c r="AI26" s="20"/>
     </row>
-    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="59"/>
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
@@ -10828,15 +10828,15 @@
       <c r="G27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="264"/>
-      <c r="I27" s="264"/>
-      <c r="J27" s="264"/>
-      <c r="K27" s="264"/>
-      <c r="L27" s="264"/>
-      <c r="M27" s="264"/>
-      <c r="N27" s="264"/>
-      <c r="O27" s="264"/>
-      <c r="P27" s="264"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="279"/>
+      <c r="J27" s="279"/>
+      <c r="K27" s="279"/>
+      <c r="L27" s="279"/>
+      <c r="M27" s="279"/>
+      <c r="N27" s="279"/>
+      <c r="O27" s="279"/>
+      <c r="P27" s="279"/>
       <c r="Q27" s="31" t="s">
         <v>7</v>
       </c>
@@ -10845,25 +10845,25 @@
       <c r="T27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="264"/>
-      <c r="V27" s="264"/>
-      <c r="W27" s="264"/>
-      <c r="X27" s="264"/>
-      <c r="Y27" s="264"/>
-      <c r="Z27" s="264"/>
-      <c r="AA27" s="264"/>
-      <c r="AB27" s="264"/>
-      <c r="AC27" s="264"/>
-      <c r="AD27" s="264"/>
-      <c r="AE27" s="264"/>
-      <c r="AF27" s="264"/>
-      <c r="AG27" s="264"/>
-      <c r="AH27" s="264"/>
+      <c r="U27" s="279"/>
+      <c r="V27" s="279"/>
+      <c r="W27" s="279"/>
+      <c r="X27" s="279"/>
+      <c r="Y27" s="279"/>
+      <c r="Z27" s="279"/>
+      <c r="AA27" s="279"/>
+      <c r="AB27" s="279"/>
+      <c r="AC27" s="279"/>
+      <c r="AD27" s="279"/>
+      <c r="AE27" s="279"/>
+      <c r="AF27" s="279"/>
+      <c r="AG27" s="279"/>
+      <c r="AH27" s="279"/>
       <c r="AI27" s="48" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="255" t="s">
         <v>22</v>
       </c>
@@ -10902,7 +10902,7 @@
       <c r="AH28" s="27"/>
       <c r="AI28" s="28"/>
     </row>
-    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="37"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -10939,7 +10939,7 @@
       <c r="AH29" s="23"/>
       <c r="AI29" s="20"/>
     </row>
-    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="37"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -10976,7 +10976,7 @@
       <c r="AH30" s="23"/>
       <c r="AI30" s="20"/>
     </row>
-    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="62"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -11015,32 +11015,14 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E21:P21"/>
-    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11053,14 +11035,32 @@
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E21:P21"/>
+    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -11729,165 +11729,165 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:47" s="11" customFormat="1">
+      <c r="A1" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="204" t="str">
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="213" t="s">
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="350" t="str">
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="297" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="351"/>
-      <c r="U1" s="351"/>
-      <c r="V1" s="351"/>
-      <c r="W1" s="351"/>
-      <c r="X1" s="351"/>
-      <c r="Y1" s="351"/>
-      <c r="Z1" s="352"/>
-      <c r="AA1" s="210" t="s">
+      <c r="T1" s="298"/>
+      <c r="U1" s="298"/>
+      <c r="V1" s="298"/>
+      <c r="W1" s="298"/>
+      <c r="X1" s="298"/>
+      <c r="Y1" s="298"/>
+      <c r="Z1" s="299"/>
+      <c r="AA1" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="212"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="347" t="str">
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="200"/>
+      <c r="AG1" s="294" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="348"/>
-      <c r="AI1" s="349"/>
-    </row>
-    <row r="2" spans="1:47" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="210" t="s">
+      <c r="AH1" s="295"/>
+      <c r="AI1" s="296"/>
+    </row>
+    <row r="2" spans="1:47" s="11" customFormat="1">
+      <c r="A2" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="204" t="str">
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="353"/>
-      <c r="T2" s="354"/>
-      <c r="U2" s="354"/>
-      <c r="V2" s="354"/>
-      <c r="W2" s="354"/>
-      <c r="X2" s="354"/>
-      <c r="Y2" s="354"/>
-      <c r="Z2" s="355"/>
-      <c r="AA2" s="210" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="300"/>
+      <c r="T2" s="301"/>
+      <c r="U2" s="301"/>
+      <c r="V2" s="301"/>
+      <c r="W2" s="301"/>
+      <c r="X2" s="301"/>
+      <c r="Y2" s="301"/>
+      <c r="Z2" s="302"/>
+      <c r="AA2" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="347" t="str">
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="294" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="348"/>
-      <c r="AI2" s="349"/>
-    </row>
-    <row r="3" spans="1:47" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="210" t="s">
+      <c r="AH2" s="295"/>
+      <c r="AI2" s="296"/>
+    </row>
+    <row r="3" spans="1:47" s="11" customFormat="1">
+      <c r="A3" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="204" t="str">
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="356"/>
-      <c r="T3" s="357"/>
-      <c r="U3" s="357"/>
-      <c r="V3" s="357"/>
-      <c r="W3" s="357"/>
-      <c r="X3" s="357"/>
-      <c r="Y3" s="357"/>
-      <c r="Z3" s="358"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="303"/>
+      <c r="T3" s="304"/>
+      <c r="U3" s="304"/>
+      <c r="V3" s="304"/>
+      <c r="W3" s="304"/>
+      <c r="X3" s="304"/>
+      <c r="Y3" s="304"/>
+      <c r="Z3" s="305"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="347" t="str">
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="200"/>
+      <c r="AG3" s="294" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="348"/>
-      <c r="AI3" s="349"/>
-    </row>
-    <row r="4" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3" s="295"/>
+      <c r="AI3" s="296"/>
+    </row>
+    <row r="4" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="55"/>
@@ -11907,7 +11907,7 @@
       <c r="AI4" s="54"/>
       <c r="AJ4" s="10"/>
     </row>
-    <row r="5" spans="1:47" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:47" s="73" customFormat="1">
       <c r="A5" s="78" t="s">
         <v>80</v>
       </c>
@@ -11958,7 +11958,7 @@
       <c r="AT5" s="102"/>
       <c r="AU5" s="102"/>
     </row>
-    <row r="6" spans="1:47" s="73" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:47" s="73" customFormat="1">
       <c r="A6" s="78"/>
       <c r="B6" s="102"/>
       <c r="C6" s="9"/>
@@ -12007,462 +12007,462 @@
       <c r="AT6" s="102"/>
       <c r="AU6" s="102"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A7" s="338" t="s">
+    <row r="7" spans="1:47">
+      <c r="A7" s="288" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="339"/>
-      <c r="C7" s="339"/>
-      <c r="D7" s="339"/>
-      <c r="E7" s="339"/>
-      <c r="F7" s="339"/>
-      <c r="G7" s="339"/>
-      <c r="H7" s="339"/>
-      <c r="I7" s="339"/>
-      <c r="J7" s="339"/>
-      <c r="K7" s="339"/>
-      <c r="L7" s="339"/>
-      <c r="M7" s="339"/>
-      <c r="N7" s="339"/>
-      <c r="O7" s="339"/>
-      <c r="P7" s="339"/>
-      <c r="Q7" s="339"/>
-      <c r="R7" s="339"/>
-      <c r="S7" s="339"/>
-      <c r="T7" s="339"/>
-      <c r="U7" s="339"/>
-      <c r="V7" s="339"/>
-      <c r="W7" s="339"/>
-      <c r="X7" s="339"/>
-      <c r="Y7" s="339"/>
-      <c r="Z7" s="339"/>
-      <c r="AA7" s="339"/>
-      <c r="AB7" s="346"/>
-      <c r="AC7" s="360" t="s">
+      <c r="B7" s="291"/>
+      <c r="C7" s="291"/>
+      <c r="D7" s="291"/>
+      <c r="E7" s="291"/>
+      <c r="F7" s="291"/>
+      <c r="G7" s="291"/>
+      <c r="H7" s="291"/>
+      <c r="I7" s="291"/>
+      <c r="J7" s="291"/>
+      <c r="K7" s="291"/>
+      <c r="L7" s="291"/>
+      <c r="M7" s="291"/>
+      <c r="N7" s="291"/>
+      <c r="O7" s="291"/>
+      <c r="P7" s="291"/>
+      <c r="Q7" s="291"/>
+      <c r="R7" s="291"/>
+      <c r="S7" s="291"/>
+      <c r="T7" s="291"/>
+      <c r="U7" s="291"/>
+      <c r="V7" s="291"/>
+      <c r="W7" s="291"/>
+      <c r="X7" s="291"/>
+      <c r="Y7" s="291"/>
+      <c r="Z7" s="291"/>
+      <c r="AA7" s="291"/>
+      <c r="AB7" s="292"/>
+      <c r="AC7" s="309" t="s">
         <v>52</v>
       </c>
-      <c r="AD7" s="339"/>
-      <c r="AE7" s="339"/>
-      <c r="AF7" s="339"/>
-      <c r="AG7" s="339"/>
-      <c r="AH7" s="339"/>
-      <c r="AI7" s="340"/>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.15">
+      <c r="AD7" s="291"/>
+      <c r="AE7" s="291"/>
+      <c r="AF7" s="291"/>
+      <c r="AG7" s="291"/>
+      <c r="AH7" s="291"/>
+      <c r="AI7" s="293"/>
+    </row>
+    <row r="8" spans="1:47">
       <c r="A8" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="338" t="s">
+      <c r="B8" s="288" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="344"/>
-      <c r="D8" s="344"/>
-      <c r="E8" s="344"/>
-      <c r="F8" s="345"/>
-      <c r="G8" s="338" t="s">
+      <c r="C8" s="289"/>
+      <c r="D8" s="289"/>
+      <c r="E8" s="289"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="288" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="339"/>
-      <c r="I8" s="340"/>
-      <c r="J8" s="338" t="s">
+      <c r="H8" s="291"/>
+      <c r="I8" s="293"/>
+      <c r="J8" s="288" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="339"/>
-      <c r="L8" s="339"/>
-      <c r="M8" s="339"/>
-      <c r="N8" s="339"/>
-      <c r="O8" s="339"/>
-      <c r="P8" s="340"/>
-      <c r="Q8" s="336" t="s">
+      <c r="K8" s="291"/>
+      <c r="L8" s="291"/>
+      <c r="M8" s="291"/>
+      <c r="N8" s="291"/>
+      <c r="O8" s="291"/>
+      <c r="P8" s="293"/>
+      <c r="Q8" s="306" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="337"/>
-      <c r="S8" s="336" t="s">
+      <c r="R8" s="308"/>
+      <c r="S8" s="306" t="s">
         <v>82</v>
       </c>
-      <c r="T8" s="359"/>
-      <c r="U8" s="337"/>
-      <c r="V8" s="338" t="s">
+      <c r="T8" s="307"/>
+      <c r="U8" s="308"/>
+      <c r="V8" s="288" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="339"/>
-      <c r="X8" s="339"/>
-      <c r="Y8" s="339"/>
-      <c r="Z8" s="339"/>
-      <c r="AA8" s="339"/>
-      <c r="AB8" s="346"/>
-      <c r="AC8" s="361" t="s">
+      <c r="W8" s="291"/>
+      <c r="X8" s="291"/>
+      <c r="Y8" s="291"/>
+      <c r="Z8" s="291"/>
+      <c r="AA8" s="291"/>
+      <c r="AB8" s="292"/>
+      <c r="AC8" s="310" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="362"/>
-      <c r="AE8" s="362"/>
-      <c r="AF8" s="362"/>
-      <c r="AG8" s="362"/>
-      <c r="AH8" s="288" t="s">
+      <c r="AD8" s="311"/>
+      <c r="AE8" s="311"/>
+      <c r="AF8" s="311"/>
+      <c r="AG8" s="311"/>
+      <c r="AH8" s="357" t="s">
         <v>83</v>
       </c>
-      <c r="AI8" s="288"/>
-    </row>
-    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI8" s="357"/>
+    </row>
+    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="165">
         <v>1</v>
       </c>
-      <c r="B9" s="292"/>
-      <c r="C9" s="293"/>
-      <c r="D9" s="293"/>
-      <c r="E9" s="293"/>
-      <c r="F9" s="294"/>
-      <c r="G9" s="341"/>
-      <c r="H9" s="342"/>
-      <c r="I9" s="343"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="293"/>
-      <c r="M9" s="293"/>
-      <c r="N9" s="293"/>
-      <c r="O9" s="293"/>
-      <c r="P9" s="294"/>
-      <c r="Q9" s="306"/>
-      <c r="R9" s="308"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="307"/>
-      <c r="U9" s="308"/>
-      <c r="V9" s="292"/>
-      <c r="W9" s="293"/>
-      <c r="X9" s="293"/>
-      <c r="Y9" s="293"/>
-      <c r="Z9" s="293"/>
-      <c r="AA9" s="293"/>
-      <c r="AB9" s="335"/>
-      <c r="AC9" s="332" t="s">
+      <c r="B9" s="352"/>
+      <c r="C9" s="353"/>
+      <c r="D9" s="353"/>
+      <c r="E9" s="353"/>
+      <c r="F9" s="356"/>
+      <c r="G9" s="323"/>
+      <c r="H9" s="324"/>
+      <c r="I9" s="325"/>
+      <c r="J9" s="352"/>
+      <c r="K9" s="353"/>
+      <c r="L9" s="353"/>
+      <c r="M9" s="353"/>
+      <c r="N9" s="353"/>
+      <c r="O9" s="353"/>
+      <c r="P9" s="356"/>
+      <c r="Q9" s="318"/>
+      <c r="R9" s="319"/>
+      <c r="S9" s="318"/>
+      <c r="T9" s="355"/>
+      <c r="U9" s="319"/>
+      <c r="V9" s="352"/>
+      <c r="W9" s="353"/>
+      <c r="X9" s="353"/>
+      <c r="Y9" s="353"/>
+      <c r="Z9" s="353"/>
+      <c r="AA9" s="353"/>
+      <c r="AB9" s="354"/>
+      <c r="AC9" s="347" t="s">
         <v>84</v>
       </c>
-      <c r="AD9" s="292"/>
-      <c r="AE9" s="293"/>
-      <c r="AF9" s="293"/>
-      <c r="AG9" s="294"/>
-      <c r="AH9" s="301"/>
-      <c r="AI9" s="302"/>
-    </row>
-    <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AD9" s="352"/>
+      <c r="AE9" s="353"/>
+      <c r="AF9" s="353"/>
+      <c r="AG9" s="356"/>
+      <c r="AH9" s="361"/>
+      <c r="AI9" s="362"/>
+    </row>
+    <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="165">
         <v>2</v>
       </c>
-      <c r="B10" s="295"/>
-      <c r="C10" s="296"/>
-      <c r="D10" s="296"/>
-      <c r="E10" s="296"/>
-      <c r="F10" s="297"/>
-      <c r="G10" s="312"/>
-      <c r="H10" s="313"/>
-      <c r="I10" s="314"/>
-      <c r="J10" s="295"/>
-      <c r="K10" s="296"/>
-      <c r="L10" s="296"/>
-      <c r="M10" s="296"/>
-      <c r="N10" s="296"/>
-      <c r="O10" s="296"/>
-      <c r="P10" s="297"/>
-      <c r="Q10" s="309"/>
-      <c r="R10" s="311"/>
-      <c r="S10" s="309"/>
-      <c r="T10" s="310"/>
-      <c r="U10" s="311"/>
-      <c r="V10" s="295"/>
-      <c r="W10" s="296"/>
-      <c r="X10" s="296"/>
-      <c r="Y10" s="296"/>
-      <c r="Z10" s="296"/>
-      <c r="AA10" s="296"/>
-      <c r="AB10" s="300"/>
-      <c r="AC10" s="333"/>
-      <c r="AD10" s="295"/>
-      <c r="AE10" s="296"/>
-      <c r="AF10" s="296"/>
-      <c r="AG10" s="297"/>
-      <c r="AH10" s="298"/>
-      <c r="AI10" s="299"/>
-    </row>
-    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="314"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="316"/>
+      <c r="G10" s="320"/>
+      <c r="H10" s="321"/>
+      <c r="I10" s="322"/>
+      <c r="J10" s="314"/>
+      <c r="K10" s="315"/>
+      <c r="L10" s="315"/>
+      <c r="M10" s="315"/>
+      <c r="N10" s="315"/>
+      <c r="O10" s="315"/>
+      <c r="P10" s="316"/>
+      <c r="Q10" s="312"/>
+      <c r="R10" s="313"/>
+      <c r="S10" s="312"/>
+      <c r="T10" s="317"/>
+      <c r="U10" s="313"/>
+      <c r="V10" s="314"/>
+      <c r="W10" s="315"/>
+      <c r="X10" s="315"/>
+      <c r="Y10" s="315"/>
+      <c r="Z10" s="315"/>
+      <c r="AA10" s="315"/>
+      <c r="AB10" s="329"/>
+      <c r="AC10" s="348"/>
+      <c r="AD10" s="314"/>
+      <c r="AE10" s="315"/>
+      <c r="AF10" s="315"/>
+      <c r="AG10" s="316"/>
+      <c r="AH10" s="350"/>
+      <c r="AI10" s="351"/>
+    </row>
+    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="165">
         <v>3</v>
       </c>
-      <c r="B11" s="295"/>
-      <c r="C11" s="296"/>
-      <c r="D11" s="296"/>
-      <c r="E11" s="296"/>
-      <c r="F11" s="297"/>
-      <c r="G11" s="312"/>
-      <c r="H11" s="313"/>
-      <c r="I11" s="314"/>
-      <c r="J11" s="295"/>
-      <c r="K11" s="296"/>
-      <c r="L11" s="296"/>
-      <c r="M11" s="296"/>
-      <c r="N11" s="296"/>
-      <c r="O11" s="296"/>
-      <c r="P11" s="297"/>
-      <c r="Q11" s="309"/>
-      <c r="R11" s="311"/>
-      <c r="S11" s="309"/>
-      <c r="T11" s="310"/>
-      <c r="U11" s="311"/>
-      <c r="V11" s="295"/>
-      <c r="W11" s="296"/>
-      <c r="X11" s="296"/>
-      <c r="Y11" s="296"/>
-      <c r="Z11" s="296"/>
-      <c r="AA11" s="296"/>
-      <c r="AB11" s="300"/>
-      <c r="AC11" s="333"/>
-      <c r="AD11" s="295"/>
-      <c r="AE11" s="296"/>
-      <c r="AF11" s="296"/>
-      <c r="AG11" s="297"/>
-      <c r="AH11" s="298"/>
-      <c r="AI11" s="299"/>
-    </row>
-    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="314"/>
+      <c r="C11" s="315"/>
+      <c r="D11" s="315"/>
+      <c r="E11" s="315"/>
+      <c r="F11" s="316"/>
+      <c r="G11" s="320"/>
+      <c r="H11" s="321"/>
+      <c r="I11" s="322"/>
+      <c r="J11" s="314"/>
+      <c r="K11" s="315"/>
+      <c r="L11" s="315"/>
+      <c r="M11" s="315"/>
+      <c r="N11" s="315"/>
+      <c r="O11" s="315"/>
+      <c r="P11" s="316"/>
+      <c r="Q11" s="312"/>
+      <c r="R11" s="313"/>
+      <c r="S11" s="312"/>
+      <c r="T11" s="317"/>
+      <c r="U11" s="313"/>
+      <c r="V11" s="314"/>
+      <c r="W11" s="315"/>
+      <c r="X11" s="315"/>
+      <c r="Y11" s="315"/>
+      <c r="Z11" s="315"/>
+      <c r="AA11" s="315"/>
+      <c r="AB11" s="329"/>
+      <c r="AC11" s="348"/>
+      <c r="AD11" s="314"/>
+      <c r="AE11" s="315"/>
+      <c r="AF11" s="315"/>
+      <c r="AG11" s="316"/>
+      <c r="AH11" s="350"/>
+      <c r="AI11" s="351"/>
+    </row>
+    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="165">
         <v>4</v>
       </c>
-      <c r="B12" s="295"/>
-      <c r="C12" s="296"/>
-      <c r="D12" s="296"/>
-      <c r="E12" s="296"/>
-      <c r="F12" s="297"/>
-      <c r="G12" s="312"/>
-      <c r="H12" s="313"/>
-      <c r="I12" s="314"/>
-      <c r="J12" s="295"/>
-      <c r="K12" s="296"/>
-      <c r="L12" s="296"/>
-      <c r="M12" s="296"/>
-      <c r="N12" s="296"/>
-      <c r="O12" s="296"/>
-      <c r="P12" s="297"/>
-      <c r="Q12" s="309"/>
-      <c r="R12" s="311"/>
-      <c r="S12" s="309"/>
-      <c r="T12" s="310"/>
-      <c r="U12" s="311"/>
-      <c r="V12" s="295"/>
-      <c r="W12" s="296"/>
-      <c r="X12" s="296"/>
-      <c r="Y12" s="296"/>
-      <c r="Z12" s="296"/>
-      <c r="AA12" s="296"/>
-      <c r="AB12" s="300"/>
-      <c r="AC12" s="333"/>
-      <c r="AD12" s="295"/>
-      <c r="AE12" s="296"/>
-      <c r="AF12" s="296"/>
-      <c r="AG12" s="297"/>
-      <c r="AH12" s="298"/>
-      <c r="AI12" s="299"/>
-    </row>
-    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="314"/>
+      <c r="C12" s="315"/>
+      <c r="D12" s="315"/>
+      <c r="E12" s="315"/>
+      <c r="F12" s="316"/>
+      <c r="G12" s="320"/>
+      <c r="H12" s="321"/>
+      <c r="I12" s="322"/>
+      <c r="J12" s="314"/>
+      <c r="K12" s="315"/>
+      <c r="L12" s="315"/>
+      <c r="M12" s="315"/>
+      <c r="N12" s="315"/>
+      <c r="O12" s="315"/>
+      <c r="P12" s="316"/>
+      <c r="Q12" s="312"/>
+      <c r="R12" s="313"/>
+      <c r="S12" s="312"/>
+      <c r="T12" s="317"/>
+      <c r="U12" s="313"/>
+      <c r="V12" s="314"/>
+      <c r="W12" s="315"/>
+      <c r="X12" s="315"/>
+      <c r="Y12" s="315"/>
+      <c r="Z12" s="315"/>
+      <c r="AA12" s="315"/>
+      <c r="AB12" s="329"/>
+      <c r="AC12" s="348"/>
+      <c r="AD12" s="314"/>
+      <c r="AE12" s="315"/>
+      <c r="AF12" s="315"/>
+      <c r="AG12" s="316"/>
+      <c r="AH12" s="350"/>
+      <c r="AI12" s="351"/>
+    </row>
+    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="165">
         <v>5</v>
       </c>
-      <c r="B13" s="303"/>
-      <c r="C13" s="304"/>
-      <c r="D13" s="304"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="305"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="296"/>
-      <c r="I13" s="297"/>
-      <c r="J13" s="295"/>
-      <c r="K13" s="296"/>
-      <c r="L13" s="296"/>
-      <c r="M13" s="296"/>
-      <c r="N13" s="296"/>
-      <c r="O13" s="296"/>
-      <c r="P13" s="297"/>
-      <c r="Q13" s="309"/>
-      <c r="R13" s="311"/>
-      <c r="S13" s="309"/>
-      <c r="T13" s="310"/>
-      <c r="U13" s="311"/>
-      <c r="V13" s="295"/>
-      <c r="W13" s="296"/>
-      <c r="X13" s="296"/>
-      <c r="Y13" s="296"/>
-      <c r="Z13" s="296"/>
-      <c r="AA13" s="296"/>
-      <c r="AB13" s="300"/>
-      <c r="AC13" s="333"/>
-      <c r="AD13" s="295"/>
-      <c r="AE13" s="296"/>
-      <c r="AF13" s="296"/>
-      <c r="AG13" s="297"/>
-      <c r="AH13" s="298"/>
-      <c r="AI13" s="299"/>
-    </row>
-    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="339"/>
+      <c r="C13" s="340"/>
+      <c r="D13" s="340"/>
+      <c r="E13" s="340"/>
+      <c r="F13" s="341"/>
+      <c r="G13" s="314"/>
+      <c r="H13" s="315"/>
+      <c r="I13" s="316"/>
+      <c r="J13" s="314"/>
+      <c r="K13" s="315"/>
+      <c r="L13" s="315"/>
+      <c r="M13" s="315"/>
+      <c r="N13" s="315"/>
+      <c r="O13" s="315"/>
+      <c r="P13" s="316"/>
+      <c r="Q13" s="312"/>
+      <c r="R13" s="313"/>
+      <c r="S13" s="312"/>
+      <c r="T13" s="317"/>
+      <c r="U13" s="313"/>
+      <c r="V13" s="314"/>
+      <c r="W13" s="315"/>
+      <c r="X13" s="315"/>
+      <c r="Y13" s="315"/>
+      <c r="Z13" s="315"/>
+      <c r="AA13" s="315"/>
+      <c r="AB13" s="329"/>
+      <c r="AC13" s="348"/>
+      <c r="AD13" s="314"/>
+      <c r="AE13" s="315"/>
+      <c r="AF13" s="315"/>
+      <c r="AG13" s="316"/>
+      <c r="AH13" s="350"/>
+      <c r="AI13" s="351"/>
+    </row>
+    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="165">
         <v>6</v>
       </c>
-      <c r="B14" s="303"/>
-      <c r="C14" s="304"/>
-      <c r="D14" s="304"/>
-      <c r="E14" s="304"/>
-      <c r="F14" s="305"/>
-      <c r="G14" s="295"/>
-      <c r="H14" s="296"/>
-      <c r="I14" s="297"/>
-      <c r="J14" s="295"/>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
-      <c r="M14" s="296"/>
-      <c r="N14" s="296"/>
-      <c r="O14" s="296"/>
-      <c r="P14" s="297"/>
-      <c r="Q14" s="309"/>
-      <c r="R14" s="311"/>
-      <c r="S14" s="309"/>
-      <c r="T14" s="310"/>
-      <c r="U14" s="311"/>
-      <c r="V14" s="295"/>
-      <c r="W14" s="296"/>
-      <c r="X14" s="296"/>
-      <c r="Y14" s="296"/>
-      <c r="Z14" s="296"/>
-      <c r="AA14" s="296"/>
-      <c r="AB14" s="300"/>
-      <c r="AC14" s="333"/>
-      <c r="AD14" s="295"/>
-      <c r="AE14" s="296"/>
-      <c r="AF14" s="296"/>
-      <c r="AG14" s="297"/>
-      <c r="AH14" s="298"/>
-      <c r="AI14" s="299"/>
-    </row>
-    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="339"/>
+      <c r="C14" s="340"/>
+      <c r="D14" s="340"/>
+      <c r="E14" s="340"/>
+      <c r="F14" s="341"/>
+      <c r="G14" s="314"/>
+      <c r="H14" s="315"/>
+      <c r="I14" s="316"/>
+      <c r="J14" s="314"/>
+      <c r="K14" s="315"/>
+      <c r="L14" s="315"/>
+      <c r="M14" s="315"/>
+      <c r="N14" s="315"/>
+      <c r="O14" s="315"/>
+      <c r="P14" s="316"/>
+      <c r="Q14" s="312"/>
+      <c r="R14" s="313"/>
+      <c r="S14" s="312"/>
+      <c r="T14" s="317"/>
+      <c r="U14" s="313"/>
+      <c r="V14" s="314"/>
+      <c r="W14" s="315"/>
+      <c r="X14" s="315"/>
+      <c r="Y14" s="315"/>
+      <c r="Z14" s="315"/>
+      <c r="AA14" s="315"/>
+      <c r="AB14" s="329"/>
+      <c r="AC14" s="348"/>
+      <c r="AD14" s="314"/>
+      <c r="AE14" s="315"/>
+      <c r="AF14" s="315"/>
+      <c r="AG14" s="316"/>
+      <c r="AH14" s="350"/>
+      <c r="AI14" s="351"/>
+    </row>
+    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="166">
         <v>7</v>
       </c>
-      <c r="B15" s="303"/>
-      <c r="C15" s="304"/>
-      <c r="D15" s="304"/>
-      <c r="E15" s="304"/>
-      <c r="F15" s="305"/>
-      <c r="G15" s="295"/>
-      <c r="H15" s="296"/>
-      <c r="I15" s="297"/>
-      <c r="J15" s="295"/>
-      <c r="K15" s="296"/>
-      <c r="L15" s="296"/>
-      <c r="M15" s="296"/>
-      <c r="N15" s="296"/>
-      <c r="O15" s="296"/>
-      <c r="P15" s="297"/>
-      <c r="Q15" s="309"/>
-      <c r="R15" s="311"/>
-      <c r="S15" s="309"/>
-      <c r="T15" s="310"/>
-      <c r="U15" s="311"/>
-      <c r="V15" s="295"/>
-      <c r="W15" s="296"/>
-      <c r="X15" s="296"/>
-      <c r="Y15" s="296"/>
-      <c r="Z15" s="296"/>
-      <c r="AA15" s="296"/>
-      <c r="AB15" s="300"/>
-      <c r="AC15" s="333"/>
-      <c r="AD15" s="295"/>
-      <c r="AE15" s="296"/>
-      <c r="AF15" s="296"/>
-      <c r="AG15" s="297"/>
-      <c r="AH15" s="298"/>
-      <c r="AI15" s="299"/>
-    </row>
-    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="339"/>
+      <c r="C15" s="340"/>
+      <c r="D15" s="340"/>
+      <c r="E15" s="340"/>
+      <c r="F15" s="341"/>
+      <c r="G15" s="314"/>
+      <c r="H15" s="315"/>
+      <c r="I15" s="316"/>
+      <c r="J15" s="314"/>
+      <c r="K15" s="315"/>
+      <c r="L15" s="315"/>
+      <c r="M15" s="315"/>
+      <c r="N15" s="315"/>
+      <c r="O15" s="315"/>
+      <c r="P15" s="316"/>
+      <c r="Q15" s="312"/>
+      <c r="R15" s="313"/>
+      <c r="S15" s="312"/>
+      <c r="T15" s="317"/>
+      <c r="U15" s="313"/>
+      <c r="V15" s="314"/>
+      <c r="W15" s="315"/>
+      <c r="X15" s="315"/>
+      <c r="Y15" s="315"/>
+      <c r="Z15" s="315"/>
+      <c r="AA15" s="315"/>
+      <c r="AB15" s="329"/>
+      <c r="AC15" s="348"/>
+      <c r="AD15" s="314"/>
+      <c r="AE15" s="315"/>
+      <c r="AF15" s="315"/>
+      <c r="AG15" s="316"/>
+      <c r="AH15" s="350"/>
+      <c r="AI15" s="351"/>
+    </row>
+    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="166">
         <v>8</v>
       </c>
-      <c r="B16" s="303"/>
-      <c r="C16" s="304"/>
-      <c r="D16" s="304"/>
-      <c r="E16" s="304"/>
-      <c r="F16" s="305"/>
-      <c r="G16" s="295"/>
-      <c r="H16" s="296"/>
-      <c r="I16" s="297"/>
-      <c r="J16" s="295"/>
-      <c r="K16" s="296"/>
-      <c r="L16" s="296"/>
-      <c r="M16" s="296"/>
-      <c r="N16" s="296"/>
-      <c r="O16" s="296"/>
-      <c r="P16" s="297"/>
-      <c r="Q16" s="309"/>
-      <c r="R16" s="311"/>
-      <c r="S16" s="309"/>
-      <c r="T16" s="310"/>
-      <c r="U16" s="311"/>
-      <c r="V16" s="295"/>
-      <c r="W16" s="296"/>
-      <c r="X16" s="296"/>
-      <c r="Y16" s="296"/>
-      <c r="Z16" s="296"/>
-      <c r="AA16" s="296"/>
-      <c r="AB16" s="300"/>
-      <c r="AC16" s="333"/>
-      <c r="AD16" s="295"/>
-      <c r="AE16" s="296"/>
-      <c r="AF16" s="296"/>
-      <c r="AG16" s="297"/>
-      <c r="AH16" s="298"/>
-      <c r="AI16" s="299"/>
-    </row>
-    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="339"/>
+      <c r="C16" s="340"/>
+      <c r="D16" s="340"/>
+      <c r="E16" s="340"/>
+      <c r="F16" s="341"/>
+      <c r="G16" s="314"/>
+      <c r="H16" s="315"/>
+      <c r="I16" s="316"/>
+      <c r="J16" s="314"/>
+      <c r="K16" s="315"/>
+      <c r="L16" s="315"/>
+      <c r="M16" s="315"/>
+      <c r="N16" s="315"/>
+      <c r="O16" s="315"/>
+      <c r="P16" s="316"/>
+      <c r="Q16" s="312"/>
+      <c r="R16" s="313"/>
+      <c r="S16" s="312"/>
+      <c r="T16" s="317"/>
+      <c r="U16" s="313"/>
+      <c r="V16" s="314"/>
+      <c r="W16" s="315"/>
+      <c r="X16" s="315"/>
+      <c r="Y16" s="315"/>
+      <c r="Z16" s="315"/>
+      <c r="AA16" s="315"/>
+      <c r="AB16" s="329"/>
+      <c r="AC16" s="348"/>
+      <c r="AD16" s="314"/>
+      <c r="AE16" s="315"/>
+      <c r="AF16" s="315"/>
+      <c r="AG16" s="316"/>
+      <c r="AH16" s="350"/>
+      <c r="AI16" s="351"/>
+    </row>
+    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="167">
         <v>9</v>
       </c>
-      <c r="B17" s="327"/>
-      <c r="C17" s="328"/>
-      <c r="D17" s="328"/>
-      <c r="E17" s="328"/>
-      <c r="F17" s="329"/>
-      <c r="G17" s="318"/>
-      <c r="H17" s="319"/>
-      <c r="I17" s="326"/>
-      <c r="J17" s="318"/>
-      <c r="K17" s="319"/>
-      <c r="L17" s="319"/>
-      <c r="M17" s="319"/>
-      <c r="N17" s="319"/>
-      <c r="O17" s="319"/>
-      <c r="P17" s="326"/>
-      <c r="Q17" s="323"/>
-      <c r="R17" s="325"/>
-      <c r="S17" s="323"/>
-      <c r="T17" s="324"/>
-      <c r="U17" s="325"/>
-      <c r="V17" s="318"/>
-      <c r="W17" s="319"/>
-      <c r="X17" s="319"/>
-      <c r="Y17" s="319"/>
-      <c r="Z17" s="319"/>
-      <c r="AA17" s="319"/>
-      <c r="AB17" s="320"/>
-      <c r="AC17" s="334"/>
-      <c r="AD17" s="289"/>
-      <c r="AE17" s="290"/>
-      <c r="AF17" s="290"/>
-      <c r="AG17" s="291"/>
-      <c r="AH17" s="330"/>
-      <c r="AI17" s="331"/>
-    </row>
-    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="321"/>
-      <c r="B18" s="322"/>
-      <c r="C18" s="322"/>
-      <c r="D18" s="322"/>
-      <c r="E18" s="322"/>
-      <c r="F18" s="322"/>
+      <c r="B17" s="342"/>
+      <c r="C17" s="343"/>
+      <c r="D17" s="343"/>
+      <c r="E17" s="343"/>
+      <c r="F17" s="344"/>
+      <c r="G17" s="330"/>
+      <c r="H17" s="331"/>
+      <c r="I17" s="338"/>
+      <c r="J17" s="330"/>
+      <c r="K17" s="331"/>
+      <c r="L17" s="331"/>
+      <c r="M17" s="331"/>
+      <c r="N17" s="331"/>
+      <c r="O17" s="331"/>
+      <c r="P17" s="338"/>
+      <c r="Q17" s="335"/>
+      <c r="R17" s="337"/>
+      <c r="S17" s="335"/>
+      <c r="T17" s="336"/>
+      <c r="U17" s="337"/>
+      <c r="V17" s="330"/>
+      <c r="W17" s="331"/>
+      <c r="X17" s="331"/>
+      <c r="Y17" s="331"/>
+      <c r="Z17" s="331"/>
+      <c r="AA17" s="331"/>
+      <c r="AB17" s="332"/>
+      <c r="AC17" s="349"/>
+      <c r="AD17" s="358"/>
+      <c r="AE17" s="359"/>
+      <c r="AF17" s="359"/>
+      <c r="AG17" s="360"/>
+      <c r="AH17" s="345"/>
+      <c r="AI17" s="346"/>
+    </row>
+    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="333"/>
+      <c r="B18" s="334"/>
+      <c r="C18" s="334"/>
+      <c r="D18" s="334"/>
+      <c r="E18" s="334"/>
+      <c r="F18" s="334"/>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
@@ -12486,23 +12486,23 @@
       <c r="AA18" s="49"/>
       <c r="AB18" s="49"/>
       <c r="AC18" s="52"/>
-      <c r="AD18" s="317"/>
-      <c r="AE18" s="317"/>
-      <c r="AF18" s="317"/>
-      <c r="AG18" s="317"/>
-      <c r="AH18" s="317"/>
+      <c r="AD18" s="328"/>
+      <c r="AE18" s="328"/>
+      <c r="AF18" s="328"/>
+      <c r="AG18" s="328"/>
+      <c r="AH18" s="328"/>
       <c r="AI18" s="103"/>
       <c r="AJ18" s="43"/>
     </row>
-    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="315" t="s">
+    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="326" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="316"/>
-      <c r="C19" s="316"/>
-      <c r="D19" s="316"/>
-      <c r="E19" s="316"/>
-      <c r="F19" s="316"/>
+      <c r="B19" s="327"/>
+      <c r="C19" s="327"/>
+      <c r="D19" s="327"/>
+      <c r="E19" s="327"/>
+      <c r="F19" s="327"/>
       <c r="G19" s="117"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
@@ -12541,7 +12541,7 @@
       <c r="AT19" s="102"/>
       <c r="AU19" s="102"/>
     </row>
-    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="50"/>
       <c r="B20" s="43"/>
       <c r="C20" s="104"/>
@@ -12587,7 +12587,7 @@
       <c r="AT20" s="102"/>
       <c r="AU20" s="102"/>
     </row>
-    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="50"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -12633,7 +12633,7 @@
       <c r="AT21" s="102"/>
       <c r="AU21" s="102"/>
     </row>
-    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="50"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -12679,7 +12679,7 @@
       <c r="AT22" s="102"/>
       <c r="AU22" s="102"/>
     </row>
-    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="50"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
@@ -12725,7 +12725,7 @@
       <c r="AT23" s="102"/>
       <c r="AU23" s="102"/>
     </row>
-    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="50"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
@@ -12771,7 +12771,7 @@
       <c r="AT24" s="102"/>
       <c r="AU24" s="102"/>
     </row>
-    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="50"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -12817,7 +12817,7 @@
       <c r="AT25" s="102"/>
       <c r="AU25" s="102"/>
     </row>
-    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="50"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -12863,7 +12863,7 @@
       <c r="AT26" s="102"/>
       <c r="AU26" s="102"/>
     </row>
-    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="50"/>
       <c r="B27" s="104"/>
       <c r="C27" s="104"/>
@@ -12909,7 +12909,7 @@
       <c r="AT27" s="102"/>
       <c r="AU27" s="102"/>
     </row>
-    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="50"/>
       <c r="B28" s="104"/>
       <c r="C28" s="43"/>
@@ -12955,7 +12955,7 @@
       <c r="AT28" s="102"/>
       <c r="AU28" s="102"/>
     </row>
-    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="53"/>
       <c r="B29" s="105"/>
       <c r="C29" s="44"/>
@@ -13001,7 +13001,7 @@
       <c r="AT29" s="102"/>
       <c r="AU29" s="102"/>
     </row>
-    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="53"/>
       <c r="B30" s="105"/>
       <c r="C30" s="44"/>
@@ -13047,7 +13047,7 @@
       <c r="AT30" s="102"/>
       <c r="AU30" s="102"/>
     </row>
-    <row r="31" spans="1:47" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:47" ht="4.5" customHeight="1">
       <c r="AN31" s="113"/>
       <c r="AO31" s="102"/>
       <c r="AP31" s="102"/>
@@ -13057,7 +13057,7 @@
       <c r="AT31" s="102"/>
       <c r="AU31" s="102"/>
     </row>
-    <row r="32" spans="1:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:47" ht="12">
       <c r="AN32" s="113"/>
       <c r="AO32" s="102"/>
       <c r="AP32" s="102"/>
@@ -13067,7 +13067,7 @@
       <c r="AT32" s="102"/>
       <c r="AU32" s="102"/>
     </row>
-    <row r="33" spans="40:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="33" spans="40:47" ht="12">
       <c r="AN33" s="113"/>
       <c r="AO33" s="102"/>
       <c r="AP33" s="102"/>
@@ -13077,7 +13077,7 @@
       <c r="AT33" s="102"/>
       <c r="AU33" s="102"/>
     </row>
-    <row r="34" spans="40:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="34" spans="40:47" ht="12">
       <c r="AN34" s="113"/>
       <c r="AO34" s="102"/>
       <c r="AP34" s="102"/>
@@ -13087,7 +13087,7 @@
       <c r="AT34" s="102"/>
       <c r="AU34" s="102"/>
     </row>
-    <row r="35" spans="40:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="35" spans="40:47" ht="12">
       <c r="AN35" s="113"/>
       <c r="AO35" s="102"/>
       <c r="AP35" s="102"/>
@@ -13097,7 +13097,7 @@
       <c r="AT35" s="102"/>
       <c r="AU35" s="102"/>
     </row>
-    <row r="36" spans="40:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="36" spans="40:47" ht="12">
       <c r="AN36" s="113"/>
       <c r="AO36" s="102"/>
       <c r="AP36" s="102"/>
@@ -13107,7 +13107,7 @@
       <c r="AT36" s="102"/>
       <c r="AU36" s="102"/>
     </row>
-    <row r="37" spans="40:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="37" spans="40:47" ht="12">
       <c r="AN37" s="113"/>
       <c r="AO37" s="102"/>
       <c r="AP37" s="102"/>
@@ -13117,7 +13117,7 @@
       <c r="AT37" s="102"/>
       <c r="AU37" s="102"/>
     </row>
-    <row r="38" spans="40:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="38" spans="40:47" ht="12">
       <c r="AN38" s="113"/>
       <c r="AO38" s="102"/>
       <c r="AP38" s="102"/>
@@ -13127,7 +13127,7 @@
       <c r="AT38" s="102"/>
       <c r="AU38" s="102"/>
     </row>
-    <row r="39" spans="40:47" ht="12" x14ac:dyDescent="0.15">
+    <row r="39" spans="40:47" ht="12">
       <c r="AN39" s="113"/>
       <c r="AO39" s="102"/>
       <c r="AP39" s="102"/>
@@ -13137,7 +13137,7 @@
       <c r="AT39" s="102"/>
       <c r="AU39" s="102"/>
     </row>
-    <row r="40" spans="40:47" x14ac:dyDescent="0.15">
+    <row r="40" spans="40:47">
       <c r="AN40" s="102"/>
       <c r="AO40" s="102"/>
       <c r="AP40" s="102"/>
@@ -13147,7 +13147,7 @@
       <c r="AT40" s="102"/>
       <c r="AU40" s="102"/>
     </row>
-    <row r="41" spans="40:47" x14ac:dyDescent="0.15">
+    <row r="41" spans="40:47">
       <c r="AN41" s="102"/>
       <c r="AO41" s="102"/>
       <c r="AP41" s="102"/>
@@ -13157,7 +13157,7 @@
       <c r="AT41" s="102"/>
       <c r="AU41" s="102"/>
     </row>
-    <row r="42" spans="40:47" x14ac:dyDescent="0.15">
+    <row r="42" spans="40:47">
       <c r="AN42" s="102"/>
       <c r="AO42" s="102"/>
       <c r="AP42" s="102"/>
@@ -13169,6 +13169,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AD12:AG12"/>
+    <mergeCell ref="AD13:AG13"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AD14:AG14"/>
+    <mergeCell ref="AD15:AG15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="AC9:AC17"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="V8:AB8"/>
     <mergeCell ref="J8:P8"/>
@@ -13193,85 +13272,6 @@
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="AC7:AI7"/>
     <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AC9:AC17"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AD12:AG12"/>
-    <mergeCell ref="AD13:AG13"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="V13:AB13"/>
-    <mergeCell ref="V14:AB14"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AD14:AG14"/>
-    <mergeCell ref="AD15:AG15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="V12:AB12"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="2">
@@ -13304,168 +13304,168 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="22" width="4.83203125" style="102"/>
     <col min="23" max="23" width="4.83203125" style="102" customWidth="1"/>
     <col min="24" max="16384" width="4.83203125" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="94" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:121" s="94" customFormat="1" ht="11.25">
+      <c r="A1" s="174" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="204" t="str">
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="213" t="s">
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="177" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="236" t="str">
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="179"/>
+      <c r="S1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="210" t="s">
+      <c r="T1" s="232"/>
+      <c r="U1" s="232"/>
+      <c r="V1" s="232"/>
+      <c r="W1" s="232"/>
+      <c r="X1" s="232"/>
+      <c r="Y1" s="232"/>
+      <c r="Z1" s="233"/>
+      <c r="AA1" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="AB1" s="212"/>
-      <c r="AC1" s="194" t="str">
+      <c r="AB1" s="176"/>
+      <c r="AC1" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="231" t="str">
+      <c r="AD1" s="199"/>
+      <c r="AE1" s="199"/>
+      <c r="AF1" s="200"/>
+      <c r="AG1" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="232"/>
-      <c r="AI1" s="233"/>
-    </row>
-    <row r="2" spans="1:121" s="94" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="210" t="s">
+      <c r="AH1" s="253"/>
+      <c r="AI1" s="254"/>
+    </row>
+    <row r="2" spans="1:121" s="94" customFormat="1" ht="11.25">
+      <c r="A2" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="204" t="str">
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="241"/>
-      <c r="AA2" s="210" t="s">
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="180"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="234"/>
+      <c r="T2" s="235"/>
+      <c r="U2" s="235"/>
+      <c r="V2" s="235"/>
+      <c r="W2" s="235"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
+      <c r="Z2" s="236"/>
+      <c r="AA2" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="231" t="str">
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="232"/>
-      <c r="AI2" s="233"/>
-    </row>
-    <row r="3" spans="1:121" s="94" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="210" t="s">
+      <c r="AH2" s="253"/>
+      <c r="AI2" s="254"/>
+    </row>
+    <row r="3" spans="1:121" s="94" customFormat="1" ht="11.25">
+      <c r="A3" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="204" t="str">
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="243"/>
-      <c r="W3" s="243"/>
-      <c r="X3" s="243"/>
-      <c r="Y3" s="243"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="210"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="194" t="str">
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="238"/>
+      <c r="U3" s="238"/>
+      <c r="V3" s="238"/>
+      <c r="W3" s="238"/>
+      <c r="X3" s="238"/>
+      <c r="Y3" s="238"/>
+      <c r="Z3" s="239"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="198" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="195"/>
-      <c r="AE3" s="195"/>
-      <c r="AF3" s="196"/>
-      <c r="AG3" s="231" t="str">
+      <c r="AD3" s="199"/>
+      <c r="AE3" s="199"/>
+      <c r="AF3" s="200"/>
+      <c r="AG3" s="252" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="232"/>
-      <c r="AI3" s="233"/>
-    </row>
-    <row r="4" spans="1:121" ht="11.25" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:121" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="AH3" s="253"/>
+      <c r="AI3" s="254"/>
+    </row>
+    <row r="4" spans="1:121" ht="11.25"/>
+    <row r="5" spans="1:121" ht="11.25">
       <c r="A5" s="133" t="s">
         <v>97</v>
       </c>
@@ -13473,79 +13473,79 @@
       <c r="C5" s="122"/>
       <c r="D5" s="122"/>
     </row>
-    <row r="6" spans="1:121" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:121" ht="11.25">
       <c r="A6" s="120"/>
       <c r="B6" s="120"/>
       <c r="C6" s="120"/>
       <c r="D6" s="120"/>
     </row>
-    <row r="7" spans="1:121" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:121" ht="22.5" customHeight="1">
       <c r="A7" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="363" t="s">
+      <c r="B7" s="376" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="364"/>
-      <c r="D7" s="364"/>
-      <c r="E7" s="364"/>
-      <c r="F7" s="365"/>
-      <c r="G7" s="363" t="s">
+      <c r="C7" s="377"/>
+      <c r="D7" s="377"/>
+      <c r="E7" s="377"/>
+      <c r="F7" s="378"/>
+      <c r="G7" s="376" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="364"/>
-      <c r="I7" s="364"/>
-      <c r="J7" s="364"/>
-      <c r="K7" s="365"/>
-      <c r="L7" s="363" t="s">
+      <c r="H7" s="377"/>
+      <c r="I7" s="377"/>
+      <c r="J7" s="377"/>
+      <c r="K7" s="378"/>
+      <c r="L7" s="376" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="364"/>
-      <c r="N7" s="364"/>
-      <c r="O7" s="364"/>
-      <c r="P7" s="365"/>
+      <c r="M7" s="377"/>
+      <c r="N7" s="377"/>
+      <c r="O7" s="377"/>
+      <c r="P7" s="378"/>
       <c r="Q7" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="376" t="s">
+      <c r="R7" s="379" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="376"/>
-      <c r="T7" s="376"/>
-      <c r="U7" s="376"/>
-      <c r="V7" s="366" t="s">
+      <c r="S7" s="379"/>
+      <c r="T7" s="379"/>
+      <c r="U7" s="379"/>
+      <c r="V7" s="380" t="s">
         <v>99</v>
       </c>
-      <c r="W7" s="367"/>
-      <c r="X7" s="368" t="s">
+      <c r="W7" s="381"/>
+      <c r="X7" s="382" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="369"/>
-      <c r="Z7" s="363" t="s">
+      <c r="Y7" s="383"/>
+      <c r="Z7" s="376" t="s">
         <v>26</v>
       </c>
-      <c r="AA7" s="365"/>
-      <c r="AB7" s="363" t="s">
+      <c r="AA7" s="378"/>
+      <c r="AB7" s="376" t="s">
         <v>85</v>
       </c>
-      <c r="AC7" s="365"/>
-      <c r="AD7" s="363" t="s">
+      <c r="AC7" s="378"/>
+      <c r="AD7" s="376" t="s">
         <v>86</v>
       </c>
-      <c r="AE7" s="365"/>
-      <c r="AF7" s="363" t="s">
+      <c r="AE7" s="378"/>
+      <c r="AF7" s="376" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="364"/>
-      <c r="AH7" s="365"/>
-      <c r="AI7" s="363" t="s">
+      <c r="AG7" s="377"/>
+      <c r="AH7" s="378"/>
+      <c r="AI7" s="376" t="s">
         <v>62</v>
       </c>
-      <c r="AJ7" s="364"/>
-      <c r="AK7" s="364"/>
-      <c r="AL7" s="364"/>
-      <c r="AM7" s="364"/>
-      <c r="AN7" s="365"/>
+      <c r="AJ7" s="377"/>
+      <c r="AK7" s="377"/>
+      <c r="AL7" s="377"/>
+      <c r="AM7" s="377"/>
+      <c r="AN7" s="378"/>
       <c r="BN7" s="103"/>
       <c r="BO7" s="103"/>
       <c r="BP7" s="103"/>
@@ -13603,49 +13603,49 @@
       <c r="DP7" s="119"/>
       <c r="DQ7" s="119"/>
     </row>
-    <row r="8" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:121" ht="15" customHeight="1">
       <c r="A8" s="168"/>
-      <c r="B8" s="370"/>
-      <c r="C8" s="371"/>
-      <c r="D8" s="371"/>
-      <c r="E8" s="371"/>
-      <c r="F8" s="372"/>
-      <c r="G8" s="373"/>
-      <c r="H8" s="374"/>
-      <c r="I8" s="374"/>
-      <c r="J8" s="374"/>
-      <c r="K8" s="375"/>
-      <c r="L8" s="373"/>
-      <c r="M8" s="374"/>
-      <c r="N8" s="374"/>
-      <c r="O8" s="374"/>
-      <c r="P8" s="375"/>
+      <c r="B8" s="372"/>
+      <c r="C8" s="373"/>
+      <c r="D8" s="373"/>
+      <c r="E8" s="373"/>
+      <c r="F8" s="374"/>
+      <c r="G8" s="368"/>
+      <c r="H8" s="370"/>
+      <c r="I8" s="370"/>
+      <c r="J8" s="370"/>
+      <c r="K8" s="369"/>
+      <c r="L8" s="368"/>
+      <c r="M8" s="370"/>
+      <c r="N8" s="370"/>
+      <c r="O8" s="370"/>
+      <c r="P8" s="369"/>
       <c r="Q8" s="169"/>
-      <c r="R8" s="383"/>
-      <c r="S8" s="383"/>
-      <c r="T8" s="383"/>
-      <c r="U8" s="383"/>
-      <c r="V8" s="382"/>
-      <c r="W8" s="382"/>
-      <c r="X8" s="377">
+      <c r="R8" s="375"/>
+      <c r="S8" s="375"/>
+      <c r="T8" s="375"/>
+      <c r="U8" s="375"/>
+      <c r="V8" s="371"/>
+      <c r="W8" s="371"/>
+      <c r="X8" s="366">
         <v>1</v>
       </c>
-      <c r="Y8" s="378"/>
-      <c r="Z8" s="373"/>
-      <c r="AA8" s="375"/>
-      <c r="AB8" s="373"/>
-      <c r="AC8" s="375"/>
-      <c r="AD8" s="373"/>
-      <c r="AE8" s="375"/>
-      <c r="AF8" s="373"/>
-      <c r="AG8" s="374"/>
-      <c r="AH8" s="375"/>
-      <c r="AI8" s="379"/>
-      <c r="AJ8" s="380"/>
-      <c r="AK8" s="380"/>
-      <c r="AL8" s="380"/>
-      <c r="AM8" s="380"/>
-      <c r="AN8" s="381"/>
+      <c r="Y8" s="367"/>
+      <c r="Z8" s="368"/>
+      <c r="AA8" s="369"/>
+      <c r="AB8" s="368"/>
+      <c r="AC8" s="369"/>
+      <c r="AD8" s="368"/>
+      <c r="AE8" s="369"/>
+      <c r="AF8" s="368"/>
+      <c r="AG8" s="370"/>
+      <c r="AH8" s="369"/>
+      <c r="AI8" s="363"/>
+      <c r="AJ8" s="364"/>
+      <c r="AK8" s="364"/>
+      <c r="AL8" s="364"/>
+      <c r="AM8" s="364"/>
+      <c r="AN8" s="365"/>
       <c r="BN8" s="119"/>
       <c r="BO8" s="119"/>
       <c r="BP8" s="119"/>
@@ -13703,50 +13703,50 @@
       <c r="DP8" s="119"/>
       <c r="DQ8" s="119"/>
     </row>
-    <row r="9" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:121" ht="15" customHeight="1">
       <c r="A9" s="168"/>
-      <c r="B9" s="370"/>
-      <c r="C9" s="371"/>
-      <c r="D9" s="371"/>
-      <c r="E9" s="371"/>
-      <c r="F9" s="372"/>
-      <c r="G9" s="373"/>
-      <c r="H9" s="374"/>
-      <c r="I9" s="374"/>
-      <c r="J9" s="374"/>
-      <c r="K9" s="375"/>
-      <c r="L9" s="373"/>
-      <c r="M9" s="374"/>
-      <c r="N9" s="374"/>
-      <c r="O9" s="374"/>
-      <c r="P9" s="375"/>
+      <c r="B9" s="372"/>
+      <c r="C9" s="373"/>
+      <c r="D9" s="373"/>
+      <c r="E9" s="373"/>
+      <c r="F9" s="374"/>
+      <c r="G9" s="368"/>
+      <c r="H9" s="370"/>
+      <c r="I9" s="370"/>
+      <c r="J9" s="370"/>
+      <c r="K9" s="369"/>
+      <c r="L9" s="368"/>
+      <c r="M9" s="370"/>
+      <c r="N9" s="370"/>
+      <c r="O9" s="370"/>
+      <c r="P9" s="369"/>
       <c r="Q9" s="169"/>
-      <c r="R9" s="383"/>
-      <c r="S9" s="383"/>
-      <c r="T9" s="383"/>
-      <c r="U9" s="383"/>
-      <c r="V9" s="382"/>
-      <c r="W9" s="382"/>
-      <c r="X9" s="377">
+      <c r="R9" s="375"/>
+      <c r="S9" s="375"/>
+      <c r="T9" s="375"/>
+      <c r="U9" s="375"/>
+      <c r="V9" s="371"/>
+      <c r="W9" s="371"/>
+      <c r="X9" s="366">
         <f t="shared" ref="X9:X17" si="0">V8+X8</f>
         <v>1</v>
       </c>
-      <c r="Y9" s="378"/>
-      <c r="Z9" s="373"/>
-      <c r="AA9" s="375"/>
-      <c r="AB9" s="373"/>
-      <c r="AC9" s="375"/>
-      <c r="AD9" s="373"/>
-      <c r="AE9" s="375"/>
-      <c r="AF9" s="373"/>
-      <c r="AG9" s="374"/>
-      <c r="AH9" s="375"/>
-      <c r="AI9" s="379"/>
-      <c r="AJ9" s="380"/>
-      <c r="AK9" s="380"/>
-      <c r="AL9" s="380"/>
-      <c r="AM9" s="380"/>
-      <c r="AN9" s="381"/>
+      <c r="Y9" s="367"/>
+      <c r="Z9" s="368"/>
+      <c r="AA9" s="369"/>
+      <c r="AB9" s="368"/>
+      <c r="AC9" s="369"/>
+      <c r="AD9" s="368"/>
+      <c r="AE9" s="369"/>
+      <c r="AF9" s="368"/>
+      <c r="AG9" s="370"/>
+      <c r="AH9" s="369"/>
+      <c r="AI9" s="363"/>
+      <c r="AJ9" s="364"/>
+      <c r="AK9" s="364"/>
+      <c r="AL9" s="364"/>
+      <c r="AM9" s="364"/>
+      <c r="AN9" s="365"/>
       <c r="BN9" s="119"/>
       <c r="BO9" s="119"/>
       <c r="BP9" s="119"/>
@@ -13804,50 +13804,50 @@
       <c r="DP9" s="119"/>
       <c r="DQ9" s="119"/>
     </row>
-    <row r="10" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:121" ht="15" customHeight="1">
       <c r="A10" s="168"/>
-      <c r="B10" s="370"/>
-      <c r="C10" s="371"/>
-      <c r="D10" s="371"/>
-      <c r="E10" s="371"/>
-      <c r="F10" s="372"/>
-      <c r="G10" s="373"/>
-      <c r="H10" s="374"/>
-      <c r="I10" s="374"/>
-      <c r="J10" s="374"/>
-      <c r="K10" s="375"/>
-      <c r="L10" s="373"/>
-      <c r="M10" s="374"/>
-      <c r="N10" s="374"/>
-      <c r="O10" s="374"/>
-      <c r="P10" s="375"/>
+      <c r="B10" s="372"/>
+      <c r="C10" s="373"/>
+      <c r="D10" s="373"/>
+      <c r="E10" s="373"/>
+      <c r="F10" s="374"/>
+      <c r="G10" s="368"/>
+      <c r="H10" s="370"/>
+      <c r="I10" s="370"/>
+      <c r="J10" s="370"/>
+      <c r="K10" s="369"/>
+      <c r="L10" s="368"/>
+      <c r="M10" s="370"/>
+      <c r="N10" s="370"/>
+      <c r="O10" s="370"/>
+      <c r="P10" s="369"/>
       <c r="Q10" s="169"/>
-      <c r="R10" s="383"/>
-      <c r="S10" s="383"/>
-      <c r="T10" s="383"/>
-      <c r="U10" s="383"/>
-      <c r="V10" s="382"/>
-      <c r="W10" s="382"/>
-      <c r="X10" s="377">
+      <c r="R10" s="375"/>
+      <c r="S10" s="375"/>
+      <c r="T10" s="375"/>
+      <c r="U10" s="375"/>
+      <c r="V10" s="371"/>
+      <c r="W10" s="371"/>
+      <c r="X10" s="366">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y10" s="378"/>
-      <c r="Z10" s="373"/>
-      <c r="AA10" s="375"/>
-      <c r="AB10" s="373"/>
-      <c r="AC10" s="375"/>
-      <c r="AD10" s="373"/>
-      <c r="AE10" s="375"/>
-      <c r="AF10" s="373"/>
-      <c r="AG10" s="374"/>
-      <c r="AH10" s="375"/>
-      <c r="AI10" s="379"/>
-      <c r="AJ10" s="380"/>
-      <c r="AK10" s="380"/>
-      <c r="AL10" s="380"/>
-      <c r="AM10" s="380"/>
-      <c r="AN10" s="381"/>
+      <c r="Y10" s="367"/>
+      <c r="Z10" s="368"/>
+      <c r="AA10" s="369"/>
+      <c r="AB10" s="368"/>
+      <c r="AC10" s="369"/>
+      <c r="AD10" s="368"/>
+      <c r="AE10" s="369"/>
+      <c r="AF10" s="368"/>
+      <c r="AG10" s="370"/>
+      <c r="AH10" s="369"/>
+      <c r="AI10" s="363"/>
+      <c r="AJ10" s="364"/>
+      <c r="AK10" s="364"/>
+      <c r="AL10" s="364"/>
+      <c r="AM10" s="364"/>
+      <c r="AN10" s="365"/>
       <c r="BN10" s="119"/>
       <c r="BO10" s="119"/>
       <c r="BP10" s="119"/>
@@ -13905,50 +13905,50 @@
       <c r="DP10" s="119"/>
       <c r="DQ10" s="119"/>
     </row>
-    <row r="11" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:121" ht="15" customHeight="1">
       <c r="A11" s="168"/>
-      <c r="B11" s="370"/>
-      <c r="C11" s="371"/>
-      <c r="D11" s="371"/>
-      <c r="E11" s="371"/>
-      <c r="F11" s="372"/>
-      <c r="G11" s="373"/>
-      <c r="H11" s="374"/>
-      <c r="I11" s="374"/>
-      <c r="J11" s="374"/>
-      <c r="K11" s="375"/>
-      <c r="L11" s="373"/>
-      <c r="M11" s="374"/>
-      <c r="N11" s="374"/>
-      <c r="O11" s="374"/>
-      <c r="P11" s="375"/>
+      <c r="B11" s="372"/>
+      <c r="C11" s="373"/>
+      <c r="D11" s="373"/>
+      <c r="E11" s="373"/>
+      <c r="F11" s="374"/>
+      <c r="G11" s="368"/>
+      <c r="H11" s="370"/>
+      <c r="I11" s="370"/>
+      <c r="J11" s="370"/>
+      <c r="K11" s="369"/>
+      <c r="L11" s="368"/>
+      <c r="M11" s="370"/>
+      <c r="N11" s="370"/>
+      <c r="O11" s="370"/>
+      <c r="P11" s="369"/>
       <c r="Q11" s="169"/>
-      <c r="R11" s="383"/>
-      <c r="S11" s="383"/>
-      <c r="T11" s="383"/>
-      <c r="U11" s="383"/>
-      <c r="V11" s="382"/>
-      <c r="W11" s="382"/>
-      <c r="X11" s="377">
+      <c r="R11" s="375"/>
+      <c r="S11" s="375"/>
+      <c r="T11" s="375"/>
+      <c r="U11" s="375"/>
+      <c r="V11" s="371"/>
+      <c r="W11" s="371"/>
+      <c r="X11" s="366">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y11" s="378"/>
-      <c r="Z11" s="373"/>
-      <c r="AA11" s="375"/>
-      <c r="AB11" s="373"/>
-      <c r="AC11" s="375"/>
-      <c r="AD11" s="373"/>
-      <c r="AE11" s="375"/>
-      <c r="AF11" s="373"/>
-      <c r="AG11" s="374"/>
-      <c r="AH11" s="375"/>
-      <c r="AI11" s="379"/>
-      <c r="AJ11" s="380"/>
-      <c r="AK11" s="380"/>
-      <c r="AL11" s="380"/>
-      <c r="AM11" s="380"/>
-      <c r="AN11" s="381"/>
+      <c r="Y11" s="367"/>
+      <c r="Z11" s="368"/>
+      <c r="AA11" s="369"/>
+      <c r="AB11" s="368"/>
+      <c r="AC11" s="369"/>
+      <c r="AD11" s="368"/>
+      <c r="AE11" s="369"/>
+      <c r="AF11" s="368"/>
+      <c r="AG11" s="370"/>
+      <c r="AH11" s="369"/>
+      <c r="AI11" s="363"/>
+      <c r="AJ11" s="364"/>
+      <c r="AK11" s="364"/>
+      <c r="AL11" s="364"/>
+      <c r="AM11" s="364"/>
+      <c r="AN11" s="365"/>
       <c r="BN11" s="119"/>
       <c r="BO11" s="119"/>
       <c r="BP11" s="119"/>
@@ -14006,50 +14006,50 @@
       <c r="DP11" s="119"/>
       <c r="DQ11" s="119"/>
     </row>
-    <row r="12" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:121" ht="15" customHeight="1">
       <c r="A12" s="168"/>
-      <c r="B12" s="370"/>
-      <c r="C12" s="371"/>
-      <c r="D12" s="371"/>
-      <c r="E12" s="371"/>
-      <c r="F12" s="372"/>
-      <c r="G12" s="373"/>
-      <c r="H12" s="374"/>
-      <c r="I12" s="374"/>
-      <c r="J12" s="374"/>
-      <c r="K12" s="375"/>
-      <c r="L12" s="373"/>
-      <c r="M12" s="374"/>
-      <c r="N12" s="374"/>
-      <c r="O12" s="374"/>
-      <c r="P12" s="375"/>
+      <c r="B12" s="372"/>
+      <c r="C12" s="373"/>
+      <c r="D12" s="373"/>
+      <c r="E12" s="373"/>
+      <c r="F12" s="374"/>
+      <c r="G12" s="368"/>
+      <c r="H12" s="370"/>
+      <c r="I12" s="370"/>
+      <c r="J12" s="370"/>
+      <c r="K12" s="369"/>
+      <c r="L12" s="368"/>
+      <c r="M12" s="370"/>
+      <c r="N12" s="370"/>
+      <c r="O12" s="370"/>
+      <c r="P12" s="369"/>
       <c r="Q12" s="169"/>
-      <c r="R12" s="383"/>
-      <c r="S12" s="383"/>
-      <c r="T12" s="383"/>
-      <c r="U12" s="383"/>
-      <c r="V12" s="382"/>
-      <c r="W12" s="382"/>
-      <c r="X12" s="377">
+      <c r="R12" s="375"/>
+      <c r="S12" s="375"/>
+      <c r="T12" s="375"/>
+      <c r="U12" s="375"/>
+      <c r="V12" s="371"/>
+      <c r="W12" s="371"/>
+      <c r="X12" s="366">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="378"/>
-      <c r="Z12" s="373"/>
-      <c r="AA12" s="375"/>
-      <c r="AB12" s="373"/>
-      <c r="AC12" s="375"/>
-      <c r="AD12" s="373"/>
-      <c r="AE12" s="375"/>
-      <c r="AF12" s="373"/>
-      <c r="AG12" s="374"/>
-      <c r="AH12" s="375"/>
-      <c r="AI12" s="379"/>
-      <c r="AJ12" s="380"/>
-      <c r="AK12" s="380"/>
-      <c r="AL12" s="380"/>
-      <c r="AM12" s="380"/>
-      <c r="AN12" s="381"/>
+      <c r="Y12" s="367"/>
+      <c r="Z12" s="368"/>
+      <c r="AA12" s="369"/>
+      <c r="AB12" s="368"/>
+      <c r="AC12" s="369"/>
+      <c r="AD12" s="368"/>
+      <c r="AE12" s="369"/>
+      <c r="AF12" s="368"/>
+      <c r="AG12" s="370"/>
+      <c r="AH12" s="369"/>
+      <c r="AI12" s="363"/>
+      <c r="AJ12" s="364"/>
+      <c r="AK12" s="364"/>
+      <c r="AL12" s="364"/>
+      <c r="AM12" s="364"/>
+      <c r="AN12" s="365"/>
       <c r="BN12" s="119"/>
       <c r="BO12" s="119"/>
       <c r="BP12" s="119"/>
@@ -14107,50 +14107,50 @@
       <c r="DP12" s="119"/>
       <c r="DQ12" s="119"/>
     </row>
-    <row r="13" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:121" ht="15" customHeight="1">
       <c r="A13" s="168"/>
-      <c r="B13" s="370"/>
-      <c r="C13" s="371"/>
-      <c r="D13" s="371"/>
-      <c r="E13" s="371"/>
-      <c r="F13" s="372"/>
-      <c r="G13" s="373"/>
-      <c r="H13" s="374"/>
-      <c r="I13" s="374"/>
-      <c r="J13" s="374"/>
-      <c r="K13" s="375"/>
-      <c r="L13" s="373"/>
-      <c r="M13" s="374"/>
-      <c r="N13" s="374"/>
-      <c r="O13" s="374"/>
-      <c r="P13" s="375"/>
+      <c r="B13" s="372"/>
+      <c r="C13" s="373"/>
+      <c r="D13" s="373"/>
+      <c r="E13" s="373"/>
+      <c r="F13" s="374"/>
+      <c r="G13" s="368"/>
+      <c r="H13" s="370"/>
+      <c r="I13" s="370"/>
+      <c r="J13" s="370"/>
+      <c r="K13" s="369"/>
+      <c r="L13" s="368"/>
+      <c r="M13" s="370"/>
+      <c r="N13" s="370"/>
+      <c r="O13" s="370"/>
+      <c r="P13" s="369"/>
       <c r="Q13" s="169"/>
-      <c r="R13" s="383"/>
-      <c r="S13" s="383"/>
-      <c r="T13" s="383"/>
-      <c r="U13" s="383"/>
-      <c r="V13" s="382"/>
-      <c r="W13" s="382"/>
-      <c r="X13" s="377">
+      <c r="R13" s="375"/>
+      <c r="S13" s="375"/>
+      <c r="T13" s="375"/>
+      <c r="U13" s="375"/>
+      <c r="V13" s="371"/>
+      <c r="W13" s="371"/>
+      <c r="X13" s="366">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="378"/>
-      <c r="Z13" s="373"/>
-      <c r="AA13" s="375"/>
-      <c r="AB13" s="373"/>
-      <c r="AC13" s="375"/>
-      <c r="AD13" s="373"/>
-      <c r="AE13" s="375"/>
-      <c r="AF13" s="373"/>
-      <c r="AG13" s="374"/>
-      <c r="AH13" s="375"/>
-      <c r="AI13" s="379"/>
-      <c r="AJ13" s="380"/>
-      <c r="AK13" s="380"/>
-      <c r="AL13" s="380"/>
-      <c r="AM13" s="380"/>
-      <c r="AN13" s="381"/>
+      <c r="Y13" s="367"/>
+      <c r="Z13" s="368"/>
+      <c r="AA13" s="369"/>
+      <c r="AB13" s="368"/>
+      <c r="AC13" s="369"/>
+      <c r="AD13" s="368"/>
+      <c r="AE13" s="369"/>
+      <c r="AF13" s="368"/>
+      <c r="AG13" s="370"/>
+      <c r="AH13" s="369"/>
+      <c r="AI13" s="363"/>
+      <c r="AJ13" s="364"/>
+      <c r="AK13" s="364"/>
+      <c r="AL13" s="364"/>
+      <c r="AM13" s="364"/>
+      <c r="AN13" s="365"/>
       <c r="BN13" s="119"/>
       <c r="BO13" s="119"/>
       <c r="BP13" s="119"/>
@@ -14208,50 +14208,50 @@
       <c r="DP13" s="119"/>
       <c r="DQ13" s="119"/>
     </row>
-    <row r="14" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:121" ht="15" customHeight="1">
       <c r="A14" s="168"/>
-      <c r="B14" s="370"/>
-      <c r="C14" s="371"/>
-      <c r="D14" s="371"/>
-      <c r="E14" s="371"/>
-      <c r="F14" s="372"/>
-      <c r="G14" s="373"/>
-      <c r="H14" s="374"/>
-      <c r="I14" s="374"/>
-      <c r="J14" s="374"/>
-      <c r="K14" s="375"/>
-      <c r="L14" s="373"/>
-      <c r="M14" s="374"/>
-      <c r="N14" s="374"/>
-      <c r="O14" s="374"/>
-      <c r="P14" s="375"/>
+      <c r="B14" s="372"/>
+      <c r="C14" s="373"/>
+      <c r="D14" s="373"/>
+      <c r="E14" s="373"/>
+      <c r="F14" s="374"/>
+      <c r="G14" s="368"/>
+      <c r="H14" s="370"/>
+      <c r="I14" s="370"/>
+      <c r="J14" s="370"/>
+      <c r="K14" s="369"/>
+      <c r="L14" s="368"/>
+      <c r="M14" s="370"/>
+      <c r="N14" s="370"/>
+      <c r="O14" s="370"/>
+      <c r="P14" s="369"/>
       <c r="Q14" s="169"/>
-      <c r="R14" s="383"/>
-      <c r="S14" s="383"/>
-      <c r="T14" s="383"/>
-      <c r="U14" s="383"/>
-      <c r="V14" s="382"/>
-      <c r="W14" s="382"/>
-      <c r="X14" s="377">
+      <c r="R14" s="375"/>
+      <c r="S14" s="375"/>
+      <c r="T14" s="375"/>
+      <c r="U14" s="375"/>
+      <c r="V14" s="371"/>
+      <c r="W14" s="371"/>
+      <c r="X14" s="366">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="378"/>
-      <c r="Z14" s="373"/>
-      <c r="AA14" s="375"/>
-      <c r="AB14" s="373"/>
-      <c r="AC14" s="375"/>
-      <c r="AD14" s="373"/>
-      <c r="AE14" s="375"/>
-      <c r="AF14" s="373"/>
-      <c r="AG14" s="374"/>
-      <c r="AH14" s="375"/>
-      <c r="AI14" s="379"/>
-      <c r="AJ14" s="380"/>
-      <c r="AK14" s="380"/>
-      <c r="AL14" s="380"/>
-      <c r="AM14" s="380"/>
-      <c r="AN14" s="381"/>
+      <c r="Y14" s="367"/>
+      <c r="Z14" s="368"/>
+      <c r="AA14" s="369"/>
+      <c r="AB14" s="368"/>
+      <c r="AC14" s="369"/>
+      <c r="AD14" s="368"/>
+      <c r="AE14" s="369"/>
+      <c r="AF14" s="368"/>
+      <c r="AG14" s="370"/>
+      <c r="AH14" s="369"/>
+      <c r="AI14" s="363"/>
+      <c r="AJ14" s="364"/>
+      <c r="AK14" s="364"/>
+      <c r="AL14" s="364"/>
+      <c r="AM14" s="364"/>
+      <c r="AN14" s="365"/>
       <c r="BN14" s="119"/>
       <c r="BO14" s="119"/>
       <c r="BP14" s="119"/>
@@ -14309,50 +14309,50 @@
       <c r="DP14" s="119"/>
       <c r="DQ14" s="119"/>
     </row>
-    <row r="15" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:121" ht="15" customHeight="1">
       <c r="A15" s="168"/>
-      <c r="B15" s="370"/>
-      <c r="C15" s="371"/>
-      <c r="D15" s="371"/>
-      <c r="E15" s="371"/>
-      <c r="F15" s="372"/>
-      <c r="G15" s="373"/>
-      <c r="H15" s="374"/>
-      <c r="I15" s="374"/>
-      <c r="J15" s="374"/>
-      <c r="K15" s="375"/>
-      <c r="L15" s="373"/>
-      <c r="M15" s="374"/>
-      <c r="N15" s="374"/>
-      <c r="O15" s="374"/>
-      <c r="P15" s="375"/>
+      <c r="B15" s="372"/>
+      <c r="C15" s="373"/>
+      <c r="D15" s="373"/>
+      <c r="E15" s="373"/>
+      <c r="F15" s="374"/>
+      <c r="G15" s="368"/>
+      <c r="H15" s="370"/>
+      <c r="I15" s="370"/>
+      <c r="J15" s="370"/>
+      <c r="K15" s="369"/>
+      <c r="L15" s="368"/>
+      <c r="M15" s="370"/>
+      <c r="N15" s="370"/>
+      <c r="O15" s="370"/>
+      <c r="P15" s="369"/>
       <c r="Q15" s="169"/>
-      <c r="R15" s="383"/>
-      <c r="S15" s="383"/>
-      <c r="T15" s="383"/>
-      <c r="U15" s="383"/>
-      <c r="V15" s="382"/>
-      <c r="W15" s="382"/>
-      <c r="X15" s="377">
+      <c r="R15" s="375"/>
+      <c r="S15" s="375"/>
+      <c r="T15" s="375"/>
+      <c r="U15" s="375"/>
+      <c r="V15" s="371"/>
+      <c r="W15" s="371"/>
+      <c r="X15" s="366">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y15" s="378"/>
-      <c r="Z15" s="373"/>
-      <c r="AA15" s="375"/>
-      <c r="AB15" s="373"/>
-      <c r="AC15" s="375"/>
-      <c r="AD15" s="373"/>
-      <c r="AE15" s="375"/>
-      <c r="AF15" s="373"/>
-      <c r="AG15" s="374"/>
-      <c r="AH15" s="375"/>
-      <c r="AI15" s="379"/>
-      <c r="AJ15" s="380"/>
-      <c r="AK15" s="380"/>
-      <c r="AL15" s="380"/>
-      <c r="AM15" s="380"/>
-      <c r="AN15" s="381"/>
+      <c r="Y15" s="367"/>
+      <c r="Z15" s="368"/>
+      <c r="AA15" s="369"/>
+      <c r="AB15" s="368"/>
+      <c r="AC15" s="369"/>
+      <c r="AD15" s="368"/>
+      <c r="AE15" s="369"/>
+      <c r="AF15" s="368"/>
+      <c r="AG15" s="370"/>
+      <c r="AH15" s="369"/>
+      <c r="AI15" s="363"/>
+      <c r="AJ15" s="364"/>
+      <c r="AK15" s="364"/>
+      <c r="AL15" s="364"/>
+      <c r="AM15" s="364"/>
+      <c r="AN15" s="365"/>
       <c r="BN15" s="119"/>
       <c r="BO15" s="119"/>
       <c r="BP15" s="119"/>
@@ -14410,50 +14410,50 @@
       <c r="DP15" s="119"/>
       <c r="DQ15" s="119"/>
     </row>
-    <row r="16" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:121" ht="15" customHeight="1">
       <c r="A16" s="168"/>
-      <c r="B16" s="370"/>
-      <c r="C16" s="371"/>
-      <c r="D16" s="371"/>
-      <c r="E16" s="371"/>
-      <c r="F16" s="372"/>
-      <c r="G16" s="373"/>
-      <c r="H16" s="374"/>
-      <c r="I16" s="374"/>
-      <c r="J16" s="374"/>
-      <c r="K16" s="375"/>
-      <c r="L16" s="373"/>
-      <c r="M16" s="374"/>
-      <c r="N16" s="374"/>
-      <c r="O16" s="374"/>
-      <c r="P16" s="375"/>
+      <c r="B16" s="372"/>
+      <c r="C16" s="373"/>
+      <c r="D16" s="373"/>
+      <c r="E16" s="373"/>
+      <c r="F16" s="374"/>
+      <c r="G16" s="368"/>
+      <c r="H16" s="370"/>
+      <c r="I16" s="370"/>
+      <c r="J16" s="370"/>
+      <c r="K16" s="369"/>
+      <c r="L16" s="368"/>
+      <c r="M16" s="370"/>
+      <c r="N16" s="370"/>
+      <c r="O16" s="370"/>
+      <c r="P16" s="369"/>
       <c r="Q16" s="169"/>
-      <c r="R16" s="383"/>
-      <c r="S16" s="383"/>
-      <c r="T16" s="383"/>
-      <c r="U16" s="383"/>
-      <c r="V16" s="382"/>
-      <c r="W16" s="382"/>
-      <c r="X16" s="377">
+      <c r="R16" s="375"/>
+      <c r="S16" s="375"/>
+      <c r="T16" s="375"/>
+      <c r="U16" s="375"/>
+      <c r="V16" s="371"/>
+      <c r="W16" s="371"/>
+      <c r="X16" s="366">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="378"/>
-      <c r="Z16" s="373"/>
-      <c r="AA16" s="375"/>
-      <c r="AB16" s="373"/>
-      <c r="AC16" s="375"/>
-      <c r="AD16" s="373"/>
-      <c r="AE16" s="375"/>
-      <c r="AF16" s="373"/>
-      <c r="AG16" s="374"/>
-      <c r="AH16" s="375"/>
-      <c r="AI16" s="379"/>
-      <c r="AJ16" s="380"/>
-      <c r="AK16" s="380"/>
-      <c r="AL16" s="380"/>
-      <c r="AM16" s="380"/>
-      <c r="AN16" s="381"/>
+      <c r="Y16" s="367"/>
+      <c r="Z16" s="368"/>
+      <c r="AA16" s="369"/>
+      <c r="AB16" s="368"/>
+      <c r="AC16" s="369"/>
+      <c r="AD16" s="368"/>
+      <c r="AE16" s="369"/>
+      <c r="AF16" s="368"/>
+      <c r="AG16" s="370"/>
+      <c r="AH16" s="369"/>
+      <c r="AI16" s="363"/>
+      <c r="AJ16" s="364"/>
+      <c r="AK16" s="364"/>
+      <c r="AL16" s="364"/>
+      <c r="AM16" s="364"/>
+      <c r="AN16" s="365"/>
       <c r="BN16" s="119"/>
       <c r="BO16" s="119"/>
       <c r="BP16" s="119"/>
@@ -14511,50 +14511,50 @@
       <c r="DP16" s="119"/>
       <c r="DQ16" s="119"/>
     </row>
-    <row r="17" spans="1:121" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:121" ht="15" customHeight="1">
       <c r="A17" s="168"/>
-      <c r="B17" s="370"/>
-      <c r="C17" s="371"/>
-      <c r="D17" s="371"/>
-      <c r="E17" s="371"/>
-      <c r="F17" s="372"/>
-      <c r="G17" s="373"/>
-      <c r="H17" s="374"/>
-      <c r="I17" s="374"/>
-      <c r="J17" s="374"/>
-      <c r="K17" s="375"/>
-      <c r="L17" s="373"/>
-      <c r="M17" s="374"/>
-      <c r="N17" s="374"/>
-      <c r="O17" s="374"/>
-      <c r="P17" s="375"/>
+      <c r="B17" s="372"/>
+      <c r="C17" s="373"/>
+      <c r="D17" s="373"/>
+      <c r="E17" s="373"/>
+      <c r="F17" s="374"/>
+      <c r="G17" s="368"/>
+      <c r="H17" s="370"/>
+      <c r="I17" s="370"/>
+      <c r="J17" s="370"/>
+      <c r="K17" s="369"/>
+      <c r="L17" s="368"/>
+      <c r="M17" s="370"/>
+      <c r="N17" s="370"/>
+      <c r="O17" s="370"/>
+      <c r="P17" s="369"/>
       <c r="Q17" s="169"/>
-      <c r="R17" s="383"/>
-      <c r="S17" s="383"/>
-      <c r="T17" s="383"/>
-      <c r="U17" s="383"/>
-      <c r="V17" s="382"/>
-      <c r="W17" s="382"/>
-      <c r="X17" s="377">
+      <c r="R17" s="375"/>
+      <c r="S17" s="375"/>
+      <c r="T17" s="375"/>
+      <c r="U17" s="375"/>
+      <c r="V17" s="371"/>
+      <c r="W17" s="371"/>
+      <c r="X17" s="366">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y17" s="378"/>
-      <c r="Z17" s="373"/>
-      <c r="AA17" s="375"/>
-      <c r="AB17" s="373"/>
-      <c r="AC17" s="375"/>
-      <c r="AD17" s="373"/>
-      <c r="AE17" s="375"/>
-      <c r="AF17" s="373"/>
-      <c r="AG17" s="374"/>
-      <c r="AH17" s="375"/>
-      <c r="AI17" s="379"/>
-      <c r="AJ17" s="380"/>
-      <c r="AK17" s="380"/>
-      <c r="AL17" s="380"/>
-      <c r="AM17" s="380"/>
-      <c r="AN17" s="381"/>
+      <c r="Y17" s="367"/>
+      <c r="Z17" s="368"/>
+      <c r="AA17" s="369"/>
+      <c r="AB17" s="368"/>
+      <c r="AC17" s="369"/>
+      <c r="AD17" s="368"/>
+      <c r="AE17" s="369"/>
+      <c r="AF17" s="368"/>
+      <c r="AG17" s="370"/>
+      <c r="AH17" s="369"/>
+      <c r="AI17" s="363"/>
+      <c r="AJ17" s="364"/>
+      <c r="AK17" s="364"/>
+      <c r="AL17" s="364"/>
+      <c r="AM17" s="364"/>
+      <c r="AN17" s="365"/>
       <c r="BN17" s="119"/>
       <c r="BO17" s="119"/>
       <c r="BP17" s="119"/>
@@ -14614,6 +14614,120 @@
     </row>
   </sheetData>
   <mergeCells count="138">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AI7:AN7"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R17:U17"/>
     <mergeCell ref="AI8:AN8"/>
     <mergeCell ref="X17:Y17"/>
     <mergeCell ref="Z17:AA17"/>
@@ -14638,120 +14752,6 @@
     <mergeCell ref="AI15:AN15"/>
     <mergeCell ref="AB13:AC13"/>
     <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AI7:AN7"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
   <dataValidations count="2">
@@ -14780,115 +14780,115 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="25.5" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
     <col min="3" max="16384" width="9.33203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="79" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="70" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="71" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="70" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="70" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="70" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="71" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="74"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="71" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="71" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="71" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="71" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="71" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="71" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="71" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="71" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" s="71" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" s="71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" s="71" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="72" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" s="75" t="s">
         <v>61</v>
       </c>

--- a/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース設計書_(ファイルID)_(ファイル名)_(I／Fファイル).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース設計書_(ファイルID)_(ファイル名)_(I／Fファイル).xlsx
@@ -1131,16 +1131,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>昇順/降順</t>
-    <rPh sb="0" eb="2">
-      <t>ショウジュン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウジュン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>優先度 高→低</t>
     <rPh sb="0" eb="3">
       <t>ユウセンド</t>
@@ -1155,16 +1145,6 @@
   </si>
   <si>
     <t>ﾊﾟﾃﾞｨﾝｸﾞ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小数点位置</t>
-    <rPh sb="0" eb="3">
-      <t>ショウスウテン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1238,13 +1218,6 @@
     <phoneticPr fontId="16"/>
   </si>
   <si>
-    <t>長さ(Byte)</t>
-    <rPh sb="0" eb="1">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1260,10 +1233,36 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>長さ
-(Byte)</t>
+    <t>長さ(Byte)</t>
     <rPh sb="0" eb="1">
       <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>昇順/降順</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>長さ(Byte)</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小数点位置</t>
+    <rPh sb="0" eb="3">
+      <t>ショウスウテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2013,7 +2012,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="384">
+  <cellXfs count="388">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2322,9 +2321,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2453,6 +2449,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2801,12 +2800,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2852,24 +2845,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2885,6 +2863,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -3006,7 +2987,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3074,6 +3055,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3085,6 +3069,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6079,14 +6090,14 @@
     <row r="2" spans="1:26" ht="13.5" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="172"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
@@ -6955,7 +6966,7 @@
       <c r="H7" s="209"/>
       <c r="I7" s="208"/>
       <c r="J7" s="210" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K7" s="209"/>
       <c r="L7" s="209"/>
@@ -6989,7 +7000,7 @@
       <c r="AJ7" s="77"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
-      <c r="A8" s="163"/>
+      <c r="A8" s="162"/>
       <c r="B8" s="220"/>
       <c r="C8" s="221"/>
       <c r="D8" s="222"/>
@@ -7027,7 +7038,7 @@
       <c r="AJ8" s="77"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1">
-      <c r="A9" s="164"/>
+      <c r="A9" s="163"/>
       <c r="B9" s="211"/>
       <c r="C9" s="212"/>
       <c r="D9" s="213"/>
@@ -7065,7 +7076,7 @@
       <c r="AJ9" s="9"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1">
-      <c r="A10" s="164"/>
+      <c r="A10" s="163"/>
       <c r="B10" s="211"/>
       <c r="C10" s="212"/>
       <c r="D10" s="213"/>
@@ -7102,7 +7113,7 @@
       <c r="AI10" s="88"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1">
-      <c r="A11" s="164"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="211"/>
       <c r="C11" s="212"/>
       <c r="D11" s="213"/>
@@ -7139,7 +7150,7 @@
       <c r="AI11" s="88"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1">
-      <c r="A12" s="164"/>
+      <c r="A12" s="163"/>
       <c r="B12" s="211"/>
       <c r="C12" s="212"/>
       <c r="D12" s="213"/>
@@ -7176,7 +7187,7 @@
       <c r="AI12" s="88"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1">
-      <c r="A13" s="164"/>
+      <c r="A13" s="163"/>
       <c r="B13" s="211"/>
       <c r="C13" s="212"/>
       <c r="D13" s="213"/>
@@ -7213,7 +7224,7 @@
       <c r="AI13" s="88"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1">
-      <c r="A14" s="164"/>
+      <c r="A14" s="163"/>
       <c r="B14" s="80"/>
       <c r="C14" s="81"/>
       <c r="D14" s="82"/>
@@ -7250,7 +7261,7 @@
       <c r="AI14" s="88"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1">
-      <c r="A15" s="164"/>
+      <c r="A15" s="163"/>
       <c r="B15" s="80"/>
       <c r="C15" s="81"/>
       <c r="D15" s="82"/>
@@ -7287,7 +7298,7 @@
       <c r="AI15" s="88"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1">
-      <c r="A16" s="164"/>
+      <c r="A16" s="163"/>
       <c r="B16" s="80"/>
       <c r="C16" s="81"/>
       <c r="D16" s="82"/>
@@ -7324,7 +7335,7 @@
       <c r="AI16" s="88"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1">
-      <c r="A17" s="164"/>
+      <c r="A17" s="163"/>
       <c r="B17" s="80"/>
       <c r="C17" s="81"/>
       <c r="D17" s="82"/>
@@ -7361,7 +7372,7 @@
       <c r="AI17" s="88"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1">
-      <c r="A18" s="164"/>
+      <c r="A18" s="163"/>
       <c r="B18" s="80"/>
       <c r="C18" s="81"/>
       <c r="D18" s="82"/>
@@ -7398,7 +7409,7 @@
       <c r="AI18" s="88"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1">
-      <c r="A19" s="164"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="80"/>
       <c r="C19" s="81"/>
       <c r="D19" s="82"/>
@@ -7435,7 +7446,7 @@
       <c r="AI19" s="88"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1">
-      <c r="A20" s="164"/>
+      <c r="A20" s="163"/>
       <c r="B20" s="80"/>
       <c r="C20" s="81"/>
       <c r="D20" s="82"/>
@@ -7472,7 +7483,7 @@
       <c r="AI20" s="88"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1">
-      <c r="A21" s="164"/>
+      <c r="A21" s="163"/>
       <c r="B21" s="80"/>
       <c r="C21" s="81"/>
       <c r="D21" s="82"/>
@@ -7509,7 +7520,7 @@
       <c r="AI21" s="88"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1">
-      <c r="A22" s="164"/>
+      <c r="A22" s="163"/>
       <c r="B22" s="80"/>
       <c r="C22" s="81"/>
       <c r="D22" s="82"/>
@@ -7546,7 +7557,7 @@
       <c r="AI22" s="88"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1">
-      <c r="A23" s="164"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="80"/>
       <c r="C23" s="81"/>
       <c r="D23" s="82"/>
@@ -7583,7 +7594,7 @@
       <c r="AI23" s="88"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1">
-      <c r="A24" s="164"/>
+      <c r="A24" s="163"/>
       <c r="B24" s="80"/>
       <c r="C24" s="81"/>
       <c r="D24" s="82"/>
@@ -7620,7 +7631,7 @@
       <c r="AI24" s="88"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1">
-      <c r="A25" s="164"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="80"/>
       <c r="C25" s="81"/>
       <c r="D25" s="82"/>
@@ -7657,7 +7668,7 @@
       <c r="AI25" s="88"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1">
-      <c r="A26" s="164"/>
+      <c r="A26" s="163"/>
       <c r="B26" s="80"/>
       <c r="C26" s="81"/>
       <c r="D26" s="82"/>
@@ -7694,7 +7705,7 @@
       <c r="AI26" s="88"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1">
-      <c r="A27" s="164"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="80"/>
       <c r="C27" s="81"/>
       <c r="D27" s="82"/>
@@ -7731,7 +7742,7 @@
       <c r="AI27" s="88"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1">
-      <c r="A28" s="164"/>
+      <c r="A28" s="163"/>
       <c r="B28" s="80"/>
       <c r="C28" s="81"/>
       <c r="D28" s="82"/>
@@ -7768,7 +7779,7 @@
       <c r="AI28" s="88"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1">
-      <c r="A29" s="164"/>
+      <c r="A29" s="163"/>
       <c r="B29" s="80"/>
       <c r="C29" s="81"/>
       <c r="D29" s="82"/>
@@ -7805,7 +7816,7 @@
       <c r="AI29" s="88"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1">
-      <c r="A30" s="164"/>
+      <c r="A30" s="163"/>
       <c r="B30" s="80"/>
       <c r="C30" s="81"/>
       <c r="D30" s="82"/>
@@ -7842,7 +7853,7 @@
       <c r="AI30" s="88"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1">
-      <c r="A31" s="164"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="80"/>
       <c r="C31" s="81"/>
       <c r="D31" s="82"/>
@@ -7879,7 +7890,7 @@
       <c r="AI31" s="88"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1">
-      <c r="A32" s="164"/>
+      <c r="A32" s="163"/>
       <c r="B32" s="80"/>
       <c r="C32" s="81"/>
       <c r="D32" s="82"/>
@@ -7916,7 +7927,7 @@
       <c r="AI32" s="88"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1">
-      <c r="A33" s="164"/>
+      <c r="A33" s="163"/>
       <c r="B33" s="80"/>
       <c r="C33" s="81"/>
       <c r="D33" s="82"/>
@@ -8030,9 +8041,9 @@
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="78" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="150" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="149" customWidth="1"/>
     <col min="18" max="33" width="4.83203125" style="78" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="150" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="149" customWidth="1"/>
     <col min="35" max="256" width="4.83203125" style="78"/>
     <col min="257" max="290" width="4.83203125" style="78" customWidth="1"/>
     <col min="291" max="512" width="4.83203125" style="78"/>
@@ -8162,7 +8173,7 @@
     <col min="16163" max="16384" width="4.83203125" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="121" customFormat="1" ht="11.25">
+    <row r="1" spans="1:35" s="120" customFormat="1" ht="11.25">
       <c r="A1" s="240" t="s">
         <v>68</v>
       </c>
@@ -8183,7 +8194,7 @@
       <c r="M1" s="187"/>
       <c r="N1" s="188"/>
       <c r="O1" s="243" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P1" s="244"/>
       <c r="Q1" s="244"/>
@@ -8217,7 +8228,7 @@
       <c r="AH1" s="253"/>
       <c r="AI1" s="254"/>
     </row>
-    <row r="2" spans="1:35" s="121" customFormat="1" ht="11.25">
+    <row r="2" spans="1:35" s="120" customFormat="1" ht="11.25">
       <c r="A2" s="240" t="s">
         <v>69</v>
       </c>
@@ -8267,7 +8278,7 @@
       <c r="AH2" s="253"/>
       <c r="AI2" s="254"/>
     </row>
-    <row r="3" spans="1:35" s="121" customFormat="1" ht="11.25">
+    <row r="3" spans="1:35" s="120" customFormat="1" ht="11.25">
       <c r="A3" s="240" t="s">
         <v>70</v>
       </c>
@@ -8344,7 +8355,7 @@
       <c r="Z4" s="95"/>
       <c r="AA4" s="95"/>
       <c r="AB4" s="95"/>
-      <c r="AC4" s="123"/>
+      <c r="AC4" s="122"/>
       <c r="AD4" s="95"/>
       <c r="AE4" s="95"/>
       <c r="AF4" s="95"/>
@@ -8369,8 +8380,8 @@
       <c r="N5" s="95"/>
       <c r="O5" s="95"/>
       <c r="P5" s="95"/>
-      <c r="Q5" s="124" t="s">
-        <v>89</v>
+      <c r="Q5" s="123" t="s">
+        <v>87</v>
       </c>
       <c r="R5" s="95"/>
       <c r="S5" s="95"/>
@@ -8383,7 +8394,7 @@
       <c r="Z5" s="95"/>
       <c r="AA5" s="95"/>
       <c r="AB5" s="95"/>
-      <c r="AC5" s="123"/>
+      <c r="AC5" s="122"/>
       <c r="AD5" s="95"/>
       <c r="AE5" s="95"/>
       <c r="AF5" s="95"/>
@@ -8405,7 +8416,7 @@
       <c r="K6" s="95"/>
       <c r="L6" s="95"/>
       <c r="M6" s="95"/>
-      <c r="N6" s="124"/>
+      <c r="N6" s="123"/>
       <c r="O6" s="95"/>
       <c r="P6" s="95"/>
       <c r="Q6" s="95"/>
@@ -8420,7 +8431,7 @@
       <c r="Z6" s="95"/>
       <c r="AA6" s="95"/>
       <c r="AB6" s="95"/>
-      <c r="AC6" s="123"/>
+      <c r="AC6" s="122"/>
       <c r="AD6" s="95"/>
       <c r="AE6" s="95"/>
       <c r="AF6" s="95"/>
@@ -8429,340 +8440,340 @@
       <c r="AI6" s="95"/>
     </row>
     <row r="7" spans="1:35" ht="15" customHeight="1">
-      <c r="A7" s="122"/>
-      <c r="B7" s="125" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="127"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="128"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="124"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="127"/>
       <c r="Q7" s="95"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="128"/>
-      <c r="AH7" s="129"/>
-      <c r="AI7" s="130"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="121"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="121"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="121"/>
+      <c r="AE7" s="125"/>
+      <c r="AF7" s="125"/>
+      <c r="AG7" s="127"/>
+      <c r="AH7" s="128"/>
+      <c r="AI7" s="129"/>
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1">
-      <c r="A8" s="122"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="127"/>
-      <c r="O8" s="126"/>
-      <c r="P8" s="128"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="127"/>
       <c r="Q8" s="95"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="126"/>
-      <c r="U8" s="122"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="122"/>
-      <c r="X8" s="122"/>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="122"/>
-      <c r="AA8" s="122"/>
-      <c r="AB8" s="122"/>
-      <c r="AC8" s="122"/>
-      <c r="AD8" s="122"/>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="126"/>
-      <c r="AG8" s="128"/>
-      <c r="AH8" s="129"/>
-      <c r="AI8" s="130"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="121"/>
+      <c r="V8" s="121"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="121"/>
+      <c r="Y8" s="121"/>
+      <c r="Z8" s="121"/>
+      <c r="AA8" s="121"/>
+      <c r="AB8" s="121"/>
+      <c r="AC8" s="121"/>
+      <c r="AD8" s="121"/>
+      <c r="AE8" s="125"/>
+      <c r="AF8" s="125"/>
+      <c r="AG8" s="127"/>
+      <c r="AH8" s="128"/>
+      <c r="AI8" s="129"/>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1">
-      <c r="A9" s="122"/>
-      <c r="B9" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="127"/>
-      <c r="O9" s="126"/>
-      <c r="P9" s="128"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="131" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="124"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="127"/>
       <c r="Q9" s="95"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="126"/>
-      <c r="T9" s="126"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="126"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="126"/>
-      <c r="AC9" s="126"/>
-      <c r="AD9" s="126"/>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="122"/>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="131"/>
-      <c r="AI9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="121"/>
+      <c r="V9" s="121"/>
+      <c r="W9" s="121"/>
+      <c r="X9" s="121"/>
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="125"/>
+      <c r="AA9" s="125"/>
+      <c r="AB9" s="125"/>
+      <c r="AC9" s="125"/>
+      <c r="AD9" s="125"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="121"/>
+      <c r="AG9" s="121"/>
+      <c r="AH9" s="130"/>
+      <c r="AI9" s="121"/>
     </row>
     <row r="10" spans="1:35" ht="15" customHeight="1">
-      <c r="A10" s="122"/>
-      <c r="B10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="126"/>
-      <c r="P10" s="128"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="126"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="127"/>
       <c r="Q10" s="95"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
       <c r="U10" s="95"/>
       <c r="V10" s="95"/>
       <c r="W10" s="95"/>
       <c r="X10" s="95"/>
-      <c r="Y10" s="126"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="126"/>
-      <c r="AC10" s="126"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="122"/>
-      <c r="AF10" s="126"/>
-      <c r="AG10" s="128"/>
-      <c r="AH10" s="129"/>
-      <c r="AI10" s="130"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="125"/>
+      <c r="AA10" s="125"/>
+      <c r="AB10" s="125"/>
+      <c r="AC10" s="125"/>
+      <c r="AD10" s="125"/>
+      <c r="AE10" s="121"/>
+      <c r="AF10" s="125"/>
+      <c r="AG10" s="127"/>
+      <c r="AH10" s="128"/>
+      <c r="AI10" s="129"/>
     </row>
     <row r="11" spans="1:35" ht="15" customHeight="1">
-      <c r="A11" s="122"/>
-      <c r="B11" s="162" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="127"/>
-      <c r="O11" s="126"/>
-      <c r="P11" s="128"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="161" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="131"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="126"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="127"/>
       <c r="Q11" s="95"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="126"/>
-      <c r="Z11" s="126"/>
-      <c r="AA11" s="126"/>
-      <c r="AB11" s="126"/>
-      <c r="AC11" s="126"/>
-      <c r="AD11" s="126"/>
-      <c r="AE11" s="126"/>
-      <c r="AF11" s="126"/>
-      <c r="AG11" s="128"/>
-      <c r="AH11" s="129"/>
-      <c r="AI11" s="130"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="121"/>
+      <c r="W11" s="121"/>
+      <c r="X11" s="121"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="125"/>
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="125"/>
+      <c r="AE11" s="125"/>
+      <c r="AF11" s="125"/>
+      <c r="AG11" s="127"/>
+      <c r="AH11" s="128"/>
+      <c r="AI11" s="129"/>
     </row>
     <row r="12" spans="1:35" ht="15" customHeight="1">
-      <c r="A12" s="122"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="161" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="134"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="160" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="129"/>
+      <c r="O12" s="129"/>
+      <c r="P12" s="129"/>
+      <c r="Q12" s="133"/>
       <c r="R12" s="95"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="126"/>
-      <c r="AB12" s="126"/>
-      <c r="AC12" s="126"/>
-      <c r="AD12" s="126"/>
-      <c r="AE12" s="126"/>
-      <c r="AF12" s="126"/>
-      <c r="AG12" s="128"/>
-      <c r="AH12" s="129"/>
-      <c r="AI12" s="130"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
+      <c r="W12" s="121"/>
+      <c r="X12" s="121"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="125"/>
+      <c r="AA12" s="125"/>
+      <c r="AB12" s="125"/>
+      <c r="AC12" s="125"/>
+      <c r="AD12" s="125"/>
+      <c r="AE12" s="125"/>
+      <c r="AF12" s="125"/>
+      <c r="AG12" s="127"/>
+      <c r="AH12" s="128"/>
+      <c r="AI12" s="129"/>
     </row>
     <row r="13" spans="1:35" ht="15" customHeight="1">
-      <c r="A13" s="122"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="130"/>
-      <c r="O13" s="130"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="134"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="129"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="133"/>
       <c r="R13" s="95"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="126"/>
-      <c r="Z13" s="126"/>
-      <c r="AA13" s="126"/>
-      <c r="AB13" s="126"/>
-      <c r="AC13" s="126"/>
-      <c r="AD13" s="126"/>
-      <c r="AE13" s="126"/>
-      <c r="AF13" s="126"/>
-      <c r="AG13" s="128"/>
-      <c r="AH13" s="129"/>
-      <c r="AI13" s="130"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="125"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="125"/>
+      <c r="AB13" s="125"/>
+      <c r="AC13" s="125"/>
+      <c r="AD13" s="125"/>
+      <c r="AE13" s="125"/>
+      <c r="AF13" s="125"/>
+      <c r="AG13" s="127"/>
+      <c r="AH13" s="128"/>
+      <c r="AI13" s="129"/>
     </row>
     <row r="14" spans="1:35" ht="15" customHeight="1">
-      <c r="A14" s="122"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="127"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="128"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="127"/>
       <c r="Q14" s="95"/>
       <c r="R14" s="95"/>
-      <c r="S14" s="122"/>
-      <c r="T14" s="122"/>
-      <c r="U14" s="130"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="130"/>
-      <c r="Y14" s="130"/>
-      <c r="Z14" s="130"/>
-      <c r="AA14" s="130"/>
-      <c r="AB14" s="130"/>
-      <c r="AC14" s="130"/>
-      <c r="AD14" s="130"/>
-      <c r="AE14" s="126"/>
-      <c r="AF14" s="126"/>
-      <c r="AG14" s="128"/>
-      <c r="AH14" s="129"/>
-      <c r="AI14" s="130"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="129"/>
+      <c r="V14" s="121"/>
+      <c r="W14" s="121"/>
+      <c r="X14" s="129"/>
+      <c r="Y14" s="129"/>
+      <c r="Z14" s="129"/>
+      <c r="AA14" s="129"/>
+      <c r="AB14" s="129"/>
+      <c r="AC14" s="129"/>
+      <c r="AD14" s="129"/>
+      <c r="AE14" s="125"/>
+      <c r="AF14" s="125"/>
+      <c r="AG14" s="127"/>
+      <c r="AH14" s="128"/>
+      <c r="AI14" s="129"/>
     </row>
     <row r="15" spans="1:35" ht="15" customHeight="1">
-      <c r="A15" s="122"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="161"/>
-      <c r="H15" s="126"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="160"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="95"/>
       <c r="J15" s="95"/>
       <c r="K15" s="95"/>
       <c r="L15" s="95"/>
       <c r="M15" s="95"/>
       <c r="N15" s="95"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="123"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="122"/>
       <c r="Q15" s="95"/>
       <c r="R15" s="95"/>
       <c r="S15" s="95"/>
       <c r="T15" s="95"/>
-      <c r="U15" s="126"/>
-      <c r="V15" s="126"/>
-      <c r="W15" s="126"/>
-      <c r="X15" s="126"/>
-      <c r="Y15" s="126"/>
-      <c r="Z15" s="126"/>
-      <c r="AA15" s="126"/>
-      <c r="AB15" s="126"/>
-      <c r="AC15" s="126"/>
-      <c r="AD15" s="126"/>
-      <c r="AE15" s="126"/>
-      <c r="AF15" s="126"/>
-      <c r="AG15" s="128"/>
-      <c r="AH15" s="129"/>
-      <c r="AI15" s="130"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="125"/>
+      <c r="Y15" s="125"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="125"/>
+      <c r="AB15" s="125"/>
+      <c r="AC15" s="125"/>
+      <c r="AD15" s="125"/>
+      <c r="AE15" s="125"/>
+      <c r="AF15" s="125"/>
+      <c r="AG15" s="127"/>
+      <c r="AH15" s="128"/>
+      <c r="AI15" s="129"/>
     </row>
     <row r="16" spans="1:35" ht="15" customHeight="1">
-      <c r="A16" s="122"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="95"/>
-      <c r="C16" s="132"/>
+      <c r="C16" s="131"/>
       <c r="D16" s="95"/>
       <c r="E16" s="95"/>
       <c r="F16" s="95"/>
@@ -8774,32 +8785,32 @@
       <c r="L16" s="95"/>
       <c r="M16" s="95"/>
       <c r="N16" s="95"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="123"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="122"/>
       <c r="Q16" s="95"/>
       <c r="R16" s="95"/>
       <c r="S16" s="95"/>
       <c r="T16" s="95"/>
-      <c r="U16" s="126"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="126"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="126"/>
-      <c r="Z16" s="126"/>
-      <c r="AA16" s="126"/>
-      <c r="AB16" s="126"/>
-      <c r="AC16" s="126"/>
-      <c r="AD16" s="126"/>
-      <c r="AE16" s="126"/>
-      <c r="AF16" s="126"/>
-      <c r="AG16" s="128"/>
-      <c r="AH16" s="129"/>
-      <c r="AI16" s="130"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="125"/>
+      <c r="AC16" s="125"/>
+      <c r="AD16" s="125"/>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="125"/>
+      <c r="AG16" s="127"/>
+      <c r="AH16" s="128"/>
+      <c r="AI16" s="129"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1">
-      <c r="A17" s="122"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="95"/>
-      <c r="C17" s="122"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="95"/>
       <c r="E17" s="95"/>
       <c r="F17" s="95"/>
@@ -8811,32 +8822,32 @@
       <c r="L17" s="95"/>
       <c r="M17" s="95"/>
       <c r="N17" s="95"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="123"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="122"/>
       <c r="Q17" s="95"/>
       <c r="R17" s="95"/>
       <c r="S17" s="95"/>
       <c r="T17" s="95"/>
-      <c r="U17" s="126"/>
-      <c r="V17" s="126"/>
-      <c r="W17" s="126"/>
-      <c r="X17" s="126"/>
-      <c r="Y17" s="126"/>
-      <c r="Z17" s="126"/>
-      <c r="AA17" s="126"/>
-      <c r="AB17" s="126"/>
-      <c r="AC17" s="126"/>
-      <c r="AD17" s="126"/>
-      <c r="AE17" s="126"/>
-      <c r="AF17" s="126"/>
-      <c r="AG17" s="128"/>
-      <c r="AH17" s="129"/>
-      <c r="AI17" s="130"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="125"/>
+      <c r="AD17" s="125"/>
+      <c r="AE17" s="125"/>
+      <c r="AF17" s="125"/>
+      <c r="AG17" s="127"/>
+      <c r="AH17" s="128"/>
+      <c r="AI17" s="129"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1">
-      <c r="A18" s="122"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="95"/>
-      <c r="C18" s="122"/>
+      <c r="C18" s="121"/>
       <c r="D18" s="95"/>
       <c r="E18" s="95"/>
       <c r="F18" s="95"/>
@@ -8848,32 +8859,32 @@
       <c r="L18" s="95"/>
       <c r="M18" s="95"/>
       <c r="N18" s="95"/>
-      <c r="O18" s="126"/>
-      <c r="P18" s="123"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="122"/>
       <c r="Q18" s="95"/>
       <c r="R18" s="95"/>
       <c r="S18" s="95"/>
       <c r="T18" s="95"/>
-      <c r="U18" s="126"/>
-      <c r="V18" s="126"/>
-      <c r="W18" s="126"/>
-      <c r="X18" s="126"/>
-      <c r="Y18" s="126"/>
-      <c r="Z18" s="126"/>
-      <c r="AA18" s="126"/>
-      <c r="AB18" s="126"/>
-      <c r="AC18" s="126"/>
-      <c r="AD18" s="126"/>
-      <c r="AE18" s="126"/>
-      <c r="AF18" s="126"/>
-      <c r="AG18" s="128"/>
-      <c r="AH18" s="129"/>
-      <c r="AI18" s="130"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="125"/>
+      <c r="AB18" s="125"/>
+      <c r="AC18" s="125"/>
+      <c r="AD18" s="125"/>
+      <c r="AE18" s="125"/>
+      <c r="AF18" s="125"/>
+      <c r="AG18" s="127"/>
+      <c r="AH18" s="128"/>
+      <c r="AI18" s="129"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1">
-      <c r="A19" s="122"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="95"/>
-      <c r="C19" s="122"/>
+      <c r="C19" s="121"/>
       <c r="D19" s="95"/>
       <c r="E19" s="95"/>
       <c r="F19" s="95"/>
@@ -8885,32 +8896,32 @@
       <c r="L19" s="95"/>
       <c r="M19" s="95"/>
       <c r="N19" s="95"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="123"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="122"/>
       <c r="Q19" s="95"/>
       <c r="R19" s="95"/>
       <c r="S19" s="95"/>
       <c r="T19" s="95"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="126"/>
-      <c r="Y19" s="126"/>
-      <c r="Z19" s="126"/>
-      <c r="AA19" s="126"/>
-      <c r="AB19" s="126"/>
-      <c r="AC19" s="126"/>
-      <c r="AD19" s="126"/>
-      <c r="AE19" s="126"/>
-      <c r="AF19" s="126"/>
-      <c r="AG19" s="128"/>
-      <c r="AH19" s="129"/>
-      <c r="AI19" s="130"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="125"/>
+      <c r="Y19" s="125"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="125"/>
+      <c r="AB19" s="125"/>
+      <c r="AC19" s="125"/>
+      <c r="AD19" s="125"/>
+      <c r="AE19" s="125"/>
+      <c r="AF19" s="125"/>
+      <c r="AG19" s="127"/>
+      <c r="AH19" s="128"/>
+      <c r="AI19" s="129"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1">
-      <c r="A20" s="122"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="95"/>
-      <c r="C20" s="122"/>
+      <c r="C20" s="121"/>
       <c r="D20" s="95"/>
       <c r="E20" s="95"/>
       <c r="F20" s="95"/>
@@ -8922,32 +8933,32 @@
       <c r="L20" s="95"/>
       <c r="M20" s="95"/>
       <c r="N20" s="95"/>
-      <c r="O20" s="126"/>
-      <c r="P20" s="123"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="122"/>
       <c r="Q20" s="95"/>
       <c r="R20" s="95"/>
       <c r="S20" s="95"/>
       <c r="T20" s="95"/>
-      <c r="U20" s="126"/>
-      <c r="V20" s="126"/>
-      <c r="W20" s="126"/>
-      <c r="X20" s="126"/>
-      <c r="Y20" s="126"/>
-      <c r="Z20" s="126"/>
-      <c r="AA20" s="126"/>
-      <c r="AB20" s="126"/>
-      <c r="AC20" s="126"/>
-      <c r="AD20" s="126"/>
-      <c r="AE20" s="126"/>
-      <c r="AF20" s="126"/>
-      <c r="AG20" s="128"/>
-      <c r="AH20" s="129"/>
-      <c r="AI20" s="130"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="125"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="125"/>
+      <c r="AA20" s="125"/>
+      <c r="AB20" s="125"/>
+      <c r="AC20" s="125"/>
+      <c r="AD20" s="125"/>
+      <c r="AE20" s="125"/>
+      <c r="AF20" s="125"/>
+      <c r="AG20" s="127"/>
+      <c r="AH20" s="128"/>
+      <c r="AI20" s="129"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1">
-      <c r="A21" s="122"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="95"/>
-      <c r="C21" s="122"/>
+      <c r="C21" s="121"/>
       <c r="D21" s="95"/>
       <c r="E21" s="95"/>
       <c r="F21" s="95"/>
@@ -8959,74 +8970,74 @@
       <c r="L21" s="95"/>
       <c r="M21" s="95"/>
       <c r="N21" s="95"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="123"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="122"/>
       <c r="Q21" s="95"/>
       <c r="R21" s="95"/>
       <c r="S21" s="95"/>
       <c r="T21" s="95"/>
-      <c r="U21" s="126"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="126"/>
-      <c r="Y21" s="126"/>
-      <c r="Z21" s="126"/>
-      <c r="AA21" s="126"/>
-      <c r="AB21" s="126"/>
-      <c r="AC21" s="126"/>
-      <c r="AD21" s="126"/>
-      <c r="AE21" s="126"/>
-      <c r="AF21" s="126"/>
-      <c r="AG21" s="128"/>
-      <c r="AH21" s="129"/>
-      <c r="AI21" s="130"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="125"/>
+      <c r="W21" s="125"/>
+      <c r="X21" s="125"/>
+      <c r="Y21" s="125"/>
+      <c r="Z21" s="125"/>
+      <c r="AA21" s="125"/>
+      <c r="AB21" s="125"/>
+      <c r="AC21" s="125"/>
+      <c r="AD21" s="125"/>
+      <c r="AE21" s="125"/>
+      <c r="AF21" s="125"/>
+      <c r="AG21" s="127"/>
+      <c r="AH21" s="128"/>
+      <c r="AI21" s="129"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1">
-      <c r="A22" s="122"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="126"/>
-      <c r="P22" s="123"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="126"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="122"/>
       <c r="Q22" s="95"/>
       <c r="R22" s="95"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="122"/>
-      <c r="U22" s="126"/>
-      <c r="V22" s="126"/>
-      <c r="W22" s="126"/>
-      <c r="X22" s="126"/>
-      <c r="Y22" s="126"/>
-      <c r="Z22" s="126"/>
-      <c r="AA22" s="126"/>
-      <c r="AB22" s="126"/>
-      <c r="AC22" s="126"/>
-      <c r="AD22" s="126"/>
-      <c r="AE22" s="126"/>
-      <c r="AF22" s="126"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="129"/>
-      <c r="AI22" s="130"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="125"/>
+      <c r="V22" s="125"/>
+      <c r="W22" s="125"/>
+      <c r="X22" s="125"/>
+      <c r="Y22" s="125"/>
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="125"/>
+      <c r="AB22" s="125"/>
+      <c r="AC22" s="125"/>
+      <c r="AD22" s="125"/>
+      <c r="AE22" s="125"/>
+      <c r="AF22" s="125"/>
+      <c r="AG22" s="127"/>
+      <c r="AH22" s="128"/>
+      <c r="AI22" s="129"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1">
-      <c r="A23" s="122"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="95"/>
-      <c r="C23" s="122"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="95"/>
       <c r="E23" s="95"/>
       <c r="F23" s="95"/>
       <c r="G23" s="95"/>
-      <c r="H23" s="122"/>
+      <c r="H23" s="121"/>
       <c r="I23" s="95"/>
       <c r="J23" s="95"/>
       <c r="K23" s="95"/>
@@ -9034,36 +9045,36 @@
       <c r="M23" s="95"/>
       <c r="N23" s="95"/>
       <c r="O23" s="95"/>
-      <c r="P23" s="123"/>
+      <c r="P23" s="122"/>
       <c r="Q23" s="95"/>
       <c r="R23" s="95"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
-      <c r="X23" s="126"/>
-      <c r="Y23" s="126"/>
-      <c r="Z23" s="126"/>
-      <c r="AA23" s="126"/>
-      <c r="AB23" s="126"/>
-      <c r="AC23" s="126"/>
-      <c r="AD23" s="126"/>
-      <c r="AE23" s="126"/>
-      <c r="AF23" s="126"/>
-      <c r="AG23" s="128"/>
-      <c r="AH23" s="129"/>
-      <c r="AI23" s="130"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="125"/>
+      <c r="V23" s="125"/>
+      <c r="W23" s="125"/>
+      <c r="X23" s="125"/>
+      <c r="Y23" s="125"/>
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="125"/>
+      <c r="AB23" s="125"/>
+      <c r="AC23" s="125"/>
+      <c r="AD23" s="125"/>
+      <c r="AE23" s="125"/>
+      <c r="AF23" s="125"/>
+      <c r="AG23" s="127"/>
+      <c r="AH23" s="128"/>
+      <c r="AI23" s="129"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1">
-      <c r="A24" s="122"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="95"/>
-      <c r="C24" s="122"/>
+      <c r="C24" s="121"/>
       <c r="D24" s="95"/>
       <c r="E24" s="95"/>
       <c r="F24" s="95"/>
       <c r="G24" s="95"/>
-      <c r="H24" s="122"/>
+      <c r="H24" s="121"/>
       <c r="I24" s="95"/>
       <c r="J24" s="95"/>
       <c r="K24" s="95"/>
@@ -9071,36 +9082,36 @@
       <c r="M24" s="95"/>
       <c r="N24" s="95"/>
       <c r="O24" s="95"/>
-      <c r="P24" s="123"/>
+      <c r="P24" s="122"/>
       <c r="Q24" s="95"/>
       <c r="R24" s="95"/>
-      <c r="S24" s="122"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="126"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="126"/>
-      <c r="Z24" s="126"/>
-      <c r="AA24" s="126"/>
-      <c r="AB24" s="126"/>
-      <c r="AC24" s="126"/>
-      <c r="AD24" s="126"/>
-      <c r="AE24" s="126"/>
-      <c r="AF24" s="126"/>
-      <c r="AG24" s="128"/>
-      <c r="AH24" s="129"/>
-      <c r="AI24" s="130"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="125"/>
+      <c r="W24" s="125"/>
+      <c r="X24" s="125"/>
+      <c r="Y24" s="125"/>
+      <c r="Z24" s="125"/>
+      <c r="AA24" s="125"/>
+      <c r="AB24" s="125"/>
+      <c r="AC24" s="125"/>
+      <c r="AD24" s="125"/>
+      <c r="AE24" s="125"/>
+      <c r="AF24" s="125"/>
+      <c r="AG24" s="127"/>
+      <c r="AH24" s="128"/>
+      <c r="AI24" s="129"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1">
-      <c r="A25" s="122"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="95"/>
-      <c r="C25" s="122"/>
+      <c r="C25" s="121"/>
       <c r="D25" s="95"/>
       <c r="E25" s="95"/>
       <c r="F25" s="95"/>
       <c r="G25" s="95"/>
-      <c r="H25" s="122"/>
+      <c r="H25" s="121"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
       <c r="K25" s="95"/>
@@ -9108,36 +9119,36 @@
       <c r="M25" s="95"/>
       <c r="N25" s="95"/>
       <c r="O25" s="95"/>
-      <c r="P25" s="123"/>
+      <c r="P25" s="122"/>
       <c r="Q25" s="95"/>
       <c r="R25" s="95"/>
-      <c r="S25" s="122"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="126"/>
-      <c r="V25" s="126"/>
-      <c r="W25" s="126"/>
-      <c r="X25" s="126"/>
-      <c r="Y25" s="126"/>
-      <c r="Z25" s="126"/>
-      <c r="AA25" s="126"/>
-      <c r="AB25" s="126"/>
-      <c r="AC25" s="126"/>
-      <c r="AD25" s="126"/>
-      <c r="AE25" s="126"/>
-      <c r="AF25" s="126"/>
-      <c r="AG25" s="128"/>
-      <c r="AH25" s="129"/>
-      <c r="AI25" s="130"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="125"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="125"/>
+      <c r="X25" s="125"/>
+      <c r="Y25" s="125"/>
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="125"/>
+      <c r="AB25" s="125"/>
+      <c r="AC25" s="125"/>
+      <c r="AD25" s="125"/>
+      <c r="AE25" s="125"/>
+      <c r="AF25" s="125"/>
+      <c r="AG25" s="127"/>
+      <c r="AH25" s="128"/>
+      <c r="AI25" s="129"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1">
-      <c r="A26" s="122"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="95"/>
-      <c r="C26" s="122"/>
+      <c r="C26" s="121"/>
       <c r="D26" s="95"/>
       <c r="E26" s="95"/>
       <c r="F26" s="95"/>
       <c r="G26" s="95"/>
-      <c r="H26" s="122"/>
+      <c r="H26" s="121"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
       <c r="K26" s="95"/>
@@ -9145,73 +9156,73 @@
       <c r="M26" s="95"/>
       <c r="N26" s="95"/>
       <c r="O26" s="95"/>
-      <c r="P26" s="123"/>
+      <c r="P26" s="122"/>
       <c r="Q26" s="95"/>
       <c r="R26" s="95"/>
-      <c r="S26" s="122"/>
-      <c r="T26" s="122"/>
-      <c r="U26" s="126"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="126"/>
-      <c r="Z26" s="126"/>
-      <c r="AA26" s="126"/>
-      <c r="AB26" s="126"/>
-      <c r="AC26" s="126"/>
-      <c r="AD26" s="126"/>
-      <c r="AE26" s="126"/>
-      <c r="AF26" s="126"/>
-      <c r="AG26" s="128"/>
-      <c r="AH26" s="129"/>
-      <c r="AI26" s="130"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="125"/>
+      <c r="V26" s="125"/>
+      <c r="W26" s="125"/>
+      <c r="X26" s="125"/>
+      <c r="Y26" s="125"/>
+      <c r="Z26" s="125"/>
+      <c r="AA26" s="125"/>
+      <c r="AB26" s="125"/>
+      <c r="AC26" s="125"/>
+      <c r="AD26" s="125"/>
+      <c r="AE26" s="125"/>
+      <c r="AF26" s="125"/>
+      <c r="AG26" s="127"/>
+      <c r="AH26" s="128"/>
+      <c r="AI26" s="129"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1">
-      <c r="A27" s="122"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="95"/>
-      <c r="C27" s="122"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="95"/>
       <c r="E27" s="95"/>
       <c r="F27" s="95"/>
       <c r="G27" s="95"/>
-      <c r="H27" s="122"/>
+      <c r="H27" s="121"/>
       <c r="I27" s="95"/>
       <c r="J27" s="95"/>
       <c r="K27" s="95"/>
       <c r="L27" s="95"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="127"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="126"/>
       <c r="O27" s="95"/>
-      <c r="P27" s="123"/>
+      <c r="P27" s="122"/>
       <c r="Q27" s="95"/>
       <c r="R27" s="95"/>
-      <c r="S27" s="130"/>
-      <c r="T27" s="122"/>
-      <c r="U27" s="126"/>
-      <c r="V27" s="126"/>
-      <c r="W27" s="126"/>
-      <c r="X27" s="126"/>
-      <c r="Y27" s="126"/>
-      <c r="Z27" s="126"/>
-      <c r="AA27" s="126"/>
-      <c r="AB27" s="126"/>
-      <c r="AC27" s="126"/>
-      <c r="AD27" s="126"/>
-      <c r="AE27" s="126"/>
-      <c r="AF27" s="126"/>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="129"/>
-      <c r="AI27" s="130"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="125"/>
+      <c r="V27" s="125"/>
+      <c r="W27" s="125"/>
+      <c r="X27" s="125"/>
+      <c r="Y27" s="125"/>
+      <c r="Z27" s="125"/>
+      <c r="AA27" s="125"/>
+      <c r="AB27" s="125"/>
+      <c r="AC27" s="125"/>
+      <c r="AD27" s="125"/>
+      <c r="AE27" s="125"/>
+      <c r="AF27" s="125"/>
+      <c r="AG27" s="127"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="129"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1">
-      <c r="A28" s="122"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="95"/>
-      <c r="C28" s="122"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="95"/>
       <c r="E28" s="95"/>
       <c r="F28" s="95"/>
       <c r="G28" s="95"/>
-      <c r="H28" s="122"/>
+      <c r="H28" s="121"/>
       <c r="I28" s="95"/>
       <c r="J28" s="95"/>
       <c r="K28" s="95"/>
@@ -9219,29 +9230,29 @@
       <c r="M28" s="95"/>
       <c r="N28" s="95"/>
       <c r="O28" s="95"/>
-      <c r="P28" s="123"/>
+      <c r="P28" s="122"/>
       <c r="Q28" s="95"/>
       <c r="R28" s="95"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="122"/>
-      <c r="U28" s="126"/>
-      <c r="V28" s="126"/>
-      <c r="W28" s="126"/>
-      <c r="X28" s="126"/>
-      <c r="Y28" s="126"/>
-      <c r="Z28" s="126"/>
-      <c r="AA28" s="126"/>
-      <c r="AB28" s="126"/>
-      <c r="AC28" s="126"/>
-      <c r="AD28" s="126"/>
-      <c r="AE28" s="126"/>
-      <c r="AF28" s="126"/>
-      <c r="AG28" s="128"/>
-      <c r="AH28" s="129"/>
-      <c r="AI28" s="130"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="125"/>
+      <c r="V28" s="125"/>
+      <c r="W28" s="125"/>
+      <c r="X28" s="125"/>
+      <c r="Y28" s="125"/>
+      <c r="Z28" s="125"/>
+      <c r="AA28" s="125"/>
+      <c r="AB28" s="125"/>
+      <c r="AC28" s="125"/>
+      <c r="AD28" s="125"/>
+      <c r="AE28" s="125"/>
+      <c r="AF28" s="125"/>
+      <c r="AG28" s="127"/>
+      <c r="AH28" s="128"/>
+      <c r="AI28" s="129"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1">
-      <c r="A29" s="135"/>
+      <c r="A29" s="134"/>
       <c r="B29" s="95"/>
       <c r="C29" s="95"/>
       <c r="D29" s="95"/>
@@ -9256,31 +9267,31 @@
       <c r="M29" s="95"/>
       <c r="N29" s="95"/>
       <c r="O29" s="95"/>
-      <c r="P29" s="123"/>
+      <c r="P29" s="122"/>
       <c r="Q29" s="95"/>
       <c r="R29" s="95"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="122"/>
-      <c r="U29" s="136"/>
-      <c r="V29" s="136"/>
-      <c r="W29" s="136"/>
-      <c r="X29" s="136"/>
-      <c r="Y29" s="136"/>
-      <c r="Z29" s="136"/>
-      <c r="AA29" s="136"/>
-      <c r="AB29" s="136"/>
-      <c r="AC29" s="136"/>
-      <c r="AD29" s="136"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="136"/>
-      <c r="AG29" s="137"/>
-      <c r="AH29" s="138"/>
-      <c r="AI29" s="139"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="135"/>
+      <c r="AF29" s="135"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="137"/>
+      <c r="AI29" s="138"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1">
-      <c r="A30" s="135"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="95"/>
-      <c r="C30" s="123"/>
+      <c r="C30" s="122"/>
       <c r="D30" s="95"/>
       <c r="E30" s="95"/>
       <c r="F30" s="95"/>
@@ -9293,378 +9304,378 @@
       <c r="M30" s="95"/>
       <c r="N30" s="95"/>
       <c r="O30" s="95"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="140"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="139"/>
       <c r="R30" s="95"/>
-      <c r="S30" s="141"/>
-      <c r="T30" s="126"/>
-      <c r="U30" s="136"/>
-      <c r="V30" s="136"/>
-      <c r="W30" s="136"/>
-      <c r="X30" s="136"/>
-      <c r="Y30" s="136"/>
-      <c r="Z30" s="136"/>
-      <c r="AA30" s="136"/>
-      <c r="AB30" s="136"/>
-      <c r="AC30" s="136"/>
-      <c r="AD30" s="136"/>
-      <c r="AE30" s="136"/>
-      <c r="AF30" s="136"/>
-      <c r="AG30" s="137"/>
-      <c r="AH30" s="138"/>
-      <c r="AI30" s="139"/>
+      <c r="S30" s="140"/>
+      <c r="T30" s="125"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="135"/>
+      <c r="AE30" s="135"/>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="137"/>
+      <c r="AI30" s="138"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1">
-      <c r="A31" s="135"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="142"/>
-      <c r="M31" s="142"/>
-      <c r="N31" s="142"/>
-      <c r="O31" s="142"/>
-      <c r="P31" s="144"/>
-      <c r="Q31" s="140"/>
-      <c r="R31" s="142"/>
-      <c r="S31" s="145"/>
-      <c r="T31" s="136"/>
-      <c r="U31" s="136"/>
-      <c r="V31" s="136"/>
-      <c r="W31" s="136"/>
-      <c r="X31" s="136"/>
-      <c r="Y31" s="136"/>
-      <c r="Z31" s="136"/>
-      <c r="AA31" s="136"/>
-      <c r="AB31" s="136"/>
-      <c r="AC31" s="136"/>
-      <c r="AD31" s="136"/>
-      <c r="AE31" s="136"/>
-      <c r="AF31" s="136"/>
-      <c r="AG31" s="137"/>
-      <c r="AH31" s="138"/>
-      <c r="AI31" s="139"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="143"/>
+      <c r="Q31" s="139"/>
+      <c r="R31" s="141"/>
+      <c r="S31" s="144"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="135"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="137"/>
+      <c r="AI31" s="138"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1">
-      <c r="A32" s="135"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="135"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="142"/>
-      <c r="M32" s="142"/>
-      <c r="N32" s="142"/>
-      <c r="O32" s="142"/>
-      <c r="P32" s="144"/>
-      <c r="Q32" s="140"/>
-      <c r="R32" s="142"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="135"/>
-      <c r="AB32" s="135"/>
-      <c r="AC32" s="135"/>
-      <c r="AD32" s="135"/>
-      <c r="AE32" s="136"/>
-      <c r="AF32" s="136"/>
-      <c r="AG32" s="137"/>
-      <c r="AH32" s="138"/>
-      <c r="AI32" s="139"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="141"/>
+      <c r="P32" s="143"/>
+      <c r="Q32" s="139"/>
+      <c r="R32" s="141"/>
+      <c r="S32" s="134"/>
+      <c r="T32" s="134"/>
+      <c r="U32" s="134"/>
+      <c r="V32" s="134"/>
+      <c r="W32" s="134"/>
+      <c r="X32" s="134"/>
+      <c r="Y32" s="134"/>
+      <c r="Z32" s="134"/>
+      <c r="AA32" s="134"/>
+      <c r="AB32" s="134"/>
+      <c r="AC32" s="134"/>
+      <c r="AD32" s="134"/>
+      <c r="AE32" s="135"/>
+      <c r="AF32" s="135"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="137"/>
+      <c r="AI32" s="138"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1">
-      <c r="A33" s="135"/>
-      <c r="B33" s="142"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="143"/>
-      <c r="L33" s="142"/>
-      <c r="M33" s="142"/>
-      <c r="N33" s="142"/>
-      <c r="O33" s="142"/>
-      <c r="P33" s="144"/>
-      <c r="Q33" s="140"/>
-      <c r="R33" s="142"/>
-      <c r="S33" s="145"/>
-      <c r="T33" s="136"/>
-      <c r="U33" s="136"/>
-      <c r="V33" s="136"/>
-      <c r="W33" s="136"/>
-      <c r="X33" s="136"/>
-      <c r="Y33" s="136"/>
-      <c r="Z33" s="136"/>
-      <c r="AA33" s="136"/>
-      <c r="AB33" s="136"/>
-      <c r="AC33" s="136"/>
-      <c r="AD33" s="136"/>
-      <c r="AE33" s="136"/>
-      <c r="AF33" s="136"/>
-      <c r="AG33" s="137"/>
-      <c r="AH33" s="138"/>
-      <c r="AI33" s="139"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="141"/>
+      <c r="P33" s="143"/>
+      <c r="Q33" s="139"/>
+      <c r="R33" s="141"/>
+      <c r="S33" s="144"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="135"/>
+      <c r="AF33" s="135"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="137"/>
+      <c r="AI33" s="138"/>
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1">
-      <c r="A34" s="135"/>
-      <c r="B34" s="142"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="142"/>
-      <c r="M34" s="142"/>
-      <c r="N34" s="142"/>
-      <c r="O34" s="142"/>
-      <c r="P34" s="144"/>
-      <c r="Q34" s="140"/>
-      <c r="R34" s="142"/>
-      <c r="S34" s="139"/>
-      <c r="T34" s="139"/>
-      <c r="U34" s="146"/>
-      <c r="V34" s="139"/>
-      <c r="W34" s="139"/>
-      <c r="X34" s="139"/>
-      <c r="Y34" s="139"/>
-      <c r="Z34" s="139"/>
-      <c r="AA34" s="139"/>
-      <c r="AB34" s="139"/>
-      <c r="AC34" s="139"/>
-      <c r="AD34" s="139"/>
-      <c r="AE34" s="136"/>
-      <c r="AF34" s="136"/>
-      <c r="AG34" s="137"/>
-      <c r="AH34" s="138"/>
-      <c r="AI34" s="139"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="141"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="141"/>
+      <c r="O34" s="141"/>
+      <c r="P34" s="143"/>
+      <c r="Q34" s="139"/>
+      <c r="R34" s="141"/>
+      <c r="S34" s="138"/>
+      <c r="T34" s="138"/>
+      <c r="U34" s="145"/>
+      <c r="V34" s="138"/>
+      <c r="W34" s="138"/>
+      <c r="X34" s="138"/>
+      <c r="Y34" s="138"/>
+      <c r="Z34" s="138"/>
+      <c r="AA34" s="138"/>
+      <c r="AB34" s="138"/>
+      <c r="AC34" s="138"/>
+      <c r="AD34" s="138"/>
+      <c r="AE34" s="135"/>
+      <c r="AF34" s="135"/>
+      <c r="AG34" s="136"/>
+      <c r="AH34" s="137"/>
+      <c r="AI34" s="138"/>
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1">
-      <c r="A35" s="135"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="135"/>
-      <c r="J35" s="135"/>
-      <c r="K35" s="135"/>
-      <c r="L35" s="135"/>
-      <c r="M35" s="135"/>
-      <c r="N35" s="135"/>
-      <c r="O35" s="142"/>
-      <c r="P35" s="144"/>
-      <c r="Q35" s="147"/>
-      <c r="R35" s="135"/>
-      <c r="S35" s="139"/>
-      <c r="T35" s="139"/>
-      <c r="U35" s="139"/>
-      <c r="V35" s="139"/>
-      <c r="W35" s="139"/>
-      <c r="X35" s="139"/>
-      <c r="Y35" s="139"/>
-      <c r="Z35" s="139"/>
-      <c r="AA35" s="139"/>
-      <c r="AB35" s="139"/>
-      <c r="AC35" s="139"/>
-      <c r="AD35" s="139"/>
-      <c r="AE35" s="135"/>
-      <c r="AF35" s="135"/>
-      <c r="AG35" s="135"/>
-      <c r="AH35" s="147"/>
-      <c r="AI35" s="135"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
+      <c r="N35" s="134"/>
+      <c r="O35" s="141"/>
+      <c r="P35" s="143"/>
+      <c r="Q35" s="146"/>
+      <c r="R35" s="134"/>
+      <c r="S35" s="138"/>
+      <c r="T35" s="138"/>
+      <c r="U35" s="138"/>
+      <c r="V35" s="138"/>
+      <c r="W35" s="138"/>
+      <c r="X35" s="138"/>
+      <c r="Y35" s="138"/>
+      <c r="Z35" s="138"/>
+      <c r="AA35" s="138"/>
+      <c r="AB35" s="138"/>
+      <c r="AC35" s="138"/>
+      <c r="AD35" s="138"/>
+      <c r="AE35" s="134"/>
+      <c r="AF35" s="134"/>
+      <c r="AG35" s="134"/>
+      <c r="AH35" s="146"/>
+      <c r="AI35" s="134"/>
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1">
-      <c r="B36" s="148"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="148"/>
-      <c r="M36" s="148"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="148"/>
-      <c r="P36" s="149"/>
-      <c r="S36" s="151"/>
-      <c r="T36" s="151"/>
-      <c r="U36" s="152"/>
-      <c r="V36" s="151"/>
-      <c r="W36" s="151"/>
-      <c r="X36" s="151"/>
-      <c r="Y36" s="151"/>
-      <c r="Z36" s="151"/>
-      <c r="AA36" s="151"/>
-      <c r="AB36" s="151"/>
-      <c r="AC36" s="151"/>
-      <c r="AD36" s="151"/>
-      <c r="AE36" s="153"/>
-      <c r="AF36" s="153"/>
-      <c r="AG36" s="154"/>
-      <c r="AH36" s="155"/>
-      <c r="AI36" s="151"/>
+      <c r="B36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="147"/>
+      <c r="L36" s="147"/>
+      <c r="M36" s="147"/>
+      <c r="N36" s="147"/>
+      <c r="O36" s="147"/>
+      <c r="P36" s="148"/>
+      <c r="S36" s="150"/>
+      <c r="T36" s="150"/>
+      <c r="U36" s="151"/>
+      <c r="V36" s="150"/>
+      <c r="W36" s="150"/>
+      <c r="X36" s="150"/>
+      <c r="Y36" s="150"/>
+      <c r="Z36" s="150"/>
+      <c r="AA36" s="150"/>
+      <c r="AB36" s="150"/>
+      <c r="AC36" s="150"/>
+      <c r="AD36" s="150"/>
+      <c r="AE36" s="152"/>
+      <c r="AF36" s="152"/>
+      <c r="AG36" s="153"/>
+      <c r="AH36" s="154"/>
+      <c r="AI36" s="150"/>
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1">
-      <c r="S37" s="151"/>
-      <c r="T37" s="151"/>
-      <c r="U37" s="152"/>
-      <c r="V37" s="151"/>
-      <c r="W37" s="151"/>
-      <c r="X37" s="151"/>
-      <c r="Y37" s="151"/>
-      <c r="Z37" s="151"/>
-      <c r="AA37" s="151"/>
-      <c r="AB37" s="151"/>
-      <c r="AC37" s="151"/>
-      <c r="AD37" s="151"/>
-      <c r="AE37" s="151"/>
-      <c r="AF37" s="156"/>
-      <c r="AG37" s="157"/>
-      <c r="AH37" s="158"/>
-      <c r="AI37" s="151"/>
+      <c r="S37" s="150"/>
+      <c r="T37" s="150"/>
+      <c r="U37" s="151"/>
+      <c r="V37" s="150"/>
+      <c r="W37" s="150"/>
+      <c r="X37" s="150"/>
+      <c r="Y37" s="150"/>
+      <c r="Z37" s="150"/>
+      <c r="AA37" s="150"/>
+      <c r="AB37" s="150"/>
+      <c r="AC37" s="150"/>
+      <c r="AD37" s="150"/>
+      <c r="AE37" s="150"/>
+      <c r="AF37" s="155"/>
+      <c r="AG37" s="156"/>
+      <c r="AH37" s="157"/>
+      <c r="AI37" s="150"/>
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1">
-      <c r="Q38" s="159"/>
-      <c r="S38" s="151"/>
-      <c r="T38" s="152"/>
-      <c r="U38" s="151"/>
-      <c r="V38" s="151"/>
-      <c r="W38" s="151"/>
-      <c r="X38" s="151"/>
-      <c r="Y38" s="151"/>
-      <c r="Z38" s="151"/>
-      <c r="AA38" s="151"/>
-      <c r="AB38" s="151"/>
-      <c r="AC38" s="151"/>
-      <c r="AD38" s="151"/>
-      <c r="AE38" s="151"/>
-      <c r="AF38" s="156"/>
-      <c r="AG38" s="156"/>
-      <c r="AH38" s="158"/>
-      <c r="AI38" s="151"/>
+      <c r="Q38" s="158"/>
+      <c r="S38" s="150"/>
+      <c r="T38" s="151"/>
+      <c r="U38" s="150"/>
+      <c r="V38" s="150"/>
+      <c r="W38" s="150"/>
+      <c r="X38" s="150"/>
+      <c r="Y38" s="150"/>
+      <c r="Z38" s="150"/>
+      <c r="AA38" s="150"/>
+      <c r="AB38" s="150"/>
+      <c r="AC38" s="150"/>
+      <c r="AD38" s="150"/>
+      <c r="AE38" s="150"/>
+      <c r="AF38" s="155"/>
+      <c r="AG38" s="155"/>
+      <c r="AH38" s="157"/>
+      <c r="AI38" s="150"/>
     </row>
     <row r="39" spans="1:35" ht="15" customHeight="1">
-      <c r="S39" s="151"/>
-      <c r="T39" s="151"/>
-      <c r="U39" s="151"/>
-      <c r="V39" s="151"/>
-      <c r="W39" s="151"/>
-      <c r="X39" s="151"/>
-      <c r="Y39" s="151"/>
-      <c r="Z39" s="151"/>
-      <c r="AA39" s="151"/>
-      <c r="AB39" s="151"/>
-      <c r="AC39" s="151"/>
-      <c r="AD39" s="151"/>
-      <c r="AE39" s="151"/>
-      <c r="AF39" s="151"/>
-      <c r="AG39" s="157"/>
-      <c r="AH39" s="158"/>
-      <c r="AI39" s="151"/>
+      <c r="S39" s="150"/>
+      <c r="T39" s="150"/>
+      <c r="U39" s="150"/>
+      <c r="V39" s="150"/>
+      <c r="W39" s="150"/>
+      <c r="X39" s="150"/>
+      <c r="Y39" s="150"/>
+      <c r="Z39" s="150"/>
+      <c r="AA39" s="150"/>
+      <c r="AB39" s="150"/>
+      <c r="AC39" s="150"/>
+      <c r="AD39" s="150"/>
+      <c r="AE39" s="150"/>
+      <c r="AF39" s="150"/>
+      <c r="AG39" s="156"/>
+      <c r="AH39" s="157"/>
+      <c r="AI39" s="150"/>
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1">
-      <c r="J40" s="148"/>
-      <c r="K40" s="148"/>
-      <c r="L40" s="148"/>
-      <c r="M40" s="148"/>
-      <c r="N40" s="148"/>
-      <c r="O40" s="148"/>
-      <c r="P40" s="148"/>
-      <c r="AE40" s="151"/>
-      <c r="AF40" s="151"/>
-      <c r="AG40" s="157"/>
-      <c r="AH40" s="158"/>
-      <c r="AI40" s="151"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="147"/>
+      <c r="O40" s="147"/>
+      <c r="P40" s="147"/>
+      <c r="AE40" s="150"/>
+      <c r="AF40" s="150"/>
+      <c r="AG40" s="156"/>
+      <c r="AH40" s="157"/>
+      <c r="AI40" s="150"/>
     </row>
     <row r="41" spans="1:35" ht="15" customHeight="1">
-      <c r="AE41" s="151"/>
-      <c r="AF41" s="156"/>
-      <c r="AG41" s="157"/>
-      <c r="AH41" s="158"/>
-      <c r="AI41" s="151"/>
+      <c r="AE41" s="150"/>
+      <c r="AF41" s="155"/>
+      <c r="AG41" s="156"/>
+      <c r="AH41" s="157"/>
+      <c r="AI41" s="150"/>
     </row>
     <row r="42" spans="1:35" ht="15" customHeight="1">
-      <c r="AE42" s="151"/>
-      <c r="AF42" s="156"/>
-      <c r="AG42" s="156"/>
-      <c r="AH42" s="158"/>
-      <c r="AI42" s="151"/>
+      <c r="AE42" s="150"/>
+      <c r="AF42" s="155"/>
+      <c r="AG42" s="155"/>
+      <c r="AH42" s="157"/>
+      <c r="AI42" s="150"/>
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1">
-      <c r="A43" s="148"/>
-      <c r="AF43" s="160"/>
-      <c r="AG43" s="160"/>
+      <c r="A43" s="147"/>
+      <c r="AF43" s="159"/>
+      <c r="AG43" s="159"/>
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1">
-      <c r="A44" s="148"/>
-      <c r="AG44" s="160"/>
+      <c r="A44" s="147"/>
+      <c r="AG44" s="159"/>
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1">
-      <c r="AF45" s="160"/>
-      <c r="AG45" s="160"/>
+      <c r="AF45" s="159"/>
+      <c r="AG45" s="159"/>
     </row>
     <row r="46" spans="1:35" ht="15" customHeight="1">
-      <c r="AG46" s="160"/>
+      <c r="AG46" s="159"/>
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1">
-      <c r="S47" s="148"/>
-      <c r="T47" s="148"/>
-      <c r="V47" s="148"/>
-      <c r="W47" s="148"/>
-      <c r="X47" s="148"/>
-      <c r="Y47" s="148"/>
-      <c r="Z47" s="148"/>
-      <c r="AA47" s="148"/>
-      <c r="AB47" s="148"/>
-      <c r="AC47" s="148"/>
-      <c r="AD47" s="148"/>
+      <c r="S47" s="147"/>
+      <c r="T47" s="147"/>
+      <c r="V47" s="147"/>
+      <c r="W47" s="147"/>
+      <c r="X47" s="147"/>
+      <c r="Y47" s="147"/>
+      <c r="Z47" s="147"/>
+      <c r="AA47" s="147"/>
+      <c r="AB47" s="147"/>
+      <c r="AC47" s="147"/>
+      <c r="AD47" s="147"/>
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1">
-      <c r="R48" s="148"/>
-      <c r="S48" s="148"/>
-      <c r="T48" s="148"/>
-      <c r="V48" s="148"/>
-      <c r="W48" s="148"/>
-      <c r="X48" s="148"/>
-      <c r="Y48" s="148"/>
-      <c r="Z48" s="148"/>
-      <c r="AA48" s="148"/>
-      <c r="AB48" s="148"/>
-      <c r="AC48" s="148"/>
-      <c r="AD48" s="148"/>
-      <c r="AG48" s="160"/>
+      <c r="R48" s="147"/>
+      <c r="S48" s="147"/>
+      <c r="T48" s="147"/>
+      <c r="V48" s="147"/>
+      <c r="W48" s="147"/>
+      <c r="X48" s="147"/>
+      <c r="Y48" s="147"/>
+      <c r="Z48" s="147"/>
+      <c r="AA48" s="147"/>
+      <c r="AB48" s="147"/>
+      <c r="AC48" s="147"/>
+      <c r="AD48" s="147"/>
+      <c r="AG48" s="159"/>
     </row>
     <row r="49" spans="1:34" ht="15" customHeight="1">
-      <c r="R49" s="148"/>
-    </row>
-    <row r="50" spans="1:34" s="148" customFormat="1" ht="15" customHeight="1">
+      <c r="R49" s="147"/>
+    </row>
+    <row r="50" spans="1:34" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="78"/>
       <c r="B50" s="78"/>
       <c r="C50" s="78"/>
@@ -9681,7 +9692,7 @@
       <c r="N50" s="78"/>
       <c r="O50" s="78"/>
       <c r="P50" s="78"/>
-      <c r="Q50" s="150"/>
+      <c r="Q50" s="149"/>
       <c r="R50" s="78"/>
       <c r="S50" s="78"/>
       <c r="T50" s="78"/>
@@ -9695,9 +9706,9 @@
       <c r="AB50" s="78"/>
       <c r="AC50" s="78"/>
       <c r="AD50" s="78"/>
-      <c r="AH50" s="159"/>
-    </row>
-    <row r="51" spans="1:34" s="148" customFormat="1" ht="15" customHeight="1">
+      <c r="AH50" s="158"/>
+    </row>
+    <row r="51" spans="1:34" s="147" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="78"/>
       <c r="B51" s="78"/>
       <c r="C51" s="78"/>
@@ -9714,7 +9725,7 @@
       <c r="N51" s="78"/>
       <c r="O51" s="78"/>
       <c r="P51" s="78"/>
-      <c r="Q51" s="150"/>
+      <c r="Q51" s="149"/>
       <c r="R51" s="78"/>
       <c r="S51" s="78"/>
       <c r="T51" s="78"/>
@@ -9728,7 +9739,7 @@
       <c r="AB51" s="78"/>
       <c r="AC51" s="78"/>
       <c r="AD51" s="78"/>
-      <c r="AH51" s="159"/>
+      <c r="AH51" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -9937,8 +9948,8 @@
       <c r="AI4" s="64"/>
     </row>
     <row r="5" spans="1:35" s="73" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A5" s="161" t="s">
-        <v>98</v>
+      <c r="A5" s="160" t="s">
+        <v>95</v>
       </c>
       <c r="B5" s="102"/>
       <c r="C5" s="111"/>
@@ -11760,17 +11771,17 @@
       <c r="P1" s="178"/>
       <c r="Q1" s="178"/>
       <c r="R1" s="179"/>
-      <c r="S1" s="297" t="str">
+      <c r="S1" s="295" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="298"/>
-      <c r="U1" s="298"/>
-      <c r="V1" s="298"/>
-      <c r="W1" s="298"/>
-      <c r="X1" s="298"/>
-      <c r="Y1" s="298"/>
-      <c r="Z1" s="299"/>
+      <c r="T1" s="296"/>
+      <c r="U1" s="296"/>
+      <c r="V1" s="296"/>
+      <c r="W1" s="296"/>
+      <c r="X1" s="296"/>
+      <c r="Y1" s="296"/>
+      <c r="Z1" s="297"/>
       <c r="AA1" s="174" t="s">
         <v>66</v>
       </c>
@@ -11782,12 +11793,12 @@
       <c r="AD1" s="199"/>
       <c r="AE1" s="199"/>
       <c r="AF1" s="200"/>
-      <c r="AG1" s="294" t="str">
+      <c r="AG1" s="292" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="295"/>
-      <c r="AI1" s="296"/>
+      <c r="AH1" s="293"/>
+      <c r="AI1" s="294"/>
     </row>
     <row r="2" spans="1:47" s="11" customFormat="1">
       <c r="A2" s="174" t="s">
@@ -11813,14 +11824,14 @@
       <c r="P2" s="181"/>
       <c r="Q2" s="181"/>
       <c r="R2" s="182"/>
-      <c r="S2" s="300"/>
-      <c r="T2" s="301"/>
-      <c r="U2" s="301"/>
-      <c r="V2" s="301"/>
-      <c r="W2" s="301"/>
-      <c r="X2" s="301"/>
-      <c r="Y2" s="301"/>
-      <c r="Z2" s="302"/>
+      <c r="S2" s="298"/>
+      <c r="T2" s="299"/>
+      <c r="U2" s="299"/>
+      <c r="V2" s="299"/>
+      <c r="W2" s="299"/>
+      <c r="X2" s="299"/>
+      <c r="Y2" s="299"/>
+      <c r="Z2" s="300"/>
       <c r="AA2" s="174" t="s">
         <v>67</v>
       </c>
@@ -11832,12 +11843,12 @@
       <c r="AD2" s="199"/>
       <c r="AE2" s="199"/>
       <c r="AF2" s="200"/>
-      <c r="AG2" s="294" t="str">
+      <c r="AG2" s="292" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="295"/>
-      <c r="AI2" s="296"/>
+      <c r="AH2" s="293"/>
+      <c r="AI2" s="294"/>
     </row>
     <row r="3" spans="1:47" s="11" customFormat="1">
       <c r="A3" s="174" t="s">
@@ -11863,14 +11874,14 @@
       <c r="P3" s="184"/>
       <c r="Q3" s="184"/>
       <c r="R3" s="185"/>
-      <c r="S3" s="303"/>
-      <c r="T3" s="304"/>
-      <c r="U3" s="304"/>
-      <c r="V3" s="304"/>
-      <c r="W3" s="304"/>
-      <c r="X3" s="304"/>
-      <c r="Y3" s="304"/>
-      <c r="Z3" s="305"/>
+      <c r="S3" s="301"/>
+      <c r="T3" s="302"/>
+      <c r="U3" s="302"/>
+      <c r="V3" s="302"/>
+      <c r="W3" s="302"/>
+      <c r="X3" s="302"/>
+      <c r="Y3" s="302"/>
+      <c r="Z3" s="303"/>
       <c r="AA3" s="174"/>
       <c r="AB3" s="176"/>
       <c r="AC3" s="198" t="str">
@@ -11880,12 +11891,12 @@
       <c r="AD3" s="199"/>
       <c r="AE3" s="199"/>
       <c r="AF3" s="200"/>
-      <c r="AG3" s="294" t="str">
+      <c r="AG3" s="292" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="295"/>
-      <c r="AI3" s="296"/>
+      <c r="AH3" s="293"/>
+      <c r="AI3" s="294"/>
     </row>
     <row r="4" spans="1:47" s="11" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="55"/>
@@ -12011,458 +12022,458 @@
       <c r="A7" s="288" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="291"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
-      <c r="F7" s="291"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="291"/>
-      <c r="J7" s="291"/>
-      <c r="K7" s="291"/>
-      <c r="L7" s="291"/>
-      <c r="M7" s="291"/>
-      <c r="N7" s="291"/>
-      <c r="O7" s="291"/>
-      <c r="P7" s="291"/>
-      <c r="Q7" s="291"/>
-      <c r="R7" s="291"/>
-      <c r="S7" s="291"/>
-      <c r="T7" s="291"/>
-      <c r="U7" s="291"/>
-      <c r="V7" s="291"/>
-      <c r="W7" s="291"/>
-      <c r="X7" s="291"/>
-      <c r="Y7" s="291"/>
-      <c r="Z7" s="291"/>
-      <c r="AA7" s="291"/>
-      <c r="AB7" s="292"/>
-      <c r="AC7" s="309" t="s">
+      <c r="B7" s="289"/>
+      <c r="C7" s="289"/>
+      <c r="D7" s="289"/>
+      <c r="E7" s="289"/>
+      <c r="F7" s="289"/>
+      <c r="G7" s="289"/>
+      <c r="H7" s="289"/>
+      <c r="I7" s="289"/>
+      <c r="J7" s="289"/>
+      <c r="K7" s="289"/>
+      <c r="L7" s="289"/>
+      <c r="M7" s="289"/>
+      <c r="N7" s="289"/>
+      <c r="O7" s="289"/>
+      <c r="P7" s="289"/>
+      <c r="Q7" s="289"/>
+      <c r="R7" s="289"/>
+      <c r="S7" s="289"/>
+      <c r="T7" s="289"/>
+      <c r="U7" s="289"/>
+      <c r="V7" s="289"/>
+      <c r="W7" s="289"/>
+      <c r="X7" s="289"/>
+      <c r="Y7" s="289"/>
+      <c r="Z7" s="289"/>
+      <c r="AA7" s="289"/>
+      <c r="AB7" s="290"/>
+      <c r="AC7" s="304" t="s">
         <v>52</v>
       </c>
-      <c r="AD7" s="291"/>
-      <c r="AE7" s="291"/>
-      <c r="AF7" s="291"/>
-      <c r="AG7" s="291"/>
-      <c r="AH7" s="291"/>
-      <c r="AI7" s="293"/>
-    </row>
-    <row r="8" spans="1:47">
-      <c r="A8" s="118" t="s">
+      <c r="AD7" s="289"/>
+      <c r="AE7" s="289"/>
+      <c r="AF7" s="289"/>
+      <c r="AG7" s="289"/>
+      <c r="AH7" s="289"/>
+      <c r="AI7" s="291"/>
+    </row>
+    <row r="8" spans="1:47" s="387" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A8" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="288" t="s">
+      <c r="B8" s="379" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="289"/>
-      <c r="D8" s="289"/>
-      <c r="E8" s="289"/>
-      <c r="F8" s="290"/>
-      <c r="G8" s="288" t="s">
+      <c r="C8" s="218"/>
+      <c r="D8" s="218"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="379" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="291"/>
-      <c r="I8" s="293"/>
-      <c r="J8" s="288" t="s">
+      <c r="H8" s="380"/>
+      <c r="I8" s="381"/>
+      <c r="J8" s="379" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="291"/>
-      <c r="L8" s="291"/>
-      <c r="M8" s="291"/>
-      <c r="N8" s="291"/>
-      <c r="O8" s="291"/>
-      <c r="P8" s="293"/>
-      <c r="Q8" s="306" t="s">
-        <v>95</v>
-      </c>
-      <c r="R8" s="308"/>
-      <c r="S8" s="306" t="s">
+      <c r="K8" s="380"/>
+      <c r="L8" s="380"/>
+      <c r="M8" s="380"/>
+      <c r="N8" s="380"/>
+      <c r="O8" s="380"/>
+      <c r="P8" s="381"/>
+      <c r="Q8" s="310" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="382"/>
+      <c r="S8" s="310" t="s">
         <v>82</v>
       </c>
-      <c r="T8" s="307"/>
-      <c r="U8" s="308"/>
-      <c r="V8" s="288" t="s">
+      <c r="T8" s="383"/>
+      <c r="U8" s="382"/>
+      <c r="V8" s="379" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="291"/>
-      <c r="X8" s="291"/>
-      <c r="Y8" s="291"/>
-      <c r="Z8" s="291"/>
-      <c r="AA8" s="291"/>
-      <c r="AB8" s="292"/>
-      <c r="AC8" s="310" t="s">
+      <c r="W8" s="380"/>
+      <c r="X8" s="380"/>
+      <c r="Y8" s="380"/>
+      <c r="Z8" s="380"/>
+      <c r="AA8" s="380"/>
+      <c r="AB8" s="384"/>
+      <c r="AC8" s="385" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="311"/>
-      <c r="AE8" s="311"/>
-      <c r="AF8" s="311"/>
-      <c r="AG8" s="311"/>
-      <c r="AH8" s="357" t="s">
+      <c r="AD8" s="386"/>
+      <c r="AE8" s="386"/>
+      <c r="AF8" s="386"/>
+      <c r="AG8" s="386"/>
+      <c r="AH8" s="351" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI8" s="351"/>
+    </row>
+    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="164">
+        <v>1</v>
+      </c>
+      <c r="B9" s="346"/>
+      <c r="C9" s="347"/>
+      <c r="D9" s="347"/>
+      <c r="E9" s="347"/>
+      <c r="F9" s="350"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="318"/>
+      <c r="I9" s="319"/>
+      <c r="J9" s="346"/>
+      <c r="K9" s="347"/>
+      <c r="L9" s="347"/>
+      <c r="M9" s="347"/>
+      <c r="N9" s="347"/>
+      <c r="O9" s="347"/>
+      <c r="P9" s="350"/>
+      <c r="Q9" s="312"/>
+      <c r="R9" s="313"/>
+      <c r="S9" s="312"/>
+      <c r="T9" s="349"/>
+      <c r="U9" s="313"/>
+      <c r="V9" s="346"/>
+      <c r="W9" s="347"/>
+      <c r="X9" s="347"/>
+      <c r="Y9" s="347"/>
+      <c r="Z9" s="347"/>
+      <c r="AA9" s="347"/>
+      <c r="AB9" s="348"/>
+      <c r="AC9" s="341" t="s">
         <v>83</v>
       </c>
-      <c r="AI8" s="357"/>
-    </row>
-    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="165">
-        <v>1</v>
-      </c>
-      <c r="B9" s="352"/>
-      <c r="C9" s="353"/>
-      <c r="D9" s="353"/>
-      <c r="E9" s="353"/>
-      <c r="F9" s="356"/>
-      <c r="G9" s="323"/>
-      <c r="H9" s="324"/>
-      <c r="I9" s="325"/>
-      <c r="J9" s="352"/>
-      <c r="K9" s="353"/>
-      <c r="L9" s="353"/>
-      <c r="M9" s="353"/>
-      <c r="N9" s="353"/>
-      <c r="O9" s="353"/>
-      <c r="P9" s="356"/>
-      <c r="Q9" s="318"/>
-      <c r="R9" s="319"/>
-      <c r="S9" s="318"/>
-      <c r="T9" s="355"/>
-      <c r="U9" s="319"/>
-      <c r="V9" s="352"/>
-      <c r="W9" s="353"/>
-      <c r="X9" s="353"/>
-      <c r="Y9" s="353"/>
-      <c r="Z9" s="353"/>
-      <c r="AA9" s="353"/>
-      <c r="AB9" s="354"/>
-      <c r="AC9" s="347" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD9" s="352"/>
-      <c r="AE9" s="353"/>
-      <c r="AF9" s="353"/>
-      <c r="AG9" s="356"/>
-      <c r="AH9" s="361"/>
-      <c r="AI9" s="362"/>
+      <c r="AD9" s="346"/>
+      <c r="AE9" s="347"/>
+      <c r="AF9" s="347"/>
+      <c r="AG9" s="350"/>
+      <c r="AH9" s="355"/>
+      <c r="AI9" s="356"/>
     </row>
     <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="165">
+      <c r="A10" s="164">
         <v>2</v>
       </c>
-      <c r="B10" s="314"/>
-      <c r="C10" s="315"/>
-      <c r="D10" s="315"/>
-      <c r="E10" s="315"/>
-      <c r="F10" s="316"/>
-      <c r="G10" s="320"/>
-      <c r="H10" s="321"/>
-      <c r="I10" s="322"/>
-      <c r="J10" s="314"/>
-      <c r="K10" s="315"/>
-      <c r="L10" s="315"/>
-      <c r="M10" s="315"/>
-      <c r="N10" s="315"/>
-      <c r="O10" s="315"/>
-      <c r="P10" s="316"/>
-      <c r="Q10" s="312"/>
-      <c r="R10" s="313"/>
-      <c r="S10" s="312"/>
-      <c r="T10" s="317"/>
-      <c r="U10" s="313"/>
-      <c r="V10" s="314"/>
-      <c r="W10" s="315"/>
-      <c r="X10" s="315"/>
-      <c r="Y10" s="315"/>
-      <c r="Z10" s="315"/>
-      <c r="AA10" s="315"/>
-      <c r="AB10" s="329"/>
-      <c r="AC10" s="348"/>
-      <c r="AD10" s="314"/>
-      <c r="AE10" s="315"/>
-      <c r="AF10" s="315"/>
-      <c r="AG10" s="316"/>
-      <c r="AH10" s="350"/>
-      <c r="AI10" s="351"/>
+      <c r="B10" s="307"/>
+      <c r="C10" s="308"/>
+      <c r="D10" s="308"/>
+      <c r="E10" s="308"/>
+      <c r="F10" s="309"/>
+      <c r="G10" s="314"/>
+      <c r="H10" s="315"/>
+      <c r="I10" s="316"/>
+      <c r="J10" s="307"/>
+      <c r="K10" s="308"/>
+      <c r="L10" s="308"/>
+      <c r="M10" s="308"/>
+      <c r="N10" s="308"/>
+      <c r="O10" s="308"/>
+      <c r="P10" s="309"/>
+      <c r="Q10" s="305"/>
+      <c r="R10" s="306"/>
+      <c r="S10" s="305"/>
+      <c r="T10" s="311"/>
+      <c r="U10" s="306"/>
+      <c r="V10" s="307"/>
+      <c r="W10" s="308"/>
+      <c r="X10" s="308"/>
+      <c r="Y10" s="308"/>
+      <c r="Z10" s="308"/>
+      <c r="AA10" s="308"/>
+      <c r="AB10" s="323"/>
+      <c r="AC10" s="342"/>
+      <c r="AD10" s="307"/>
+      <c r="AE10" s="308"/>
+      <c r="AF10" s="308"/>
+      <c r="AG10" s="309"/>
+      <c r="AH10" s="344"/>
+      <c r="AI10" s="345"/>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="165">
+      <c r="A11" s="164">
         <v>3</v>
       </c>
-      <c r="B11" s="314"/>
-      <c r="C11" s="315"/>
-      <c r="D11" s="315"/>
-      <c r="E11" s="315"/>
-      <c r="F11" s="316"/>
-      <c r="G11" s="320"/>
-      <c r="H11" s="321"/>
-      <c r="I11" s="322"/>
-      <c r="J11" s="314"/>
-      <c r="K11" s="315"/>
-      <c r="L11" s="315"/>
-      <c r="M11" s="315"/>
-      <c r="N11" s="315"/>
-      <c r="O11" s="315"/>
-      <c r="P11" s="316"/>
-      <c r="Q11" s="312"/>
-      <c r="R11" s="313"/>
-      <c r="S11" s="312"/>
-      <c r="T11" s="317"/>
-      <c r="U11" s="313"/>
-      <c r="V11" s="314"/>
-      <c r="W11" s="315"/>
-      <c r="X11" s="315"/>
-      <c r="Y11" s="315"/>
-      <c r="Z11" s="315"/>
-      <c r="AA11" s="315"/>
-      <c r="AB11" s="329"/>
-      <c r="AC11" s="348"/>
-      <c r="AD11" s="314"/>
-      <c r="AE11" s="315"/>
-      <c r="AF11" s="315"/>
-      <c r="AG11" s="316"/>
-      <c r="AH11" s="350"/>
-      <c r="AI11" s="351"/>
+      <c r="B11" s="307"/>
+      <c r="C11" s="308"/>
+      <c r="D11" s="308"/>
+      <c r="E11" s="308"/>
+      <c r="F11" s="309"/>
+      <c r="G11" s="314"/>
+      <c r="H11" s="315"/>
+      <c r="I11" s="316"/>
+      <c r="J11" s="307"/>
+      <c r="K11" s="308"/>
+      <c r="L11" s="308"/>
+      <c r="M11" s="308"/>
+      <c r="N11" s="308"/>
+      <c r="O11" s="308"/>
+      <c r="P11" s="309"/>
+      <c r="Q11" s="305"/>
+      <c r="R11" s="306"/>
+      <c r="S11" s="305"/>
+      <c r="T11" s="311"/>
+      <c r="U11" s="306"/>
+      <c r="V11" s="307"/>
+      <c r="W11" s="308"/>
+      <c r="X11" s="308"/>
+      <c r="Y11" s="308"/>
+      <c r="Z11" s="308"/>
+      <c r="AA11" s="308"/>
+      <c r="AB11" s="323"/>
+      <c r="AC11" s="342"/>
+      <c r="AD11" s="307"/>
+      <c r="AE11" s="308"/>
+      <c r="AF11" s="308"/>
+      <c r="AG11" s="309"/>
+      <c r="AH11" s="344"/>
+      <c r="AI11" s="345"/>
     </row>
     <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="165">
+      <c r="A12" s="164">
         <v>4</v>
       </c>
-      <c r="B12" s="314"/>
-      <c r="C12" s="315"/>
-      <c r="D12" s="315"/>
-      <c r="E12" s="315"/>
-      <c r="F12" s="316"/>
-      <c r="G12" s="320"/>
-      <c r="H12" s="321"/>
-      <c r="I12" s="322"/>
-      <c r="J12" s="314"/>
-      <c r="K12" s="315"/>
-      <c r="L12" s="315"/>
-      <c r="M12" s="315"/>
-      <c r="N12" s="315"/>
-      <c r="O12" s="315"/>
-      <c r="P12" s="316"/>
-      <c r="Q12" s="312"/>
-      <c r="R12" s="313"/>
-      <c r="S12" s="312"/>
-      <c r="T12" s="317"/>
-      <c r="U12" s="313"/>
-      <c r="V12" s="314"/>
-      <c r="W12" s="315"/>
-      <c r="X12" s="315"/>
-      <c r="Y12" s="315"/>
-      <c r="Z12" s="315"/>
-      <c r="AA12" s="315"/>
-      <c r="AB12" s="329"/>
-      <c r="AC12" s="348"/>
-      <c r="AD12" s="314"/>
-      <c r="AE12" s="315"/>
-      <c r="AF12" s="315"/>
-      <c r="AG12" s="316"/>
-      <c r="AH12" s="350"/>
-      <c r="AI12" s="351"/>
+      <c r="B12" s="307"/>
+      <c r="C12" s="308"/>
+      <c r="D12" s="308"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="309"/>
+      <c r="G12" s="314"/>
+      <c r="H12" s="315"/>
+      <c r="I12" s="316"/>
+      <c r="J12" s="307"/>
+      <c r="K12" s="308"/>
+      <c r="L12" s="308"/>
+      <c r="M12" s="308"/>
+      <c r="N12" s="308"/>
+      <c r="O12" s="308"/>
+      <c r="P12" s="309"/>
+      <c r="Q12" s="305"/>
+      <c r="R12" s="306"/>
+      <c r="S12" s="305"/>
+      <c r="T12" s="311"/>
+      <c r="U12" s="306"/>
+      <c r="V12" s="307"/>
+      <c r="W12" s="308"/>
+      <c r="X12" s="308"/>
+      <c r="Y12" s="308"/>
+      <c r="Z12" s="308"/>
+      <c r="AA12" s="308"/>
+      <c r="AB12" s="323"/>
+      <c r="AC12" s="342"/>
+      <c r="AD12" s="307"/>
+      <c r="AE12" s="308"/>
+      <c r="AF12" s="308"/>
+      <c r="AG12" s="309"/>
+      <c r="AH12" s="344"/>
+      <c r="AI12" s="345"/>
     </row>
     <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="165">
+      <c r="A13" s="164">
         <v>5</v>
       </c>
-      <c r="B13" s="339"/>
-      <c r="C13" s="340"/>
-      <c r="D13" s="340"/>
-      <c r="E13" s="340"/>
-      <c r="F13" s="341"/>
-      <c r="G13" s="314"/>
-      <c r="H13" s="315"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="314"/>
-      <c r="K13" s="315"/>
-      <c r="L13" s="315"/>
-      <c r="M13" s="315"/>
-      <c r="N13" s="315"/>
-      <c r="O13" s="315"/>
-      <c r="P13" s="316"/>
-      <c r="Q13" s="312"/>
-      <c r="R13" s="313"/>
-      <c r="S13" s="312"/>
-      <c r="T13" s="317"/>
-      <c r="U13" s="313"/>
-      <c r="V13" s="314"/>
-      <c r="W13" s="315"/>
-      <c r="X13" s="315"/>
-      <c r="Y13" s="315"/>
-      <c r="Z13" s="315"/>
-      <c r="AA13" s="315"/>
-      <c r="AB13" s="329"/>
-      <c r="AC13" s="348"/>
-      <c r="AD13" s="314"/>
-      <c r="AE13" s="315"/>
-      <c r="AF13" s="315"/>
-      <c r="AG13" s="316"/>
-      <c r="AH13" s="350"/>
-      <c r="AI13" s="351"/>
+      <c r="B13" s="333"/>
+      <c r="C13" s="334"/>
+      <c r="D13" s="334"/>
+      <c r="E13" s="334"/>
+      <c r="F13" s="335"/>
+      <c r="G13" s="307"/>
+      <c r="H13" s="308"/>
+      <c r="I13" s="309"/>
+      <c r="J13" s="307"/>
+      <c r="K13" s="308"/>
+      <c r="L13" s="308"/>
+      <c r="M13" s="308"/>
+      <c r="N13" s="308"/>
+      <c r="O13" s="308"/>
+      <c r="P13" s="309"/>
+      <c r="Q13" s="305"/>
+      <c r="R13" s="306"/>
+      <c r="S13" s="305"/>
+      <c r="T13" s="311"/>
+      <c r="U13" s="306"/>
+      <c r="V13" s="307"/>
+      <c r="W13" s="308"/>
+      <c r="X13" s="308"/>
+      <c r="Y13" s="308"/>
+      <c r="Z13" s="308"/>
+      <c r="AA13" s="308"/>
+      <c r="AB13" s="323"/>
+      <c r="AC13" s="342"/>
+      <c r="AD13" s="307"/>
+      <c r="AE13" s="308"/>
+      <c r="AF13" s="308"/>
+      <c r="AG13" s="309"/>
+      <c r="AH13" s="344"/>
+      <c r="AI13" s="345"/>
     </row>
     <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="165">
+      <c r="A14" s="164">
         <v>6</v>
       </c>
-      <c r="B14" s="339"/>
-      <c r="C14" s="340"/>
-      <c r="D14" s="340"/>
-      <c r="E14" s="340"/>
-      <c r="F14" s="341"/>
-      <c r="G14" s="314"/>
-      <c r="H14" s="315"/>
-      <c r="I14" s="316"/>
-      <c r="J14" s="314"/>
-      <c r="K14" s="315"/>
-      <c r="L14" s="315"/>
-      <c r="M14" s="315"/>
-      <c r="N14" s="315"/>
-      <c r="O14" s="315"/>
-      <c r="P14" s="316"/>
-      <c r="Q14" s="312"/>
-      <c r="R14" s="313"/>
-      <c r="S14" s="312"/>
-      <c r="T14" s="317"/>
-      <c r="U14" s="313"/>
-      <c r="V14" s="314"/>
-      <c r="W14" s="315"/>
-      <c r="X14" s="315"/>
-      <c r="Y14" s="315"/>
-      <c r="Z14" s="315"/>
-      <c r="AA14" s="315"/>
-      <c r="AB14" s="329"/>
-      <c r="AC14" s="348"/>
-      <c r="AD14" s="314"/>
-      <c r="AE14" s="315"/>
-      <c r="AF14" s="315"/>
-      <c r="AG14" s="316"/>
-      <c r="AH14" s="350"/>
-      <c r="AI14" s="351"/>
+      <c r="B14" s="333"/>
+      <c r="C14" s="334"/>
+      <c r="D14" s="334"/>
+      <c r="E14" s="334"/>
+      <c r="F14" s="335"/>
+      <c r="G14" s="307"/>
+      <c r="H14" s="308"/>
+      <c r="I14" s="309"/>
+      <c r="J14" s="307"/>
+      <c r="K14" s="308"/>
+      <c r="L14" s="308"/>
+      <c r="M14" s="308"/>
+      <c r="N14" s="308"/>
+      <c r="O14" s="308"/>
+      <c r="P14" s="309"/>
+      <c r="Q14" s="305"/>
+      <c r="R14" s="306"/>
+      <c r="S14" s="305"/>
+      <c r="T14" s="311"/>
+      <c r="U14" s="306"/>
+      <c r="V14" s="307"/>
+      <c r="W14" s="308"/>
+      <c r="X14" s="308"/>
+      <c r="Y14" s="308"/>
+      <c r="Z14" s="308"/>
+      <c r="AA14" s="308"/>
+      <c r="AB14" s="323"/>
+      <c r="AC14" s="342"/>
+      <c r="AD14" s="307"/>
+      <c r="AE14" s="308"/>
+      <c r="AF14" s="308"/>
+      <c r="AG14" s="309"/>
+      <c r="AH14" s="344"/>
+      <c r="AI14" s="345"/>
     </row>
     <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="166">
+      <c r="A15" s="165">
         <v>7</v>
       </c>
-      <c r="B15" s="339"/>
-      <c r="C15" s="340"/>
-      <c r="D15" s="340"/>
-      <c r="E15" s="340"/>
-      <c r="F15" s="341"/>
-      <c r="G15" s="314"/>
-      <c r="H15" s="315"/>
-      <c r="I15" s="316"/>
-      <c r="J15" s="314"/>
-      <c r="K15" s="315"/>
-      <c r="L15" s="315"/>
-      <c r="M15" s="315"/>
-      <c r="N15" s="315"/>
-      <c r="O15" s="315"/>
-      <c r="P15" s="316"/>
-      <c r="Q15" s="312"/>
-      <c r="R15" s="313"/>
-      <c r="S15" s="312"/>
-      <c r="T15" s="317"/>
-      <c r="U15" s="313"/>
-      <c r="V15" s="314"/>
-      <c r="W15" s="315"/>
-      <c r="X15" s="315"/>
-      <c r="Y15" s="315"/>
-      <c r="Z15" s="315"/>
-      <c r="AA15" s="315"/>
-      <c r="AB15" s="329"/>
-      <c r="AC15" s="348"/>
-      <c r="AD15" s="314"/>
-      <c r="AE15" s="315"/>
-      <c r="AF15" s="315"/>
-      <c r="AG15" s="316"/>
-      <c r="AH15" s="350"/>
-      <c r="AI15" s="351"/>
+      <c r="B15" s="333"/>
+      <c r="C15" s="334"/>
+      <c r="D15" s="334"/>
+      <c r="E15" s="334"/>
+      <c r="F15" s="335"/>
+      <c r="G15" s="307"/>
+      <c r="H15" s="308"/>
+      <c r="I15" s="309"/>
+      <c r="J15" s="307"/>
+      <c r="K15" s="308"/>
+      <c r="L15" s="308"/>
+      <c r="M15" s="308"/>
+      <c r="N15" s="308"/>
+      <c r="O15" s="308"/>
+      <c r="P15" s="309"/>
+      <c r="Q15" s="305"/>
+      <c r="R15" s="306"/>
+      <c r="S15" s="305"/>
+      <c r="T15" s="311"/>
+      <c r="U15" s="306"/>
+      <c r="V15" s="307"/>
+      <c r="W15" s="308"/>
+      <c r="X15" s="308"/>
+      <c r="Y15" s="308"/>
+      <c r="Z15" s="308"/>
+      <c r="AA15" s="308"/>
+      <c r="AB15" s="323"/>
+      <c r="AC15" s="342"/>
+      <c r="AD15" s="307"/>
+      <c r="AE15" s="308"/>
+      <c r="AF15" s="308"/>
+      <c r="AG15" s="309"/>
+      <c r="AH15" s="344"/>
+      <c r="AI15" s="345"/>
     </row>
     <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="166">
+      <c r="A16" s="165">
         <v>8</v>
       </c>
-      <c r="B16" s="339"/>
-      <c r="C16" s="340"/>
-      <c r="D16" s="340"/>
-      <c r="E16" s="340"/>
-      <c r="F16" s="341"/>
-      <c r="G16" s="314"/>
-      <c r="H16" s="315"/>
-      <c r="I16" s="316"/>
-      <c r="J16" s="314"/>
-      <c r="K16" s="315"/>
-      <c r="L16" s="315"/>
-      <c r="M16" s="315"/>
-      <c r="N16" s="315"/>
-      <c r="O16" s="315"/>
-      <c r="P16" s="316"/>
-      <c r="Q16" s="312"/>
-      <c r="R16" s="313"/>
-      <c r="S16" s="312"/>
-      <c r="T16" s="317"/>
-      <c r="U16" s="313"/>
-      <c r="V16" s="314"/>
-      <c r="W16" s="315"/>
-      <c r="X16" s="315"/>
-      <c r="Y16" s="315"/>
-      <c r="Z16" s="315"/>
-      <c r="AA16" s="315"/>
-      <c r="AB16" s="329"/>
-      <c r="AC16" s="348"/>
-      <c r="AD16" s="314"/>
-      <c r="AE16" s="315"/>
-      <c r="AF16" s="315"/>
-      <c r="AG16" s="316"/>
-      <c r="AH16" s="350"/>
-      <c r="AI16" s="351"/>
+      <c r="B16" s="333"/>
+      <c r="C16" s="334"/>
+      <c r="D16" s="334"/>
+      <c r="E16" s="334"/>
+      <c r="F16" s="335"/>
+      <c r="G16" s="307"/>
+      <c r="H16" s="308"/>
+      <c r="I16" s="309"/>
+      <c r="J16" s="307"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
+      <c r="M16" s="308"/>
+      <c r="N16" s="308"/>
+      <c r="O16" s="308"/>
+      <c r="P16" s="309"/>
+      <c r="Q16" s="305"/>
+      <c r="R16" s="306"/>
+      <c r="S16" s="305"/>
+      <c r="T16" s="311"/>
+      <c r="U16" s="306"/>
+      <c r="V16" s="307"/>
+      <c r="W16" s="308"/>
+      <c r="X16" s="308"/>
+      <c r="Y16" s="308"/>
+      <c r="Z16" s="308"/>
+      <c r="AA16" s="308"/>
+      <c r="AB16" s="323"/>
+      <c r="AC16" s="342"/>
+      <c r="AD16" s="307"/>
+      <c r="AE16" s="308"/>
+      <c r="AF16" s="308"/>
+      <c r="AG16" s="309"/>
+      <c r="AH16" s="344"/>
+      <c r="AI16" s="345"/>
     </row>
     <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="167">
+      <c r="A17" s="166">
         <v>9</v>
       </c>
-      <c r="B17" s="342"/>
-      <c r="C17" s="343"/>
-      <c r="D17" s="343"/>
-      <c r="E17" s="343"/>
-      <c r="F17" s="344"/>
-      <c r="G17" s="330"/>
-      <c r="H17" s="331"/>
-      <c r="I17" s="338"/>
-      <c r="J17" s="330"/>
-      <c r="K17" s="331"/>
-      <c r="L17" s="331"/>
-      <c r="M17" s="331"/>
-      <c r="N17" s="331"/>
-      <c r="O17" s="331"/>
-      <c r="P17" s="338"/>
-      <c r="Q17" s="335"/>
-      <c r="R17" s="337"/>
-      <c r="S17" s="335"/>
-      <c r="T17" s="336"/>
-      <c r="U17" s="337"/>
-      <c r="V17" s="330"/>
-      <c r="W17" s="331"/>
-      <c r="X17" s="331"/>
-      <c r="Y17" s="331"/>
-      <c r="Z17" s="331"/>
-      <c r="AA17" s="331"/>
-      <c r="AB17" s="332"/>
-      <c r="AC17" s="349"/>
-      <c r="AD17" s="358"/>
-      <c r="AE17" s="359"/>
-      <c r="AF17" s="359"/>
-      <c r="AG17" s="360"/>
-      <c r="AH17" s="345"/>
-      <c r="AI17" s="346"/>
+      <c r="B17" s="336"/>
+      <c r="C17" s="337"/>
+      <c r="D17" s="337"/>
+      <c r="E17" s="337"/>
+      <c r="F17" s="338"/>
+      <c r="G17" s="324"/>
+      <c r="H17" s="325"/>
+      <c r="I17" s="332"/>
+      <c r="J17" s="324"/>
+      <c r="K17" s="325"/>
+      <c r="L17" s="325"/>
+      <c r="M17" s="325"/>
+      <c r="N17" s="325"/>
+      <c r="O17" s="325"/>
+      <c r="P17" s="332"/>
+      <c r="Q17" s="329"/>
+      <c r="R17" s="331"/>
+      <c r="S17" s="329"/>
+      <c r="T17" s="330"/>
+      <c r="U17" s="331"/>
+      <c r="V17" s="324"/>
+      <c r="W17" s="325"/>
+      <c r="X17" s="325"/>
+      <c r="Y17" s="325"/>
+      <c r="Z17" s="325"/>
+      <c r="AA17" s="325"/>
+      <c r="AB17" s="326"/>
+      <c r="AC17" s="343"/>
+      <c r="AD17" s="352"/>
+      <c r="AE17" s="353"/>
+      <c r="AF17" s="353"/>
+      <c r="AG17" s="354"/>
+      <c r="AH17" s="339"/>
+      <c r="AI17" s="340"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="333"/>
-      <c r="B18" s="334"/>
-      <c r="C18" s="334"/>
-      <c r="D18" s="334"/>
-      <c r="E18" s="334"/>
-      <c r="F18" s="334"/>
+      <c r="A18" s="327"/>
+      <c r="B18" s="328"/>
+      <c r="C18" s="328"/>
+      <c r="D18" s="328"/>
+      <c r="E18" s="328"/>
+      <c r="F18" s="328"/>
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
@@ -12486,23 +12497,23 @@
       <c r="AA18" s="49"/>
       <c r="AB18" s="49"/>
       <c r="AC18" s="52"/>
-      <c r="AD18" s="328"/>
-      <c r="AE18" s="328"/>
-      <c r="AF18" s="328"/>
-      <c r="AG18" s="328"/>
-      <c r="AH18" s="328"/>
+      <c r="AD18" s="322"/>
+      <c r="AE18" s="322"/>
+      <c r="AF18" s="322"/>
+      <c r="AG18" s="322"/>
+      <c r="AH18" s="322"/>
       <c r="AI18" s="103"/>
       <c r="AJ18" s="43"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="326" t="s">
+      <c r="A19" s="320" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="327"/>
-      <c r="C19" s="327"/>
-      <c r="D19" s="327"/>
-      <c r="E19" s="327"/>
-      <c r="F19" s="327"/>
+      <c r="B19" s="321"/>
+      <c r="C19" s="321"/>
+      <c r="D19" s="321"/>
+      <c r="E19" s="321"/>
+      <c r="F19" s="321"/>
       <c r="G19" s="117"/>
       <c r="H19" s="49"/>
       <c r="I19" s="49"/>
@@ -13466,86 +13477,86 @@
     </row>
     <row r="4" spans="1:121" ht="11.25"/>
     <row r="5" spans="1:121" ht="11.25">
-      <c r="A5" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
+      <c r="A5" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
     </row>
     <row r="6" spans="1:121" ht="11.25">
-      <c r="A6" s="120"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
     </row>
     <row r="7" spans="1:121" ht="22.5" customHeight="1">
-      <c r="A7" s="170" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="376" t="s">
+      <c r="A7" s="169" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="370" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="377"/>
-      <c r="D7" s="377"/>
-      <c r="E7" s="377"/>
-      <c r="F7" s="378"/>
-      <c r="G7" s="376" t="s">
+      <c r="C7" s="371"/>
+      <c r="D7" s="371"/>
+      <c r="E7" s="371"/>
+      <c r="F7" s="372"/>
+      <c r="G7" s="370" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="377"/>
-      <c r="I7" s="377"/>
-      <c r="J7" s="377"/>
-      <c r="K7" s="378"/>
-      <c r="L7" s="376" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="377"/>
-      <c r="N7" s="377"/>
-      <c r="O7" s="377"/>
-      <c r="P7" s="378"/>
-      <c r="Q7" s="171" t="s">
+      <c r="H7" s="371"/>
+      <c r="I7" s="371"/>
+      <c r="J7" s="371"/>
+      <c r="K7" s="372"/>
+      <c r="L7" s="370" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="371"/>
+      <c r="N7" s="371"/>
+      <c r="O7" s="371"/>
+      <c r="P7" s="372"/>
+      <c r="Q7" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="379" t="s">
+      <c r="R7" s="373" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="379"/>
-      <c r="T7" s="379"/>
-      <c r="U7" s="379"/>
-      <c r="V7" s="380" t="s">
+      <c r="S7" s="373"/>
+      <c r="T7" s="373"/>
+      <c r="U7" s="373"/>
+      <c r="V7" s="375" t="s">
+        <v>98</v>
+      </c>
+      <c r="W7" s="376"/>
+      <c r="X7" s="377" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="378"/>
+      <c r="Z7" s="370" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA7" s="372"/>
+      <c r="AB7" s="370" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC7" s="372"/>
+      <c r="AD7" s="374" t="s">
         <v>99</v>
       </c>
-      <c r="W7" s="381"/>
-      <c r="X7" s="382" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="383"/>
-      <c r="Z7" s="376" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA7" s="378"/>
-      <c r="AB7" s="376" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC7" s="378"/>
-      <c r="AD7" s="376" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE7" s="378"/>
-      <c r="AF7" s="376" t="s">
+      <c r="AE7" s="372"/>
+      <c r="AF7" s="370" t="s">
         <v>63</v>
       </c>
-      <c r="AG7" s="377"/>
-      <c r="AH7" s="378"/>
-      <c r="AI7" s="376" t="s">
+      <c r="AG7" s="371"/>
+      <c r="AH7" s="372"/>
+      <c r="AI7" s="370" t="s">
         <v>62</v>
       </c>
-      <c r="AJ7" s="377"/>
-      <c r="AK7" s="377"/>
-      <c r="AL7" s="377"/>
-      <c r="AM7" s="377"/>
-      <c r="AN7" s="378"/>
+      <c r="AJ7" s="371"/>
+      <c r="AK7" s="371"/>
+      <c r="AL7" s="371"/>
+      <c r="AM7" s="371"/>
+      <c r="AN7" s="372"/>
       <c r="BN7" s="103"/>
       <c r="BO7" s="103"/>
       <c r="BP7" s="103"/>
@@ -13591,75 +13602,75 @@
       <c r="DD7" s="103"/>
       <c r="DE7" s="103"/>
       <c r="DF7" s="103"/>
-      <c r="DG7" s="119"/>
-      <c r="DH7" s="119"/>
-      <c r="DI7" s="119"/>
-      <c r="DJ7" s="119"/>
-      <c r="DK7" s="119"/>
-      <c r="DL7" s="119"/>
-      <c r="DM7" s="119"/>
-      <c r="DN7" s="119"/>
-      <c r="DO7" s="119"/>
-      <c r="DP7" s="119"/>
-      <c r="DQ7" s="119"/>
+      <c r="DG7" s="118"/>
+      <c r="DH7" s="118"/>
+      <c r="DI7" s="118"/>
+      <c r="DJ7" s="118"/>
+      <c r="DK7" s="118"/>
+      <c r="DL7" s="118"/>
+      <c r="DM7" s="118"/>
+      <c r="DN7" s="118"/>
+      <c r="DO7" s="118"/>
+      <c r="DP7" s="118"/>
+      <c r="DQ7" s="118"/>
     </row>
     <row r="8" spans="1:121" ht="15" customHeight="1">
-      <c r="A8" s="168"/>
-      <c r="B8" s="372"/>
-      <c r="C8" s="373"/>
-      <c r="D8" s="373"/>
-      <c r="E8" s="373"/>
-      <c r="F8" s="374"/>
-      <c r="G8" s="368"/>
-      <c r="H8" s="370"/>
-      <c r="I8" s="370"/>
-      <c r="J8" s="370"/>
-      <c r="K8" s="369"/>
-      <c r="L8" s="368"/>
-      <c r="M8" s="370"/>
-      <c r="N8" s="370"/>
-      <c r="O8" s="370"/>
-      <c r="P8" s="369"/>
-      <c r="Q8" s="169"/>
-      <c r="R8" s="375"/>
-      <c r="S8" s="375"/>
-      <c r="T8" s="375"/>
-      <c r="U8" s="375"/>
-      <c r="V8" s="371"/>
-      <c r="W8" s="371"/>
-      <c r="X8" s="366">
+      <c r="A8" s="167"/>
+      <c r="B8" s="366"/>
+      <c r="C8" s="367"/>
+      <c r="D8" s="367"/>
+      <c r="E8" s="367"/>
+      <c r="F8" s="368"/>
+      <c r="G8" s="362"/>
+      <c r="H8" s="364"/>
+      <c r="I8" s="364"/>
+      <c r="J8" s="364"/>
+      <c r="K8" s="363"/>
+      <c r="L8" s="362"/>
+      <c r="M8" s="364"/>
+      <c r="N8" s="364"/>
+      <c r="O8" s="364"/>
+      <c r="P8" s="363"/>
+      <c r="Q8" s="168"/>
+      <c r="R8" s="369"/>
+      <c r="S8" s="369"/>
+      <c r="T8" s="369"/>
+      <c r="U8" s="369"/>
+      <c r="V8" s="365"/>
+      <c r="W8" s="365"/>
+      <c r="X8" s="360">
         <v>1</v>
       </c>
-      <c r="Y8" s="367"/>
-      <c r="Z8" s="368"/>
-      <c r="AA8" s="369"/>
-      <c r="AB8" s="368"/>
-      <c r="AC8" s="369"/>
-      <c r="AD8" s="368"/>
-      <c r="AE8" s="369"/>
-      <c r="AF8" s="368"/>
-      <c r="AG8" s="370"/>
-      <c r="AH8" s="369"/>
-      <c r="AI8" s="363"/>
-      <c r="AJ8" s="364"/>
-      <c r="AK8" s="364"/>
-      <c r="AL8" s="364"/>
-      <c r="AM8" s="364"/>
-      <c r="AN8" s="365"/>
-      <c r="BN8" s="119"/>
-      <c r="BO8" s="119"/>
-      <c r="BP8" s="119"/>
-      <c r="BQ8" s="119"/>
-      <c r="BR8" s="119"/>
-      <c r="BS8" s="119"/>
-      <c r="BT8" s="119"/>
-      <c r="BU8" s="119"/>
-      <c r="BV8" s="119"/>
-      <c r="BW8" s="119"/>
-      <c r="BX8" s="119"/>
-      <c r="BY8" s="119"/>
-      <c r="BZ8" s="119"/>
-      <c r="CA8" s="119"/>
+      <c r="Y8" s="361"/>
+      <c r="Z8" s="362"/>
+      <c r="AA8" s="363"/>
+      <c r="AB8" s="362"/>
+      <c r="AC8" s="363"/>
+      <c r="AD8" s="362"/>
+      <c r="AE8" s="363"/>
+      <c r="AF8" s="362"/>
+      <c r="AG8" s="364"/>
+      <c r="AH8" s="363"/>
+      <c r="AI8" s="357"/>
+      <c r="AJ8" s="358"/>
+      <c r="AK8" s="358"/>
+      <c r="AL8" s="358"/>
+      <c r="AM8" s="358"/>
+      <c r="AN8" s="359"/>
+      <c r="BN8" s="118"/>
+      <c r="BO8" s="118"/>
+      <c r="BP8" s="118"/>
+      <c r="BQ8" s="118"/>
+      <c r="BR8" s="118"/>
+      <c r="BS8" s="118"/>
+      <c r="BT8" s="118"/>
+      <c r="BU8" s="118"/>
+      <c r="BV8" s="118"/>
+      <c r="BW8" s="118"/>
+      <c r="BX8" s="118"/>
+      <c r="BY8" s="118"/>
+      <c r="BZ8" s="118"/>
+      <c r="CA8" s="118"/>
       <c r="CB8" s="103"/>
       <c r="CC8" s="103"/>
       <c r="CD8" s="103"/>
@@ -13691,76 +13702,76 @@
       <c r="DD8" s="103"/>
       <c r="DE8" s="103"/>
       <c r="DF8" s="103"/>
-      <c r="DG8" s="119"/>
-      <c r="DH8" s="119"/>
-      <c r="DI8" s="119"/>
-      <c r="DJ8" s="119"/>
-      <c r="DK8" s="119"/>
-      <c r="DL8" s="119"/>
-      <c r="DM8" s="119"/>
-      <c r="DN8" s="119"/>
-      <c r="DO8" s="119"/>
-      <c r="DP8" s="119"/>
-      <c r="DQ8" s="119"/>
+      <c r="DG8" s="118"/>
+      <c r="DH8" s="118"/>
+      <c r="DI8" s="118"/>
+      <c r="DJ8" s="118"/>
+      <c r="DK8" s="118"/>
+      <c r="DL8" s="118"/>
+      <c r="DM8" s="118"/>
+      <c r="DN8" s="118"/>
+      <c r="DO8" s="118"/>
+      <c r="DP8" s="118"/>
+      <c r="DQ8" s="118"/>
     </row>
     <row r="9" spans="1:121" ht="15" customHeight="1">
-      <c r="A9" s="168"/>
-      <c r="B9" s="372"/>
-      <c r="C9" s="373"/>
-      <c r="D9" s="373"/>
-      <c r="E9" s="373"/>
-      <c r="F9" s="374"/>
-      <c r="G9" s="368"/>
-      <c r="H9" s="370"/>
-      <c r="I9" s="370"/>
-      <c r="J9" s="370"/>
-      <c r="K9" s="369"/>
-      <c r="L9" s="368"/>
-      <c r="M9" s="370"/>
-      <c r="N9" s="370"/>
-      <c r="O9" s="370"/>
-      <c r="P9" s="369"/>
-      <c r="Q9" s="169"/>
-      <c r="R9" s="375"/>
-      <c r="S9" s="375"/>
-      <c r="T9" s="375"/>
-      <c r="U9" s="375"/>
-      <c r="V9" s="371"/>
-      <c r="W9" s="371"/>
-      <c r="X9" s="366">
+      <c r="A9" s="167"/>
+      <c r="B9" s="366"/>
+      <c r="C9" s="367"/>
+      <c r="D9" s="367"/>
+      <c r="E9" s="367"/>
+      <c r="F9" s="368"/>
+      <c r="G9" s="362"/>
+      <c r="H9" s="364"/>
+      <c r="I9" s="364"/>
+      <c r="J9" s="364"/>
+      <c r="K9" s="363"/>
+      <c r="L9" s="362"/>
+      <c r="M9" s="364"/>
+      <c r="N9" s="364"/>
+      <c r="O9" s="364"/>
+      <c r="P9" s="363"/>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="369"/>
+      <c r="S9" s="369"/>
+      <c r="T9" s="369"/>
+      <c r="U9" s="369"/>
+      <c r="V9" s="365"/>
+      <c r="W9" s="365"/>
+      <c r="X9" s="360">
         <f t="shared" ref="X9:X17" si="0">V8+X8</f>
         <v>1</v>
       </c>
-      <c r="Y9" s="367"/>
-      <c r="Z9" s="368"/>
-      <c r="AA9" s="369"/>
-      <c r="AB9" s="368"/>
-      <c r="AC9" s="369"/>
-      <c r="AD9" s="368"/>
-      <c r="AE9" s="369"/>
-      <c r="AF9" s="368"/>
-      <c r="AG9" s="370"/>
-      <c r="AH9" s="369"/>
-      <c r="AI9" s="363"/>
-      <c r="AJ9" s="364"/>
-      <c r="AK9" s="364"/>
-      <c r="AL9" s="364"/>
-      <c r="AM9" s="364"/>
-      <c r="AN9" s="365"/>
-      <c r="BN9" s="119"/>
-      <c r="BO9" s="119"/>
-      <c r="BP9" s="119"/>
-      <c r="BQ9" s="119"/>
-      <c r="BR9" s="119"/>
-      <c r="BS9" s="119"/>
-      <c r="BT9" s="119"/>
-      <c r="BU9" s="119"/>
-      <c r="BV9" s="119"/>
-      <c r="BW9" s="119"/>
-      <c r="BX9" s="119"/>
-      <c r="BY9" s="119"/>
-      <c r="BZ9" s="119"/>
-      <c r="CA9" s="119"/>
+      <c r="Y9" s="361"/>
+      <c r="Z9" s="362"/>
+      <c r="AA9" s="363"/>
+      <c r="AB9" s="362"/>
+      <c r="AC9" s="363"/>
+      <c r="AD9" s="362"/>
+      <c r="AE9" s="363"/>
+      <c r="AF9" s="362"/>
+      <c r="AG9" s="364"/>
+      <c r="AH9" s="363"/>
+      <c r="AI9" s="357"/>
+      <c r="AJ9" s="358"/>
+      <c r="AK9" s="358"/>
+      <c r="AL9" s="358"/>
+      <c r="AM9" s="358"/>
+      <c r="AN9" s="359"/>
+      <c r="BN9" s="118"/>
+      <c r="BO9" s="118"/>
+      <c r="BP9" s="118"/>
+      <c r="BQ9" s="118"/>
+      <c r="BR9" s="118"/>
+      <c r="BS9" s="118"/>
+      <c r="BT9" s="118"/>
+      <c r="BU9" s="118"/>
+      <c r="BV9" s="118"/>
+      <c r="BW9" s="118"/>
+      <c r="BX9" s="118"/>
+      <c r="BY9" s="118"/>
+      <c r="BZ9" s="118"/>
+      <c r="CA9" s="118"/>
       <c r="CB9" s="103"/>
       <c r="CC9" s="103"/>
       <c r="CD9" s="103"/>
@@ -13792,76 +13803,76 @@
       <c r="DD9" s="103"/>
       <c r="DE9" s="103"/>
       <c r="DF9" s="103"/>
-      <c r="DG9" s="119"/>
-      <c r="DH9" s="119"/>
-      <c r="DI9" s="119"/>
-      <c r="DJ9" s="119"/>
-      <c r="DK9" s="119"/>
-      <c r="DL9" s="119"/>
-      <c r="DM9" s="119"/>
-      <c r="DN9" s="119"/>
-      <c r="DO9" s="119"/>
-      <c r="DP9" s="119"/>
-      <c r="DQ9" s="119"/>
+      <c r="DG9" s="118"/>
+      <c r="DH9" s="118"/>
+      <c r="DI9" s="118"/>
+      <c r="DJ9" s="118"/>
+      <c r="DK9" s="118"/>
+      <c r="DL9" s="118"/>
+      <c r="DM9" s="118"/>
+      <c r="DN9" s="118"/>
+      <c r="DO9" s="118"/>
+      <c r="DP9" s="118"/>
+      <c r="DQ9" s="118"/>
     </row>
     <row r="10" spans="1:121" ht="15" customHeight="1">
-      <c r="A10" s="168"/>
-      <c r="B10" s="372"/>
-      <c r="C10" s="373"/>
-      <c r="D10" s="373"/>
-      <c r="E10" s="373"/>
-      <c r="F10" s="374"/>
-      <c r="G10" s="368"/>
-      <c r="H10" s="370"/>
-      <c r="I10" s="370"/>
-      <c r="J10" s="370"/>
-      <c r="K10" s="369"/>
-      <c r="L10" s="368"/>
-      <c r="M10" s="370"/>
-      <c r="N10" s="370"/>
-      <c r="O10" s="370"/>
-      <c r="P10" s="369"/>
-      <c r="Q10" s="169"/>
-      <c r="R10" s="375"/>
-      <c r="S10" s="375"/>
-      <c r="T10" s="375"/>
-      <c r="U10" s="375"/>
-      <c r="V10" s="371"/>
-      <c r="W10" s="371"/>
-      <c r="X10" s="366">
+      <c r="A10" s="167"/>
+      <c r="B10" s="366"/>
+      <c r="C10" s="367"/>
+      <c r="D10" s="367"/>
+      <c r="E10" s="367"/>
+      <c r="F10" s="368"/>
+      <c r="G10" s="362"/>
+      <c r="H10" s="364"/>
+      <c r="I10" s="364"/>
+      <c r="J10" s="364"/>
+      <c r="K10" s="363"/>
+      <c r="L10" s="362"/>
+      <c r="M10" s="364"/>
+      <c r="N10" s="364"/>
+      <c r="O10" s="364"/>
+      <c r="P10" s="363"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="369"/>
+      <c r="S10" s="369"/>
+      <c r="T10" s="369"/>
+      <c r="U10" s="369"/>
+      <c r="V10" s="365"/>
+      <c r="W10" s="365"/>
+      <c r="X10" s="360">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y10" s="367"/>
-      <c r="Z10" s="368"/>
-      <c r="AA10" s="369"/>
-      <c r="AB10" s="368"/>
-      <c r="AC10" s="369"/>
-      <c r="AD10" s="368"/>
-      <c r="AE10" s="369"/>
-      <c r="AF10" s="368"/>
-      <c r="AG10" s="370"/>
-      <c r="AH10" s="369"/>
-      <c r="AI10" s="363"/>
-      <c r="AJ10" s="364"/>
-      <c r="AK10" s="364"/>
-      <c r="AL10" s="364"/>
-      <c r="AM10" s="364"/>
-      <c r="AN10" s="365"/>
-      <c r="BN10" s="119"/>
-      <c r="BO10" s="119"/>
-      <c r="BP10" s="119"/>
-      <c r="BQ10" s="119"/>
-      <c r="BR10" s="119"/>
-      <c r="BS10" s="119"/>
-      <c r="BT10" s="119"/>
-      <c r="BU10" s="119"/>
-      <c r="BV10" s="119"/>
-      <c r="BW10" s="119"/>
-      <c r="BX10" s="119"/>
-      <c r="BY10" s="119"/>
-      <c r="BZ10" s="119"/>
-      <c r="CA10" s="119"/>
+      <c r="Y10" s="361"/>
+      <c r="Z10" s="362"/>
+      <c r="AA10" s="363"/>
+      <c r="AB10" s="362"/>
+      <c r="AC10" s="363"/>
+      <c r="AD10" s="362"/>
+      <c r="AE10" s="363"/>
+      <c r="AF10" s="362"/>
+      <c r="AG10" s="364"/>
+      <c r="AH10" s="363"/>
+      <c r="AI10" s="357"/>
+      <c r="AJ10" s="358"/>
+      <c r="AK10" s="358"/>
+      <c r="AL10" s="358"/>
+      <c r="AM10" s="358"/>
+      <c r="AN10" s="359"/>
+      <c r="BN10" s="118"/>
+      <c r="BO10" s="118"/>
+      <c r="BP10" s="118"/>
+      <c r="BQ10" s="118"/>
+      <c r="BR10" s="118"/>
+      <c r="BS10" s="118"/>
+      <c r="BT10" s="118"/>
+      <c r="BU10" s="118"/>
+      <c r="BV10" s="118"/>
+      <c r="BW10" s="118"/>
+      <c r="BX10" s="118"/>
+      <c r="BY10" s="118"/>
+      <c r="BZ10" s="118"/>
+      <c r="CA10" s="118"/>
       <c r="CB10" s="103"/>
       <c r="CC10" s="103"/>
       <c r="CD10" s="103"/>
@@ -13893,76 +13904,76 @@
       <c r="DD10" s="103"/>
       <c r="DE10" s="103"/>
       <c r="DF10" s="103"/>
-      <c r="DG10" s="119"/>
-      <c r="DH10" s="119"/>
-      <c r="DI10" s="119"/>
-      <c r="DJ10" s="119"/>
-      <c r="DK10" s="119"/>
-      <c r="DL10" s="119"/>
-      <c r="DM10" s="119"/>
-      <c r="DN10" s="119"/>
-      <c r="DO10" s="119"/>
-      <c r="DP10" s="119"/>
-      <c r="DQ10" s="119"/>
+      <c r="DG10" s="118"/>
+      <c r="DH10" s="118"/>
+      <c r="DI10" s="118"/>
+      <c r="DJ10" s="118"/>
+      <c r="DK10" s="118"/>
+      <c r="DL10" s="118"/>
+      <c r="DM10" s="118"/>
+      <c r="DN10" s="118"/>
+      <c r="DO10" s="118"/>
+      <c r="DP10" s="118"/>
+      <c r="DQ10" s="118"/>
     </row>
     <row r="11" spans="1:121" ht="15" customHeight="1">
-      <c r="A11" s="168"/>
-      <c r="B11" s="372"/>
-      <c r="C11" s="373"/>
-      <c r="D11" s="373"/>
-      <c r="E11" s="373"/>
-      <c r="F11" s="374"/>
-      <c r="G11" s="368"/>
-      <c r="H11" s="370"/>
-      <c r="I11" s="370"/>
-      <c r="J11" s="370"/>
-      <c r="K11" s="369"/>
-      <c r="L11" s="368"/>
-      <c r="M11" s="370"/>
-      <c r="N11" s="370"/>
-      <c r="O11" s="370"/>
-      <c r="P11" s="369"/>
-      <c r="Q11" s="169"/>
-      <c r="R11" s="375"/>
-      <c r="S11" s="375"/>
-      <c r="T11" s="375"/>
-      <c r="U11" s="375"/>
-      <c r="V11" s="371"/>
-      <c r="W11" s="371"/>
-      <c r="X11" s="366">
+      <c r="A11" s="167"/>
+      <c r="B11" s="366"/>
+      <c r="C11" s="367"/>
+      <c r="D11" s="367"/>
+      <c r="E11" s="367"/>
+      <c r="F11" s="368"/>
+      <c r="G11" s="362"/>
+      <c r="H11" s="364"/>
+      <c r="I11" s="364"/>
+      <c r="J11" s="364"/>
+      <c r="K11" s="363"/>
+      <c r="L11" s="362"/>
+      <c r="M11" s="364"/>
+      <c r="N11" s="364"/>
+      <c r="O11" s="364"/>
+      <c r="P11" s="363"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="369"/>
+      <c r="S11" s="369"/>
+      <c r="T11" s="369"/>
+      <c r="U11" s="369"/>
+      <c r="V11" s="365"/>
+      <c r="W11" s="365"/>
+      <c r="X11" s="360">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y11" s="367"/>
-      <c r="Z11" s="368"/>
-      <c r="AA11" s="369"/>
-      <c r="AB11" s="368"/>
-      <c r="AC11" s="369"/>
-      <c r="AD11" s="368"/>
-      <c r="AE11" s="369"/>
-      <c r="AF11" s="368"/>
-      <c r="AG11" s="370"/>
-      <c r="AH11" s="369"/>
-      <c r="AI11" s="363"/>
-      <c r="AJ11" s="364"/>
-      <c r="AK11" s="364"/>
-      <c r="AL11" s="364"/>
-      <c r="AM11" s="364"/>
-      <c r="AN11" s="365"/>
-      <c r="BN11" s="119"/>
-      <c r="BO11" s="119"/>
-      <c r="BP11" s="119"/>
-      <c r="BQ11" s="119"/>
-      <c r="BR11" s="119"/>
-      <c r="BS11" s="119"/>
-      <c r="BT11" s="119"/>
-      <c r="BU11" s="119"/>
-      <c r="BV11" s="119"/>
-      <c r="BW11" s="119"/>
-      <c r="BX11" s="119"/>
-      <c r="BY11" s="119"/>
-      <c r="BZ11" s="119"/>
-      <c r="CA11" s="119"/>
+      <c r="Y11" s="361"/>
+      <c r="Z11" s="362"/>
+      <c r="AA11" s="363"/>
+      <c r="AB11" s="362"/>
+      <c r="AC11" s="363"/>
+      <c r="AD11" s="362"/>
+      <c r="AE11" s="363"/>
+      <c r="AF11" s="362"/>
+      <c r="AG11" s="364"/>
+      <c r="AH11" s="363"/>
+      <c r="AI11" s="357"/>
+      <c r="AJ11" s="358"/>
+      <c r="AK11" s="358"/>
+      <c r="AL11" s="358"/>
+      <c r="AM11" s="358"/>
+      <c r="AN11" s="359"/>
+      <c r="BN11" s="118"/>
+      <c r="BO11" s="118"/>
+      <c r="BP11" s="118"/>
+      <c r="BQ11" s="118"/>
+      <c r="BR11" s="118"/>
+      <c r="BS11" s="118"/>
+      <c r="BT11" s="118"/>
+      <c r="BU11" s="118"/>
+      <c r="BV11" s="118"/>
+      <c r="BW11" s="118"/>
+      <c r="BX11" s="118"/>
+      <c r="BY11" s="118"/>
+      <c r="BZ11" s="118"/>
+      <c r="CA11" s="118"/>
       <c r="CB11" s="103"/>
       <c r="CC11" s="103"/>
       <c r="CD11" s="103"/>
@@ -13994,76 +14005,76 @@
       <c r="DD11" s="103"/>
       <c r="DE11" s="103"/>
       <c r="DF11" s="103"/>
-      <c r="DG11" s="119"/>
-      <c r="DH11" s="119"/>
-      <c r="DI11" s="119"/>
-      <c r="DJ11" s="119"/>
-      <c r="DK11" s="119"/>
-      <c r="DL11" s="119"/>
-      <c r="DM11" s="119"/>
-      <c r="DN11" s="119"/>
-      <c r="DO11" s="119"/>
-      <c r="DP11" s="119"/>
-      <c r="DQ11" s="119"/>
+      <c r="DG11" s="118"/>
+      <c r="DH11" s="118"/>
+      <c r="DI11" s="118"/>
+      <c r="DJ11" s="118"/>
+      <c r="DK11" s="118"/>
+      <c r="DL11" s="118"/>
+      <c r="DM11" s="118"/>
+      <c r="DN11" s="118"/>
+      <c r="DO11" s="118"/>
+      <c r="DP11" s="118"/>
+      <c r="DQ11" s="118"/>
     </row>
     <row r="12" spans="1:121" ht="15" customHeight="1">
-      <c r="A12" s="168"/>
-      <c r="B12" s="372"/>
-      <c r="C12" s="373"/>
-      <c r="D12" s="373"/>
-      <c r="E12" s="373"/>
-      <c r="F12" s="374"/>
-      <c r="G12" s="368"/>
-      <c r="H12" s="370"/>
-      <c r="I12" s="370"/>
-      <c r="J12" s="370"/>
-      <c r="K12" s="369"/>
-      <c r="L12" s="368"/>
-      <c r="M12" s="370"/>
-      <c r="N12" s="370"/>
-      <c r="O12" s="370"/>
-      <c r="P12" s="369"/>
-      <c r="Q12" s="169"/>
-      <c r="R12" s="375"/>
-      <c r="S12" s="375"/>
-      <c r="T12" s="375"/>
-      <c r="U12" s="375"/>
-      <c r="V12" s="371"/>
-      <c r="W12" s="371"/>
-      <c r="X12" s="366">
+      <c r="A12" s="167"/>
+      <c r="B12" s="366"/>
+      <c r="C12" s="367"/>
+      <c r="D12" s="367"/>
+      <c r="E12" s="367"/>
+      <c r="F12" s="368"/>
+      <c r="G12" s="362"/>
+      <c r="H12" s="364"/>
+      <c r="I12" s="364"/>
+      <c r="J12" s="364"/>
+      <c r="K12" s="363"/>
+      <c r="L12" s="362"/>
+      <c r="M12" s="364"/>
+      <c r="N12" s="364"/>
+      <c r="O12" s="364"/>
+      <c r="P12" s="363"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="369"/>
+      <c r="S12" s="369"/>
+      <c r="T12" s="369"/>
+      <c r="U12" s="369"/>
+      <c r="V12" s="365"/>
+      <c r="W12" s="365"/>
+      <c r="X12" s="360">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="367"/>
-      <c r="Z12" s="368"/>
-      <c r="AA12" s="369"/>
-      <c r="AB12" s="368"/>
-      <c r="AC12" s="369"/>
-      <c r="AD12" s="368"/>
-      <c r="AE12" s="369"/>
-      <c r="AF12" s="368"/>
-      <c r="AG12" s="370"/>
-      <c r="AH12" s="369"/>
-      <c r="AI12" s="363"/>
-      <c r="AJ12" s="364"/>
-      <c r="AK12" s="364"/>
-      <c r="AL12" s="364"/>
-      <c r="AM12" s="364"/>
-      <c r="AN12" s="365"/>
-      <c r="BN12" s="119"/>
-      <c r="BO12" s="119"/>
-      <c r="BP12" s="119"/>
-      <c r="BQ12" s="119"/>
-      <c r="BR12" s="119"/>
-      <c r="BS12" s="119"/>
-      <c r="BT12" s="119"/>
-      <c r="BU12" s="119"/>
-      <c r="BV12" s="119"/>
-      <c r="BW12" s="119"/>
-      <c r="BX12" s="119"/>
-      <c r="BY12" s="119"/>
-      <c r="BZ12" s="119"/>
-      <c r="CA12" s="119"/>
+      <c r="Y12" s="361"/>
+      <c r="Z12" s="362"/>
+      <c r="AA12" s="363"/>
+      <c r="AB12" s="362"/>
+      <c r="AC12" s="363"/>
+      <c r="AD12" s="362"/>
+      <c r="AE12" s="363"/>
+      <c r="AF12" s="362"/>
+      <c r="AG12" s="364"/>
+      <c r="AH12" s="363"/>
+      <c r="AI12" s="357"/>
+      <c r="AJ12" s="358"/>
+      <c r="AK12" s="358"/>
+      <c r="AL12" s="358"/>
+      <c r="AM12" s="358"/>
+      <c r="AN12" s="359"/>
+      <c r="BN12" s="118"/>
+      <c r="BO12" s="118"/>
+      <c r="BP12" s="118"/>
+      <c r="BQ12" s="118"/>
+      <c r="BR12" s="118"/>
+      <c r="BS12" s="118"/>
+      <c r="BT12" s="118"/>
+      <c r="BU12" s="118"/>
+      <c r="BV12" s="118"/>
+      <c r="BW12" s="118"/>
+      <c r="BX12" s="118"/>
+      <c r="BY12" s="118"/>
+      <c r="BZ12" s="118"/>
+      <c r="CA12" s="118"/>
       <c r="CB12" s="103"/>
       <c r="CC12" s="103"/>
       <c r="CD12" s="103"/>
@@ -14095,76 +14106,76 @@
       <c r="DD12" s="103"/>
       <c r="DE12" s="103"/>
       <c r="DF12" s="103"/>
-      <c r="DG12" s="119"/>
-      <c r="DH12" s="119"/>
-      <c r="DI12" s="119"/>
-      <c r="DJ12" s="119"/>
-      <c r="DK12" s="119"/>
-      <c r="DL12" s="119"/>
-      <c r="DM12" s="119"/>
-      <c r="DN12" s="119"/>
-      <c r="DO12" s="119"/>
-      <c r="DP12" s="119"/>
-      <c r="DQ12" s="119"/>
+      <c r="DG12" s="118"/>
+      <c r="DH12" s="118"/>
+      <c r="DI12" s="118"/>
+      <c r="DJ12" s="118"/>
+      <c r="DK12" s="118"/>
+      <c r="DL12" s="118"/>
+      <c r="DM12" s="118"/>
+      <c r="DN12" s="118"/>
+      <c r="DO12" s="118"/>
+      <c r="DP12" s="118"/>
+      <c r="DQ12" s="118"/>
     </row>
     <row r="13" spans="1:121" ht="15" customHeight="1">
-      <c r="A13" s="168"/>
-      <c r="B13" s="372"/>
-      <c r="C13" s="373"/>
-      <c r="D13" s="373"/>
-      <c r="E13" s="373"/>
-      <c r="F13" s="374"/>
-      <c r="G13" s="368"/>
-      <c r="H13" s="370"/>
-      <c r="I13" s="370"/>
-      <c r="J13" s="370"/>
-      <c r="K13" s="369"/>
-      <c r="L13" s="368"/>
-      <c r="M13" s="370"/>
-      <c r="N13" s="370"/>
-      <c r="O13" s="370"/>
-      <c r="P13" s="369"/>
-      <c r="Q13" s="169"/>
-      <c r="R13" s="375"/>
-      <c r="S13" s="375"/>
-      <c r="T13" s="375"/>
-      <c r="U13" s="375"/>
-      <c r="V13" s="371"/>
-      <c r="W13" s="371"/>
-      <c r="X13" s="366">
+      <c r="A13" s="167"/>
+      <c r="B13" s="366"/>
+      <c r="C13" s="367"/>
+      <c r="D13" s="367"/>
+      <c r="E13" s="367"/>
+      <c r="F13" s="368"/>
+      <c r="G13" s="362"/>
+      <c r="H13" s="364"/>
+      <c r="I13" s="364"/>
+      <c r="J13" s="364"/>
+      <c r="K13" s="363"/>
+      <c r="L13" s="362"/>
+      <c r="M13" s="364"/>
+      <c r="N13" s="364"/>
+      <c r="O13" s="364"/>
+      <c r="P13" s="363"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="369"/>
+      <c r="S13" s="369"/>
+      <c r="T13" s="369"/>
+      <c r="U13" s="369"/>
+      <c r="V13" s="365"/>
+      <c r="W13" s="365"/>
+      <c r="X13" s="360">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="367"/>
-      <c r="Z13" s="368"/>
-      <c r="AA13" s="369"/>
-      <c r="AB13" s="368"/>
-      <c r="AC13" s="369"/>
-      <c r="AD13" s="368"/>
-      <c r="AE13" s="369"/>
-      <c r="AF13" s="368"/>
-      <c r="AG13" s="370"/>
-      <c r="AH13" s="369"/>
-      <c r="AI13" s="363"/>
-      <c r="AJ13" s="364"/>
-      <c r="AK13" s="364"/>
-      <c r="AL13" s="364"/>
-      <c r="AM13" s="364"/>
-      <c r="AN13" s="365"/>
-      <c r="BN13" s="119"/>
-      <c r="BO13" s="119"/>
-      <c r="BP13" s="119"/>
-      <c r="BQ13" s="119"/>
-      <c r="BR13" s="119"/>
-      <c r="BS13" s="119"/>
-      <c r="BT13" s="119"/>
-      <c r="BU13" s="119"/>
-      <c r="BV13" s="119"/>
-      <c r="BW13" s="119"/>
-      <c r="BX13" s="119"/>
-      <c r="BY13" s="119"/>
-      <c r="BZ13" s="119"/>
-      <c r="CA13" s="119"/>
+      <c r="Y13" s="361"/>
+      <c r="Z13" s="362"/>
+      <c r="AA13" s="363"/>
+      <c r="AB13" s="362"/>
+      <c r="AC13" s="363"/>
+      <c r="AD13" s="362"/>
+      <c r="AE13" s="363"/>
+      <c r="AF13" s="362"/>
+      <c r="AG13" s="364"/>
+      <c r="AH13" s="363"/>
+      <c r="AI13" s="357"/>
+      <c r="AJ13" s="358"/>
+      <c r="AK13" s="358"/>
+      <c r="AL13" s="358"/>
+      <c r="AM13" s="358"/>
+      <c r="AN13" s="359"/>
+      <c r="BN13" s="118"/>
+      <c r="BO13" s="118"/>
+      <c r="BP13" s="118"/>
+      <c r="BQ13" s="118"/>
+      <c r="BR13" s="118"/>
+      <c r="BS13" s="118"/>
+      <c r="BT13" s="118"/>
+      <c r="BU13" s="118"/>
+      <c r="BV13" s="118"/>
+      <c r="BW13" s="118"/>
+      <c r="BX13" s="118"/>
+      <c r="BY13" s="118"/>
+      <c r="BZ13" s="118"/>
+      <c r="CA13" s="118"/>
       <c r="CB13" s="103"/>
       <c r="CC13" s="103"/>
       <c r="CD13" s="103"/>
@@ -14196,76 +14207,76 @@
       <c r="DD13" s="103"/>
       <c r="DE13" s="103"/>
       <c r="DF13" s="103"/>
-      <c r="DG13" s="119"/>
-      <c r="DH13" s="119"/>
-      <c r="DI13" s="119"/>
-      <c r="DJ13" s="119"/>
-      <c r="DK13" s="119"/>
-      <c r="DL13" s="119"/>
-      <c r="DM13" s="119"/>
-      <c r="DN13" s="119"/>
-      <c r="DO13" s="119"/>
-      <c r="DP13" s="119"/>
-      <c r="DQ13" s="119"/>
+      <c r="DG13" s="118"/>
+      <c r="DH13" s="118"/>
+      <c r="DI13" s="118"/>
+      <c r="DJ13" s="118"/>
+      <c r="DK13" s="118"/>
+      <c r="DL13" s="118"/>
+      <c r="DM13" s="118"/>
+      <c r="DN13" s="118"/>
+      <c r="DO13" s="118"/>
+      <c r="DP13" s="118"/>
+      <c r="DQ13" s="118"/>
     </row>
     <row r="14" spans="1:121" ht="15" customHeight="1">
-      <c r="A14" s="168"/>
-      <c r="B14" s="372"/>
-      <c r="C14" s="373"/>
-      <c r="D14" s="373"/>
-      <c r="E14" s="373"/>
-      <c r="F14" s="374"/>
-      <c r="G14" s="368"/>
-      <c r="H14" s="370"/>
-      <c r="I14" s="370"/>
-      <c r="J14" s="370"/>
-      <c r="K14" s="369"/>
-      <c r="L14" s="368"/>
-      <c r="M14" s="370"/>
-      <c r="N14" s="370"/>
-      <c r="O14" s="370"/>
-      <c r="P14" s="369"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="375"/>
-      <c r="S14" s="375"/>
-      <c r="T14" s="375"/>
-      <c r="U14" s="375"/>
-      <c r="V14" s="371"/>
-      <c r="W14" s="371"/>
-      <c r="X14" s="366">
+      <c r="A14" s="167"/>
+      <c r="B14" s="366"/>
+      <c r="C14" s="367"/>
+      <c r="D14" s="367"/>
+      <c r="E14" s="367"/>
+      <c r="F14" s="368"/>
+      <c r="G14" s="362"/>
+      <c r="H14" s="364"/>
+      <c r="I14" s="364"/>
+      <c r="J14" s="364"/>
+      <c r="K14" s="363"/>
+      <c r="L14" s="362"/>
+      <c r="M14" s="364"/>
+      <c r="N14" s="364"/>
+      <c r="O14" s="364"/>
+      <c r="P14" s="363"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="369"/>
+      <c r="S14" s="369"/>
+      <c r="T14" s="369"/>
+      <c r="U14" s="369"/>
+      <c r="V14" s="365"/>
+      <c r="W14" s="365"/>
+      <c r="X14" s="360">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="367"/>
-      <c r="Z14" s="368"/>
-      <c r="AA14" s="369"/>
-      <c r="AB14" s="368"/>
-      <c r="AC14" s="369"/>
-      <c r="AD14" s="368"/>
-      <c r="AE14" s="369"/>
-      <c r="AF14" s="368"/>
-      <c r="AG14" s="370"/>
-      <c r="AH14" s="369"/>
-      <c r="AI14" s="363"/>
-      <c r="AJ14" s="364"/>
-      <c r="AK14" s="364"/>
-      <c r="AL14" s="364"/>
-      <c r="AM14" s="364"/>
-      <c r="AN14" s="365"/>
-      <c r="BN14" s="119"/>
-      <c r="BO14" s="119"/>
-      <c r="BP14" s="119"/>
-      <c r="BQ14" s="119"/>
-      <c r="BR14" s="119"/>
-      <c r="BS14" s="119"/>
-      <c r="BT14" s="119"/>
-      <c r="BU14" s="119"/>
-      <c r="BV14" s="119"/>
-      <c r="BW14" s="119"/>
-      <c r="BX14" s="119"/>
-      <c r="BY14" s="119"/>
-      <c r="BZ14" s="119"/>
-      <c r="CA14" s="119"/>
+      <c r="Y14" s="361"/>
+      <c r="Z14" s="362"/>
+      <c r="AA14" s="363"/>
+      <c r="AB14" s="362"/>
+      <c r="AC14" s="363"/>
+      <c r="AD14" s="362"/>
+      <c r="AE14" s="363"/>
+      <c r="AF14" s="362"/>
+      <c r="AG14" s="364"/>
+      <c r="AH14" s="363"/>
+      <c r="AI14" s="357"/>
+      <c r="AJ14" s="358"/>
+      <c r="AK14" s="358"/>
+      <c r="AL14" s="358"/>
+      <c r="AM14" s="358"/>
+      <c r="AN14" s="359"/>
+      <c r="BN14" s="118"/>
+      <c r="BO14" s="118"/>
+      <c r="BP14" s="118"/>
+      <c r="BQ14" s="118"/>
+      <c r="BR14" s="118"/>
+      <c r="BS14" s="118"/>
+      <c r="BT14" s="118"/>
+      <c r="BU14" s="118"/>
+      <c r="BV14" s="118"/>
+      <c r="BW14" s="118"/>
+      <c r="BX14" s="118"/>
+      <c r="BY14" s="118"/>
+      <c r="BZ14" s="118"/>
+      <c r="CA14" s="118"/>
       <c r="CB14" s="103"/>
       <c r="CC14" s="103"/>
       <c r="CD14" s="103"/>
@@ -14297,76 +14308,76 @@
       <c r="DD14" s="103"/>
       <c r="DE14" s="103"/>
       <c r="DF14" s="103"/>
-      <c r="DG14" s="119"/>
-      <c r="DH14" s="119"/>
-      <c r="DI14" s="119"/>
-      <c r="DJ14" s="119"/>
-      <c r="DK14" s="119"/>
-      <c r="DL14" s="119"/>
-      <c r="DM14" s="119"/>
-      <c r="DN14" s="119"/>
-      <c r="DO14" s="119"/>
-      <c r="DP14" s="119"/>
-      <c r="DQ14" s="119"/>
+      <c r="DG14" s="118"/>
+      <c r="DH14" s="118"/>
+      <c r="DI14" s="118"/>
+      <c r="DJ14" s="118"/>
+      <c r="DK14" s="118"/>
+      <c r="DL14" s="118"/>
+      <c r="DM14" s="118"/>
+      <c r="DN14" s="118"/>
+      <c r="DO14" s="118"/>
+      <c r="DP14" s="118"/>
+      <c r="DQ14" s="118"/>
     </row>
     <row r="15" spans="1:121" ht="15" customHeight="1">
-      <c r="A15" s="168"/>
-      <c r="B15" s="372"/>
-      <c r="C15" s="373"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="373"/>
-      <c r="F15" s="374"/>
-      <c r="G15" s="368"/>
-      <c r="H15" s="370"/>
-      <c r="I15" s="370"/>
-      <c r="J15" s="370"/>
-      <c r="K15" s="369"/>
-      <c r="L15" s="368"/>
-      <c r="M15" s="370"/>
-      <c r="N15" s="370"/>
-      <c r="O15" s="370"/>
-      <c r="P15" s="369"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="375"/>
-      <c r="S15" s="375"/>
-      <c r="T15" s="375"/>
-      <c r="U15" s="375"/>
-      <c r="V15" s="371"/>
-      <c r="W15" s="371"/>
-      <c r="X15" s="366">
+      <c r="A15" s="167"/>
+      <c r="B15" s="366"/>
+      <c r="C15" s="367"/>
+      <c r="D15" s="367"/>
+      <c r="E15" s="367"/>
+      <c r="F15" s="368"/>
+      <c r="G15" s="362"/>
+      <c r="H15" s="364"/>
+      <c r="I15" s="364"/>
+      <c r="J15" s="364"/>
+      <c r="K15" s="363"/>
+      <c r="L15" s="362"/>
+      <c r="M15" s="364"/>
+      <c r="N15" s="364"/>
+      <c r="O15" s="364"/>
+      <c r="P15" s="363"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="369"/>
+      <c r="S15" s="369"/>
+      <c r="T15" s="369"/>
+      <c r="U15" s="369"/>
+      <c r="V15" s="365"/>
+      <c r="W15" s="365"/>
+      <c r="X15" s="360">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y15" s="367"/>
-      <c r="Z15" s="368"/>
-      <c r="AA15" s="369"/>
-      <c r="AB15" s="368"/>
-      <c r="AC15" s="369"/>
-      <c r="AD15" s="368"/>
-      <c r="AE15" s="369"/>
-      <c r="AF15" s="368"/>
-      <c r="AG15" s="370"/>
-      <c r="AH15" s="369"/>
-      <c r="AI15" s="363"/>
-      <c r="AJ15" s="364"/>
-      <c r="AK15" s="364"/>
-      <c r="AL15" s="364"/>
-      <c r="AM15" s="364"/>
-      <c r="AN15" s="365"/>
-      <c r="BN15" s="119"/>
-      <c r="BO15" s="119"/>
-      <c r="BP15" s="119"/>
-      <c r="BQ15" s="119"/>
-      <c r="BR15" s="119"/>
-      <c r="BS15" s="119"/>
-      <c r="BT15" s="119"/>
-      <c r="BU15" s="119"/>
-      <c r="BV15" s="119"/>
-      <c r="BW15" s="119"/>
-      <c r="BX15" s="119"/>
-      <c r="BY15" s="119"/>
-      <c r="BZ15" s="119"/>
-      <c r="CA15" s="119"/>
+      <c r="Y15" s="361"/>
+      <c r="Z15" s="362"/>
+      <c r="AA15" s="363"/>
+      <c r="AB15" s="362"/>
+      <c r="AC15" s="363"/>
+      <c r="AD15" s="362"/>
+      <c r="AE15" s="363"/>
+      <c r="AF15" s="362"/>
+      <c r="AG15" s="364"/>
+      <c r="AH15" s="363"/>
+      <c r="AI15" s="357"/>
+      <c r="AJ15" s="358"/>
+      <c r="AK15" s="358"/>
+      <c r="AL15" s="358"/>
+      <c r="AM15" s="358"/>
+      <c r="AN15" s="359"/>
+      <c r="BN15" s="118"/>
+      <c r="BO15" s="118"/>
+      <c r="BP15" s="118"/>
+      <c r="BQ15" s="118"/>
+      <c r="BR15" s="118"/>
+      <c r="BS15" s="118"/>
+      <c r="BT15" s="118"/>
+      <c r="BU15" s="118"/>
+      <c r="BV15" s="118"/>
+      <c r="BW15" s="118"/>
+      <c r="BX15" s="118"/>
+      <c r="BY15" s="118"/>
+      <c r="BZ15" s="118"/>
+      <c r="CA15" s="118"/>
       <c r="CB15" s="103"/>
       <c r="CC15" s="103"/>
       <c r="CD15" s="103"/>
@@ -14398,76 +14409,76 @@
       <c r="DD15" s="103"/>
       <c r="DE15" s="103"/>
       <c r="DF15" s="103"/>
-      <c r="DG15" s="119"/>
-      <c r="DH15" s="119"/>
-      <c r="DI15" s="119"/>
-      <c r="DJ15" s="119"/>
-      <c r="DK15" s="119"/>
-      <c r="DL15" s="119"/>
-      <c r="DM15" s="119"/>
-      <c r="DN15" s="119"/>
-      <c r="DO15" s="119"/>
-      <c r="DP15" s="119"/>
-      <c r="DQ15" s="119"/>
+      <c r="DG15" s="118"/>
+      <c r="DH15" s="118"/>
+      <c r="DI15" s="118"/>
+      <c r="DJ15" s="118"/>
+      <c r="DK15" s="118"/>
+      <c r="DL15" s="118"/>
+      <c r="DM15" s="118"/>
+      <c r="DN15" s="118"/>
+      <c r="DO15" s="118"/>
+      <c r="DP15" s="118"/>
+      <c r="DQ15" s="118"/>
     </row>
     <row r="16" spans="1:121" ht="15" customHeight="1">
-      <c r="A16" s="168"/>
-      <c r="B16" s="372"/>
-      <c r="C16" s="373"/>
-      <c r="D16" s="373"/>
-      <c r="E16" s="373"/>
-      <c r="F16" s="374"/>
-      <c r="G16" s="368"/>
-      <c r="H16" s="370"/>
-      <c r="I16" s="370"/>
-      <c r="J16" s="370"/>
-      <c r="K16" s="369"/>
-      <c r="L16" s="368"/>
-      <c r="M16" s="370"/>
-      <c r="N16" s="370"/>
-      <c r="O16" s="370"/>
-      <c r="P16" s="369"/>
-      <c r="Q16" s="169"/>
-      <c r="R16" s="375"/>
-      <c r="S16" s="375"/>
-      <c r="T16" s="375"/>
-      <c r="U16" s="375"/>
-      <c r="V16" s="371"/>
-      <c r="W16" s="371"/>
-      <c r="X16" s="366">
+      <c r="A16" s="167"/>
+      <c r="B16" s="366"/>
+      <c r="C16" s="367"/>
+      <c r="D16" s="367"/>
+      <c r="E16" s="367"/>
+      <c r="F16" s="368"/>
+      <c r="G16" s="362"/>
+      <c r="H16" s="364"/>
+      <c r="I16" s="364"/>
+      <c r="J16" s="364"/>
+      <c r="K16" s="363"/>
+      <c r="L16" s="362"/>
+      <c r="M16" s="364"/>
+      <c r="N16" s="364"/>
+      <c r="O16" s="364"/>
+      <c r="P16" s="363"/>
+      <c r="Q16" s="168"/>
+      <c r="R16" s="369"/>
+      <c r="S16" s="369"/>
+      <c r="T16" s="369"/>
+      <c r="U16" s="369"/>
+      <c r="V16" s="365"/>
+      <c r="W16" s="365"/>
+      <c r="X16" s="360">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="367"/>
-      <c r="Z16" s="368"/>
-      <c r="AA16" s="369"/>
-      <c r="AB16" s="368"/>
-      <c r="AC16" s="369"/>
-      <c r="AD16" s="368"/>
-      <c r="AE16" s="369"/>
-      <c r="AF16" s="368"/>
-      <c r="AG16" s="370"/>
-      <c r="AH16" s="369"/>
-      <c r="AI16" s="363"/>
-      <c r="AJ16" s="364"/>
-      <c r="AK16" s="364"/>
-      <c r="AL16" s="364"/>
-      <c r="AM16" s="364"/>
-      <c r="AN16" s="365"/>
-      <c r="BN16" s="119"/>
-      <c r="BO16" s="119"/>
-      <c r="BP16" s="119"/>
-      <c r="BQ16" s="119"/>
-      <c r="BR16" s="119"/>
-      <c r="BS16" s="119"/>
-      <c r="BT16" s="119"/>
-      <c r="BU16" s="119"/>
-      <c r="BV16" s="119"/>
-      <c r="BW16" s="119"/>
-      <c r="BX16" s="119"/>
-      <c r="BY16" s="119"/>
-      <c r="BZ16" s="119"/>
-      <c r="CA16" s="119"/>
+      <c r="Y16" s="361"/>
+      <c r="Z16" s="362"/>
+      <c r="AA16" s="363"/>
+      <c r="AB16" s="362"/>
+      <c r="AC16" s="363"/>
+      <c r="AD16" s="362"/>
+      <c r="AE16" s="363"/>
+      <c r="AF16" s="362"/>
+      <c r="AG16" s="364"/>
+      <c r="AH16" s="363"/>
+      <c r="AI16" s="357"/>
+      <c r="AJ16" s="358"/>
+      <c r="AK16" s="358"/>
+      <c r="AL16" s="358"/>
+      <c r="AM16" s="358"/>
+      <c r="AN16" s="359"/>
+      <c r="BN16" s="118"/>
+      <c r="BO16" s="118"/>
+      <c r="BP16" s="118"/>
+      <c r="BQ16" s="118"/>
+      <c r="BR16" s="118"/>
+      <c r="BS16" s="118"/>
+      <c r="BT16" s="118"/>
+      <c r="BU16" s="118"/>
+      <c r="BV16" s="118"/>
+      <c r="BW16" s="118"/>
+      <c r="BX16" s="118"/>
+      <c r="BY16" s="118"/>
+      <c r="BZ16" s="118"/>
+      <c r="CA16" s="118"/>
       <c r="CB16" s="103"/>
       <c r="CC16" s="103"/>
       <c r="CD16" s="103"/>
@@ -14499,76 +14510,76 @@
       <c r="DD16" s="103"/>
       <c r="DE16" s="103"/>
       <c r="DF16" s="103"/>
-      <c r="DG16" s="119"/>
-      <c r="DH16" s="119"/>
-      <c r="DI16" s="119"/>
-      <c r="DJ16" s="119"/>
-      <c r="DK16" s="119"/>
-      <c r="DL16" s="119"/>
-      <c r="DM16" s="119"/>
-      <c r="DN16" s="119"/>
-      <c r="DO16" s="119"/>
-      <c r="DP16" s="119"/>
-      <c r="DQ16" s="119"/>
+      <c r="DG16" s="118"/>
+      <c r="DH16" s="118"/>
+      <c r="DI16" s="118"/>
+      <c r="DJ16" s="118"/>
+      <c r="DK16" s="118"/>
+      <c r="DL16" s="118"/>
+      <c r="DM16" s="118"/>
+      <c r="DN16" s="118"/>
+      <c r="DO16" s="118"/>
+      <c r="DP16" s="118"/>
+      <c r="DQ16" s="118"/>
     </row>
     <row r="17" spans="1:121" ht="15" customHeight="1">
-      <c r="A17" s="168"/>
-      <c r="B17" s="372"/>
-      <c r="C17" s="373"/>
-      <c r="D17" s="373"/>
-      <c r="E17" s="373"/>
-      <c r="F17" s="374"/>
-      <c r="G17" s="368"/>
-      <c r="H17" s="370"/>
-      <c r="I17" s="370"/>
-      <c r="J17" s="370"/>
-      <c r="K17" s="369"/>
-      <c r="L17" s="368"/>
-      <c r="M17" s="370"/>
-      <c r="N17" s="370"/>
-      <c r="O17" s="370"/>
-      <c r="P17" s="369"/>
-      <c r="Q17" s="169"/>
-      <c r="R17" s="375"/>
-      <c r="S17" s="375"/>
-      <c r="T17" s="375"/>
-      <c r="U17" s="375"/>
-      <c r="V17" s="371"/>
-      <c r="W17" s="371"/>
-      <c r="X17" s="366">
+      <c r="A17" s="167"/>
+      <c r="B17" s="366"/>
+      <c r="C17" s="367"/>
+      <c r="D17" s="367"/>
+      <c r="E17" s="367"/>
+      <c r="F17" s="368"/>
+      <c r="G17" s="362"/>
+      <c r="H17" s="364"/>
+      <c r="I17" s="364"/>
+      <c r="J17" s="364"/>
+      <c r="K17" s="363"/>
+      <c r="L17" s="362"/>
+      <c r="M17" s="364"/>
+      <c r="N17" s="364"/>
+      <c r="O17" s="364"/>
+      <c r="P17" s="363"/>
+      <c r="Q17" s="168"/>
+      <c r="R17" s="369"/>
+      <c r="S17" s="369"/>
+      <c r="T17" s="369"/>
+      <c r="U17" s="369"/>
+      <c r="V17" s="365"/>
+      <c r="W17" s="365"/>
+      <c r="X17" s="360">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y17" s="367"/>
-      <c r="Z17" s="368"/>
-      <c r="AA17" s="369"/>
-      <c r="AB17" s="368"/>
-      <c r="AC17" s="369"/>
-      <c r="AD17" s="368"/>
-      <c r="AE17" s="369"/>
-      <c r="AF17" s="368"/>
-      <c r="AG17" s="370"/>
-      <c r="AH17" s="369"/>
-      <c r="AI17" s="363"/>
-      <c r="AJ17" s="364"/>
-      <c r="AK17" s="364"/>
-      <c r="AL17" s="364"/>
-      <c r="AM17" s="364"/>
-      <c r="AN17" s="365"/>
-      <c r="BN17" s="119"/>
-      <c r="BO17" s="119"/>
-      <c r="BP17" s="119"/>
-      <c r="BQ17" s="119"/>
-      <c r="BR17" s="119"/>
-      <c r="BS17" s="119"/>
-      <c r="BT17" s="119"/>
-      <c r="BU17" s="119"/>
-      <c r="BV17" s="119"/>
-      <c r="BW17" s="119"/>
-      <c r="BX17" s="119"/>
-      <c r="BY17" s="119"/>
-      <c r="BZ17" s="119"/>
-      <c r="CA17" s="119"/>
+      <c r="Y17" s="361"/>
+      <c r="Z17" s="362"/>
+      <c r="AA17" s="363"/>
+      <c r="AB17" s="362"/>
+      <c r="AC17" s="363"/>
+      <c r="AD17" s="362"/>
+      <c r="AE17" s="363"/>
+      <c r="AF17" s="362"/>
+      <c r="AG17" s="364"/>
+      <c r="AH17" s="363"/>
+      <c r="AI17" s="357"/>
+      <c r="AJ17" s="358"/>
+      <c r="AK17" s="358"/>
+      <c r="AL17" s="358"/>
+      <c r="AM17" s="358"/>
+      <c r="AN17" s="359"/>
+      <c r="BN17" s="118"/>
+      <c r="BO17" s="118"/>
+      <c r="BP17" s="118"/>
+      <c r="BQ17" s="118"/>
+      <c r="BR17" s="118"/>
+      <c r="BS17" s="118"/>
+      <c r="BT17" s="118"/>
+      <c r="BU17" s="118"/>
+      <c r="BV17" s="118"/>
+      <c r="BW17" s="118"/>
+      <c r="BX17" s="118"/>
+      <c r="BY17" s="118"/>
+      <c r="BZ17" s="118"/>
+      <c r="CA17" s="118"/>
       <c r="CB17" s="103"/>
       <c r="CC17" s="103"/>
       <c r="CD17" s="103"/>
@@ -14600,17 +14611,17 @@
       <c r="DD17" s="103"/>
       <c r="DE17" s="103"/>
       <c r="DF17" s="103"/>
-      <c r="DG17" s="119"/>
-      <c r="DH17" s="119"/>
-      <c r="DI17" s="119"/>
-      <c r="DJ17" s="119"/>
-      <c r="DK17" s="119"/>
-      <c r="DL17" s="119"/>
-      <c r="DM17" s="119"/>
-      <c r="DN17" s="119"/>
-      <c r="DO17" s="119"/>
-      <c r="DP17" s="119"/>
-      <c r="DQ17" s="119"/>
+      <c r="DG17" s="118"/>
+      <c r="DH17" s="118"/>
+      <c r="DI17" s="118"/>
+      <c r="DJ17" s="118"/>
+      <c r="DK17" s="118"/>
+      <c r="DL17" s="118"/>
+      <c r="DM17" s="118"/>
+      <c r="DN17" s="118"/>
+      <c r="DO17" s="118"/>
+      <c r="DP17" s="118"/>
+      <c r="DQ17" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="138">
@@ -14754,7 +14765,7 @@
     <mergeCell ref="AI10:AN10"/>
   </mergeCells>
   <phoneticPr fontId="16"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q8:Q17">
       <formula1>"○,-"</formula1>
     </dataValidation>
